--- a/migforecasting/clustering/AN-method output (only mundist).xlsx
+++ b/migforecasting/clustering/AN-method output (only mundist).xlsx
@@ -14,32 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$1:$R$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$2:$R$2</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$C$2:$R$2</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$C$3:$R$3</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$C$1:$R$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$C$2:$R$2</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$C$3:$R$3</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$C$1:$R$1</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$C$2:$R$2</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$C$3:$R$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$3:$R$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$1:$R$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$2:$R$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$3:$R$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$C$1:$R$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$C$2:$R$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$C$3:$R$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$C$1:$R$1</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
   <si>
     <t>clust</t>
   </si>
@@ -113,7 +93,7 @@
     <t>strong-feature</t>
   </si>
   <si>
-    <t>ё</t>
+    <t>Процент превосходства соцэко индикатора в положительной части кластера по сравнению с отрицательной</t>
   </si>
 </sst>
 </file>
@@ -123,7 +103,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,28 +147,25 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="21">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -315,28 +292,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="mediumDashed">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="mediumDashed">
         <color indexed="64"/>
       </right>
@@ -453,7 +408,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -495,17 +450,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -514,60 +460,66 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -601,500 +553,823 @@
   </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="25000"/>
-              <a:lumOff val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d contourW="19050">
-          <a:contourClr>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="25000"/>
-              <a:lumOff val="75000"/>
-            </a:schemeClr>
-          </a:contourClr>
-        </a:sp3d>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="percentStacked"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Positive</c:v>
-          </c:tx>
           <c:spPr>
-            <a:pattFill prst="ltDnDiag">
-              <a:fgClr>
-                <a:schemeClr val="accent1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d>
-              <a:contourClr>
-                <a:schemeClr val="accent1"/>
-              </a:contourClr>
-            </a:sp3d>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!$C$1:$R$1</c:f>
+              <c:f>Sheet1!$D$24:$R$24</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>popsize</c:v>
+                  <c:v>avgemployers</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>avgemployers</c:v>
+                  <c:v>avgsalary</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>avgsalary</c:v>
+                  <c:v>shoparea</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>shoparea</c:v>
+                  <c:v>foodseats</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>foodseats</c:v>
+                  <c:v>retailturnover</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>retailturnover</c:v>
+                  <c:v>livarea</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>livarea</c:v>
+                  <c:v>sportsvenue</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>sportsvenue</c:v>
+                  <c:v>servicesnum</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>servicesnum</c:v>
+                  <c:v>roadslen</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>roadslen</c:v>
+                  <c:v>livestock</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>livestock</c:v>
+                  <c:v>harvest</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>harvest</c:v>
+                  <c:v>agrprod</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>agrprod</c:v>
+                  <c:v>hospitals</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>hospitals</c:v>
+                  <c:v>beforeschool</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>beforeschool</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>factoriescap</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$R$2</c:f>
+              <c:f>Sheet1!$D$25:$R$25</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0" formatCode="0.00">
-                  <c:v>12466.2215189873</c:v>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-4.5743197755307441E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15537792827527699</c:v>
+                  <c:v>2.7774349516331842E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19572.777895253101</c:v>
+                  <c:v>5.3474901878183267E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59943388972022804</c:v>
+                  <c:v>0.14461645276441581</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1408653018402099E-2</c:v>
+                  <c:v>9.9704416197773149E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.763283585238799</c:v>
+                  <c:v>6.6799773221124736E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36.797278481012597</c:v>
+                  <c:v>-8.6941013784360033E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1782259483334901E-3</c:v>
+                  <c:v>2.4699306072995864E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.17877692228757E-3</c:v>
+                  <c:v>-3.8789332453257219E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.4741021307432398E-2</c:v>
+                  <c:v>0.13749994095015872</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.2083498388787102</c:v>
+                  <c:v>0.25861368569064869</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.95033878347038303</c:v>
+                  <c:v>0.20980388556349383</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>63.417090477938302</c:v>
+                  <c:v>-0.10010439308011876</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.44716921405294E-3</c:v>
+                  <c:v>-0.1785524891387561</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.3844441259593803E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>75.817080209307306</c:v>
+                  <c:v>0.19480529083602205</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5324-4008-A1C7-18A85C25A9B4}"/>
+              <c16:uniqueId val="{00000000-073C-4561-8E95-C8867062815C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Negative</c:v>
-          </c:tx>
           <c:spPr>
-            <a:pattFill prst="ltDnDiag">
-              <a:fgClr>
-                <a:schemeClr val="accent2"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d>
-              <a:contourClr>
-                <a:schemeClr val="accent2"/>
-              </a:contourClr>
-            </a:sp3d>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!$C$1:$R$1</c:f>
+              <c:f>Sheet1!$D$24:$R$24</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>popsize</c:v>
+                  <c:v>avgemployers</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>avgemployers</c:v>
+                  <c:v>avgsalary</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>avgsalary</c:v>
+                  <c:v>shoparea</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>shoparea</c:v>
+                  <c:v>foodseats</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>foodseats</c:v>
+                  <c:v>retailturnover</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>retailturnover</c:v>
+                  <c:v>livarea</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>livarea</c:v>
+                  <c:v>sportsvenue</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>sportsvenue</c:v>
+                  <c:v>servicesnum</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>servicesnum</c:v>
+                  <c:v>roadslen</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>roadslen</c:v>
+                  <c:v>livestock</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>livestock</c:v>
+                  <c:v>harvest</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>harvest</c:v>
+                  <c:v>agrprod</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>agrprod</c:v>
+                  <c:v>hospitals</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>hospitals</c:v>
+                  <c:v>beforeschool</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>beforeschool</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>factoriescap</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$R$3</c:f>
+              <c:f>Sheet1!$D$26:$R$26</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0" formatCode="0.00">
-                  <c:v>12193.522811343901</c:v>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>3.0509624868235496E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16282611547518699</c:v>
+                  <c:v>7.438993738363342E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19043.8474208507</c:v>
+                  <c:v>1.1978388733416834E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59624547290434105</c:v>
+                  <c:v>-8.3145081627309381E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8703778865572899E-2</c:v>
+                  <c:v>0.16127795903622766</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.8834737020156</c:v>
+                  <c:v>2.9608327240562282E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.493144266337701</c:v>
+                  <c:v>-5.8922843263540248E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.48085501190487E-3</c:v>
+                  <c:v>2.3503011526366802E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1262597811619499E-3</c:v>
+                  <c:v>-4.5160987023170396E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.65465301395614E-2</c:v>
+                  <c:v>-5.4709366162986717E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.9414065525437001</c:v>
+                  <c:v>2.3761624816903248E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.75506789277354502</c:v>
+                  <c:v>0.1230402599800573</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>52.419314596927698</c:v>
+                  <c:v>-0.16355901877733359</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.60815232669736E-3</c:v>
+                  <c:v>-6.7763340025902341E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.3374610890993199E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>63.455594640242197</c:v>
+                  <c:v>0.25852228066912319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5324-4008-A1C7-18A85C25A9B4}"/>
+              <c16:uniqueId val="{00000001-073C-4561-8E95-C8867062815C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$D$24:$R$24</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>avgemployers</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>avgsalary</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>shoparea</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>foodseats</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>retailturnover</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>livarea</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sportsvenue</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>servicesnum</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>roadslen</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>livestock</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>harvest</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>agrprod</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>hospitals</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>beforeschool</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>factoriescap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$27:$R$27</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-9.276436666696275E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1698938401325076E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.9032691128102055E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6753767380775439E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4221794072617753E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.3140747587474548E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.10280391950165912</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.6766206269346235E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-9.2545168457396798E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.9219342480681485E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.18908855007090697</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24984082909823457</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.14188101151990107</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.10721056495603187</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.18010938619017747</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-073C-4561-8E95-C8867062815C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$D$24:$R$24</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>avgemployers</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>avgsalary</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>shoparea</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>foodseats</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>retailturnover</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>livarea</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sportsvenue</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>servicesnum</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>roadslen</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>livestock</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>harvest</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>agrprod</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>hospitals</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>beforeschool</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>factoriescap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$28:$R$28</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-8.8491683697801138E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3840254470228563E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.1317383830811063E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.1905172992594988E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2260209641986632E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.913781536360637E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.10205138645053313</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.3710136465821319E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.7758610082039299E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6.8334115734363099E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.18277773424703936</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.3312773550577583E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-6.2561852170983534E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-5.8890452041020835E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1669857489501978</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-073C-4561-8E95-C8867062815C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$D$24:$R$24</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>avgemployers</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>avgsalary</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>shoparea</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>foodseats</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>retailturnover</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>livarea</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sportsvenue</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>servicesnum</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>roadslen</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>livestock</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>harvest</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>agrprod</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>hospitals</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>beforeschool</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>factoriescap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$29:$R$29</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-1.0808853999729751E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8306416665261578E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.1999354749875355E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.1917326009136531E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0016609646382761E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5923299143229244E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.385898197895254E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.10476866889154923</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.696950280521996E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-8.3030329097429356E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.14078501293855417</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.15861999003068639</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-6.7326038437284574E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.10523703005015461</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.24930036235826813</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-073C-4561-8E95-C8867062815C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$D$24:$R$24</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>avgemployers</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>avgsalary</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>shoparea</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>foodseats</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>retailturnover</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>livarea</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sportsvenue</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>servicesnum</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>roadslen</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>livestock</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>harvest</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>agrprod</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>hospitals</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>beforeschool</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>factoriescap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$30:$R$30</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-8.3641311857414191E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.1515123253855766E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3094188465290033E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12294637825966181</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22275591448484011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.1350861922453204E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.10377296264968261</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.5478618546968193E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1459923244266941E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.16501618699201137</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20763657163752081</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.15441602399973542</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-9.2363423757613416E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.10786277277313128</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.1508407556542597E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-073C-4561-8E95-C8867062815C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:shape val="box"/>
-        <c:axId val="74647808"/>
-        <c:axId val="74644896"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="74647808"/>
+        <c:axId val="2128226767"/>
+        <c:axId val="2128228015"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2128226767"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="25000"/>
@@ -1125,7 +1400,1029 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74644896"/>
+        <c:crossAx val="2128228015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2128228015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2128226767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="38000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$24:$R$24</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>avgemployers</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>avgsalary</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>shoparea</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>foodseats</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>retailturnover</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>livarea</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sportsvenue</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>servicesnum</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>roadslen</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>livestock</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>harvest</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>agrprod</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>hospitals</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>beforeschool</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>factoriescap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$25:$R$25</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-4.5743197755307441E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7774349516331842E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3474901878183267E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14461645276441581</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9704416197773149E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6799773221124736E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.6941013784360033E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4699306072995864E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.8789332453257219E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13749994095015872</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25861368569064869</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.20980388556349383</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.10010439308011876</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.1785524891387561</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.19480529083602205</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A0BD-4CB0-8ED1-1A9898987924}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="38000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$24:$R$24</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>avgemployers</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>avgsalary</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>shoparea</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>foodseats</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>retailturnover</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>livarea</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sportsvenue</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>servicesnum</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>roadslen</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>livestock</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>harvest</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>agrprod</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>hospitals</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>beforeschool</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>factoriescap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$26:$R$26</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>3.0509624868235496E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.438993738363342E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1978388733416834E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8.3145081627309381E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16127795903622766</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9608327240562282E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.8922843263540248E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3503011526366802E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.5160987023170396E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-5.4709366162986717E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3761624816903248E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1230402599800573</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.16355901877733359</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-6.7763340025902341E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.25852228066912319</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A0BD-4CB0-8ED1-1A9898987924}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="38000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$24:$R$24</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>avgemployers</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>avgsalary</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>shoparea</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>foodseats</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>retailturnover</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>livarea</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sportsvenue</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>servicesnum</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>roadslen</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>livestock</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>harvest</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>agrprod</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>hospitals</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>beforeschool</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>factoriescap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$27:$R$27</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-9.276436666696275E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1698938401325076E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.9032691128102055E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6753767380775439E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4221794072617753E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.3140747587474548E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.10280391950165912</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.6766206269346235E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-9.2545168457396798E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.9219342480681485E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.18908855007090697</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24984082909823457</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.14188101151990107</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.10721056495603187</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.18010938619017747</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A0BD-4CB0-8ED1-1A9898987924}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="38000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$24:$R$24</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>avgemployers</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>avgsalary</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>shoparea</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>foodseats</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>retailturnover</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>livarea</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sportsvenue</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>servicesnum</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>roadslen</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>livestock</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>harvest</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>agrprod</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>hospitals</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>beforeschool</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>factoriescap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$28:$R$28</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-8.8491683697801138E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3840254470228563E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.1317383830811063E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.1905172992594988E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2260209641986632E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.913781536360637E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.10205138645053313</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.3710136465821319E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.7758610082039299E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6.8334115734363099E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.18277773424703936</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.3312773550577583E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-6.2561852170983534E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-5.8890452041020835E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1669857489501978</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A0BD-4CB0-8ED1-1A9898987924}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="38000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$24:$R$24</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>avgemployers</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>avgsalary</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>shoparea</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>foodseats</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>retailturnover</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>livarea</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sportsvenue</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>servicesnum</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>roadslen</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>livestock</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>harvest</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>agrprod</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>hospitals</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>beforeschool</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>factoriescap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$29:$R$29</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-1.0808853999729751E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8306416665261578E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.1999354749875355E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.1917326009136531E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0016609646382761E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5923299143229244E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.385898197895254E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.10476866889154923</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.696950280521996E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-8.3030329097429356E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.14078501293855417</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.15861999003068639</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-6.7326038437284574E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.10523703005015461</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.24930036235826813</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A0BD-4CB0-8ED1-1A9898987924}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="38000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$24:$R$24</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>avgemployers</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>avgsalary</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>shoparea</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>foodseats</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>retailturnover</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>livarea</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sportsvenue</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>servicesnum</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>roadslen</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>livestock</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>harvest</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>agrprod</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>hospitals</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>beforeschool</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>factoriescap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$30:$R$30</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-8.3641311857414191E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.1515123253855766E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3094188465290033E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12294637825966181</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22275591448484011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.1350861922453204E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.10377296264968261</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.5478618546968193E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1459923244266941E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.16501618699201137</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20763657163752081</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.15441602399973542</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-9.2363423757613416E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.10786277277313128</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.1508407556542597E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A0BD-4CB0-8ED1-1A9898987924}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1587005247"/>
+        <c:axId val="1587010655"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="1587005247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1587010655"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1133,21 +2430,22 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74644896"/>
+        <c:axId val="1587010655"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -1171,8 +2469,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1183,7 +2481,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74647808"/>
+        <c:crossAx val="1587005247"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1196,7 +2494,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1211,11 +2509,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1304,8 +2602,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="299">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1316,7 +2654,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1329,7 +2667,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="25000"/>
@@ -1346,7 +2684,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1362,7 +2700,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1406,75 +2744,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="narHorz">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:innerShdw blurRad="114300">
-          <a:schemeClr val="phClr"/>
-        </a:innerShdw>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltDnDiag">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1483,21 +2781,25 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -1524,6 +2826,551 @@
       <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -1577,7 +3424,7 @@
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1596,7 +3443,6 @@
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -1607,17 +3453,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -1627,13 +3462,14 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -1666,11 +3502,11 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1698,8 +3534,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1726,10 +3562,21 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1747,7 +3594,7 @@
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -1761,19 +3608,19 @@
         <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="2"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1786,8 +3633,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1819,8 +3666,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1840,20 +3687,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>80961</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>100852</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1863,6 +3710,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2156,10 +4033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA23"/>
+  <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X29" sqref="X29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2202,10 +4079,10 @@
       <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
@@ -2226,10 +4103,10 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="22" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="13" t="s">
@@ -2247,33 +4124,17 @@
       <c r="R1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="W1" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="X1" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y1" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z1" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA1" s="41" t="s">
-        <v>12</v>
-      </c>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -2282,13 +4143,13 @@
       <c r="B2" s="4">
         <v>77.993670886075904</v>
       </c>
-      <c r="C2" s="36">
+      <c r="C2" s="29">
         <v>12466.2215189873</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="19">
         <v>0.15537792827527699</v>
       </c>
-      <c r="E2" s="33">
+      <c r="E2" s="27">
         <v>19572.777895253101</v>
       </c>
       <c r="F2" s="3">
@@ -2309,10 +4170,10 @@
       <c r="K2" s="3">
         <v>2.17877692228757E-3</v>
       </c>
-      <c r="L2" s="25">
+      <c r="L2" s="19">
         <v>4.4741021307432398E-2</v>
       </c>
-      <c r="M2" s="29">
+      <c r="M2" s="23">
         <v>2.2083498388787102</v>
       </c>
       <c r="N2" s="8">
@@ -2330,38 +4191,14 @@
       <c r="R2" s="8">
         <v>75.817080209307306</v>
       </c>
-      <c r="T2" s="16">
-        <f>(R2/R3)-1</f>
-        <v>0.19480529083602205</v>
-      </c>
-      <c r="U2" s="16">
-        <f>(Q2/Q3)-1</f>
-        <v>-0.1785524891387561</v>
-      </c>
-      <c r="V2" s="16">
-        <f>(P2/P3)-1</f>
-        <v>-0.10010439308011876</v>
-      </c>
-      <c r="W2" s="16">
-        <f>(N2/N3)-1</f>
-        <v>0.25861368569064869</v>
-      </c>
-      <c r="X2" s="16">
-        <f>(J2/J3)-1</f>
-        <v>-8.6941013784360033E-2</v>
-      </c>
-      <c r="Y2" s="16">
-        <f>(H2/H3)-1</f>
-        <v>9.9704416197773149E-2</v>
-      </c>
-      <c r="Z2" s="16">
-        <f>(E2/E3)-1</f>
-        <v>2.7774349516331842E-2</v>
-      </c>
-      <c r="AA2" s="16">
-        <f>(M2/M3)-1</f>
-        <v>0.13749994095015872</v>
-      </c>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="41"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -2370,13 +4207,13 @@
       <c r="B3" s="4">
         <v>-123.419235511713</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="29">
         <v>12193.522811343901</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="19">
         <v>0.16282611547518699</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="27">
         <v>19043.8474208507</v>
       </c>
       <c r="F3" s="3">
@@ -2397,10 +4234,10 @@
       <c r="K3" s="3">
         <v>2.1262597811619499E-3</v>
       </c>
-      <c r="L3" s="25">
+      <c r="L3" s="19">
         <v>4.65465301395614E-2</v>
       </c>
-      <c r="M3" s="29">
+      <c r="M3" s="23">
         <v>1.9414065525437001</v>
       </c>
       <c r="N3" s="8">
@@ -2418,32 +4255,42 @@
       <c r="R3" s="8">
         <v>63.455594640242197</v>
       </c>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="W3" s="16"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="42"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="33"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="27"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="8"/>
       <c r="I4" s="3"/>
       <c r="J4" s="8"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="29"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="23"/>
       <c r="N4" s="8"/>
       <c r="O4" s="3"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="W4" s="16"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="42"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -2452,13 +4299,13 @@
       <c r="B5" s="4">
         <v>169.482758620689</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="29">
         <v>34342.793103448203</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="19">
         <v>0.140599216047296</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="27">
         <v>20210.003367155099</v>
       </c>
       <c r="F5" s="3">
@@ -2479,10 +4326,10 @@
       <c r="K5" s="3">
         <v>1.95814363189694E-3</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="19">
         <v>1.7680319496344001E-2</v>
       </c>
-      <c r="M5" s="29">
+      <c r="M5" s="23">
         <v>2.9557867543708398</v>
       </c>
       <c r="N5" s="8">
@@ -2500,41 +4347,17 @@
       <c r="R5" s="8">
         <v>118.263281060987</v>
       </c>
-      <c r="S5" s="19" t="s">
+      <c r="S5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="16">
-        <f>(R5/R6)-1</f>
-        <v>0.25852228066912319</v>
-      </c>
-      <c r="U5" s="16">
-        <f>(Q5/Q6)-1</f>
-        <v>-6.7763340025902341E-2</v>
-      </c>
-      <c r="V5" s="16">
-        <f>(P5/P6)-1</f>
-        <v>-0.16355901877733359</v>
-      </c>
-      <c r="W5" s="16">
-        <f>(N5/N6)-1</f>
-        <v>2.3761624816903248E-2</v>
-      </c>
-      <c r="X5" s="16">
-        <f>(J5/J6)-1</f>
-        <v>-5.8922843263540248E-2</v>
-      </c>
-      <c r="Y5" s="16">
-        <f>(H5/H6)-1</f>
-        <v>0.16127795903622766</v>
-      </c>
-      <c r="Z5" s="16">
-        <f>(E5/E6)-1</f>
-        <v>7.438993738363342E-2</v>
-      </c>
-      <c r="AA5" s="16">
-        <f>(M5/M6)-1</f>
-        <v>-5.4709366162986717E-2</v>
-      </c>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="41"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -2543,13 +4366,13 @@
       <c r="B6" s="4">
         <v>-201.71624266144701</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="29">
         <v>28360.273972602699</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="19">
         <v>0.13643658696081901</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="27">
         <v>18810.678194148699</v>
       </c>
       <c r="F6" s="3">
@@ -2570,10 +4393,10 @@
       <c r="K6" s="3">
         <v>1.9131781830096701E-3</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="19">
         <v>1.8516544942192299E-2</v>
       </c>
-      <c r="M6" s="29">
+      <c r="M6" s="23">
         <v>3.1268550100544799</v>
       </c>
       <c r="N6" s="8">
@@ -2591,36 +4414,46 @@
       <c r="R6" s="8">
         <v>93.969954189535301</v>
       </c>
-      <c r="S6" s="19" t="s">
+      <c r="S6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="W6" s="16"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="42"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="33"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="8"/>
       <c r="I7" s="3"/>
       <c r="J7" s="8"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="29"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="23"/>
       <c r="N7" s="8"/>
       <c r="O7" s="3"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="W7" s="16"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="42"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -2629,13 +4462,13 @@
       <c r="B8" s="5">
         <v>150.11787819253399</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="29">
         <v>38381.222003929201</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="19">
         <v>0.149972072188887</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="27">
         <v>21023.171959174801</v>
       </c>
       <c r="F8" s="3">
@@ -2656,10 +4489,10 @@
       <c r="K8" s="3">
         <v>2.18425076030584E-3</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="19">
         <v>1.4035777899736901E-2</v>
       </c>
-      <c r="M8" s="29">
+      <c r="M8" s="23">
         <v>1.7095834867900701</v>
       </c>
       <c r="N8" s="8">
@@ -2677,39 +4510,15 @@
       <c r="R8" s="8">
         <v>83.250391101316396</v>
       </c>
-      <c r="S8" s="20"/>
-      <c r="T8" s="16">
-        <f>(R8/R9)-1</f>
-        <v>0.18010938619017747</v>
-      </c>
-      <c r="U8" s="16">
-        <f>(Q8/Q9)-1</f>
-        <v>-0.10721056495603187</v>
-      </c>
-      <c r="V8" s="16">
-        <f>(P8/P9)-1</f>
-        <v>-0.14188101151990107</v>
-      </c>
-      <c r="W8" s="16">
-        <f>(N8/N9)-1</f>
-        <v>0.18908855007090697</v>
-      </c>
-      <c r="X8" s="16">
-        <f>(J8/J9)-1</f>
-        <v>-0.10280391950165912</v>
-      </c>
-      <c r="Y8" s="16">
-        <f>(H8/H9)-1</f>
-        <v>7.4221794072617753E-2</v>
-      </c>
-      <c r="Z8" s="16">
-        <f>(E8/E9)-1</f>
-        <v>1.1698938401325076E-2</v>
-      </c>
-      <c r="AA8" s="16">
-        <f>(M8/M9)-1</f>
-        <v>-3.9219342480681485E-2</v>
-      </c>
+      <c r="S8" s="17"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="41"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -2718,13 +4527,13 @@
       <c r="B9" s="5">
         <v>-210.86457780137999</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="29">
         <v>32050.647371216099</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="19">
         <v>0.16530663774516199</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="27">
         <v>20780.067232644698</v>
       </c>
       <c r="F9" s="3">
@@ -2745,10 +4554,10 @@
       <c r="K9" s="3">
         <v>2.2676226421065701E-3</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="19">
         <v>1.5467191767415201E-2</v>
       </c>
-      <c r="M9" s="29">
+      <c r="M9" s="23">
         <v>1.77936917589923</v>
       </c>
       <c r="N9" s="8">
@@ -2766,34 +4575,44 @@
       <c r="R9" s="8">
         <v>70.544639399978806</v>
       </c>
-      <c r="S9" s="20"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="W9" s="16"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="42"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="33"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="27"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="8"/>
       <c r="I10" s="3"/>
       <c r="J10" s="8"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="29"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="23"/>
       <c r="N10" s="8"/>
       <c r="O10" s="3"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="W10" s="16"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="42"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -2802,13 +4621,13 @@
       <c r="B11" s="5">
         <v>190.13690476190399</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="29">
         <v>35649.398809523802</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="19">
         <v>0.15775027305643</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="27">
         <v>20557.532877559501</v>
       </c>
       <c r="F11" s="3">
@@ -2829,10 +4648,10 @@
       <c r="K11" s="3">
         <v>2.1869503982130801E-3</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11" s="19">
         <v>1.8858009986420302E-2</v>
       </c>
-      <c r="M11" s="29">
+      <c r="M11" s="23">
         <v>12.5095739121479</v>
       </c>
       <c r="N11" s="8">
@@ -2850,41 +4669,17 @@
       <c r="R11" s="8">
         <v>155.613070376834</v>
       </c>
-      <c r="S11" s="19" t="s">
+      <c r="S11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="T11" s="16">
-        <f>(R11/R12)-1</f>
-        <v>0.1669857489501978</v>
-      </c>
-      <c r="U11" s="16">
-        <f>(Q11/Q12)-1</f>
-        <v>-5.8890452041020835E-2</v>
-      </c>
-      <c r="V11" s="16">
-        <f>(P11/P12)-1</f>
-        <v>-6.2561852170983534E-2</v>
-      </c>
-      <c r="W11" s="16">
-        <f>(N11/N12)-1</f>
-        <v>0.18277773424703936</v>
-      </c>
-      <c r="X11" s="16">
-        <f>(J11/J12)-1</f>
-        <v>-0.10205138645053313</v>
-      </c>
-      <c r="Y11" s="16">
-        <f>(H11/H12)-1</f>
-        <v>5.2260209641986632E-2</v>
-      </c>
-      <c r="Z11" s="16">
-        <f>(E11/E12)-1</f>
-        <v>6.3840254470228563E-2</v>
-      </c>
-      <c r="AA11" s="16">
-        <f>(M11/M12)-1</f>
-        <v>-6.8334115734363099E-3</v>
-      </c>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="41"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -2893,13 +4688,13 @@
       <c r="B12" s="5">
         <v>-178.119402985074</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="29">
         <v>28372.8272921108</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="19">
         <v>0.15915869514730299</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="27">
         <v>19323.890773240899</v>
       </c>
       <c r="F12" s="3">
@@ -2920,10 +4715,10 @@
       <c r="K12" s="3">
         <v>2.2400625878632998E-3</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="19">
         <v>1.89485054145936E-2</v>
       </c>
-      <c r="M12" s="29">
+      <c r="M12" s="23">
         <v>12.595645139418499</v>
       </c>
       <c r="N12" s="8">
@@ -2941,36 +4736,46 @@
       <c r="R12" s="8">
         <v>133.34616169633699</v>
       </c>
-      <c r="S12" s="19" t="s">
+      <c r="S12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="W12" s="16"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="42"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="33"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="27"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="8"/>
       <c r="I13" s="3"/>
       <c r="J13" s="8"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="29"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="23"/>
       <c r="N13" s="8"/>
       <c r="O13" s="3"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="W13" s="16"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="42"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -2979,13 +4784,13 @@
       <c r="B14" s="5">
         <v>74.800766283524794</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="29">
         <v>18071.360153256599</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="19">
         <v>0.14688569170663399</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="27">
         <v>19058.719056245202</v>
       </c>
       <c r="F14" s="3">
@@ -3006,10 +4811,10 @@
       <c r="K14" s="3">
         <v>1.9321186749371199E-3</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L14" s="19">
         <v>2.1467873108114599E-2</v>
       </c>
-      <c r="M14" s="29">
+      <c r="M14" s="23">
         <v>3.1891703495100101</v>
       </c>
       <c r="N14" s="8">
@@ -3027,41 +4832,17 @@
       <c r="R14" s="8">
         <v>73.125417192873499</v>
       </c>
-      <c r="S14" s="19" t="s">
+      <c r="S14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="T14" s="16">
-        <f>(R14/R15)-1</f>
-        <v>0.24930036235826813</v>
-      </c>
-      <c r="U14" s="16">
-        <f>(Q14/Q15)-1</f>
-        <v>-0.10523703005015461</v>
-      </c>
-      <c r="V14" s="16">
-        <f>(P14/P15)-1</f>
-        <v>-6.7326038437284574E-2</v>
-      </c>
-      <c r="W14" s="16">
-        <f>(N14/N15)-1</f>
-        <v>0.14078501293855417</v>
-      </c>
-      <c r="X14" s="16">
-        <f>(J14/J15)-1</f>
-        <v>-3.385898197895254E-2</v>
-      </c>
-      <c r="Y14" s="16">
-        <f>(H14/H15)-1</f>
-        <v>4.0016609646382761E-2</v>
-      </c>
-      <c r="Z14" s="16">
-        <f>(E14/E15)-1</f>
-        <v>3.8306416665261578E-2</v>
-      </c>
-      <c r="AA14" s="16">
-        <f>(M14/M15)-1</f>
-        <v>-8.3030329097429356E-2</v>
-      </c>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="39"/>
+      <c r="AA14" s="41"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -3070,13 +4851,13 @@
       <c r="B15" s="5">
         <v>-157.806106870229</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="29">
         <v>17671.669720101701</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="19">
         <v>0.14704463010045399</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="27">
         <v>18355.582466162799</v>
       </c>
       <c r="F15" s="3">
@@ -3097,10 +4878,10 @@
       <c r="K15" s="3">
         <v>2.1582339757309698E-3</v>
       </c>
-      <c r="L15" s="25">
+      <c r="L15" s="19">
         <v>2.0120418673328901E-2</v>
       </c>
-      <c r="M15" s="29">
+      <c r="M15" s="23">
         <v>3.4779452916593399</v>
       </c>
       <c r="N15" s="8">
@@ -3118,36 +4899,46 @@
       <c r="R15" s="8">
         <v>58.533095319716999</v>
       </c>
-      <c r="S15" s="19" t="s">
+      <c r="S15" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="W15" s="16"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="42"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="33"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="27"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="8"/>
       <c r="I16" s="3"/>
       <c r="J16" s="8"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="29"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="23"/>
       <c r="N16" s="8"/>
       <c r="O16" s="3"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="W16" s="16"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="42"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -3156,13 +4947,13 @@
       <c r="B17" s="5">
         <v>162.36574074073999</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="29">
         <v>40421.106481481402</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="19">
         <v>0.19879719706364901</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="27">
         <v>25443.955409953702</v>
       </c>
       <c r="F17" s="3">
@@ -3183,10 +4974,10 @@
       <c r="K17" s="3">
         <v>2.52828399277238E-3</v>
       </c>
-      <c r="L17" s="25">
+      <c r="L17" s="19">
         <v>1.6408419923949501E-2</v>
       </c>
-      <c r="M17" s="29">
+      <c r="M17" s="23">
         <v>1.30316756609832</v>
       </c>
       <c r="N17" s="8">
@@ -3204,41 +4995,17 @@
       <c r="R17" s="8">
         <v>351.86731958595101</v>
       </c>
-      <c r="S17" s="19" t="s">
+      <c r="S17" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="T17" s="16">
-        <f>(R17/R18)-1</f>
-        <v>2.1508407556542597E-2</v>
-      </c>
-      <c r="U17" s="16">
-        <f>(Q17/Q18)-1</f>
-        <v>-0.10786277277313128</v>
-      </c>
-      <c r="V17" s="16">
-        <f>(P17/P18)-1</f>
-        <v>-9.2363423757613416E-2</v>
-      </c>
-      <c r="W17" s="16">
-        <f>(N17/N18)-1</f>
-        <v>0.20763657163752081</v>
-      </c>
-      <c r="X17" s="16">
-        <f>(J17/J18)-1</f>
-        <v>-0.10377296264968261</v>
-      </c>
-      <c r="Y17" s="16">
-        <f>(H17/H18)-1</f>
-        <v>0.22275591448484011</v>
-      </c>
-      <c r="Z17" s="16">
-        <f>(E17/E18)-1</f>
-        <v>-5.1515123253855766E-3</v>
-      </c>
-      <c r="AA17" s="16">
-        <f>(M17/M18)-1</f>
-        <v>-0.16501618699201137</v>
-      </c>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
+      <c r="AA17" s="41"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -3247,13 +5014,13 @@
       <c r="B18" s="5">
         <v>-253.02631578947299</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="29">
         <v>37666.082043343602</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="19">
         <v>0.21694255714058999</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="27">
         <v>25575.708990046402</v>
       </c>
       <c r="F18" s="3">
@@ -3274,10 +5041,10 @@
       <c r="K18" s="3">
         <v>2.56803360536563E-3</v>
       </c>
-      <c r="L18" s="25">
+      <c r="L18" s="19">
         <v>1.59079568233149E-2</v>
       </c>
-      <c r="M18" s="29">
+      <c r="M18" s="23">
         <v>1.56070997520745</v>
       </c>
       <c r="N18" s="8">
@@ -3295,27 +5062,34 @@
       <c r="R18" s="8">
         <v>344.45856439656802</v>
       </c>
-      <c r="S18" s="19" t="s">
+      <c r="S18" s="16" t="s">
         <v>21</v>
       </c>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="40"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="40"/>
     </row>
     <row r="19" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="37"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="40"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="33"/>
       <c r="H19" s="9"/>
       <c r="J19" s="9"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="30"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="24"/>
       <c r="N19" s="9"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
     </row>
     <row r="20" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="37"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="31" t="s">
+      <c r="C20" s="30"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="25" t="s">
         <v>23</v>
       </c>
       <c r="H20" s="10" t="s">
@@ -3324,8 +5098,8 @@
       <c r="J20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="27"/>
-      <c r="M20" s="34" t="s">
+      <c r="L20" s="21"/>
+      <c r="M20" s="28" t="s">
         <v>23</v>
       </c>
       <c r="N20" s="10" t="s">
@@ -3340,14 +5114,544 @@
       <c r="R20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="Z23" t="s">
+      <c r="H23" s="36" t="s">
         <v>24</v>
       </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C24" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="M24" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="O24" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="P24" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q24" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="R24" s="37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="15">
+        <f>(C2/C3)-1</f>
+        <v>2.2364226635940065E-2</v>
+      </c>
+      <c r="D25" s="15">
+        <f>(D2/D3)-1</f>
+        <v>-4.5743197755307441E-2</v>
+      </c>
+      <c r="E25" s="15">
+        <f>(E2/E3)-1</f>
+        <v>2.7774349516331842E-2</v>
+      </c>
+      <c r="F25" s="15">
+        <f>(F2/F3)-1</f>
+        <v>5.3474901878183267E-3</v>
+      </c>
+      <c r="G25" s="15">
+        <f>(G2/G3)-1</f>
+        <v>0.14461645276441581</v>
+      </c>
+      <c r="H25" s="15">
+        <f>(H2/H3)-1</f>
+        <v>9.9704416197773149E-2</v>
+      </c>
+      <c r="I25" s="15">
+        <f>(I2/I3)-1</f>
+        <v>6.6799773221124736E-2</v>
+      </c>
+      <c r="J25" s="15">
+        <f>(J2/J3)-1</f>
+        <v>-8.6941013784360033E-2</v>
+      </c>
+      <c r="K25" s="15">
+        <f>(K2/K3)-1</f>
+        <v>2.4699306072995864E-2</v>
+      </c>
+      <c r="L25" s="15">
+        <f>(L2/L3)-1</f>
+        <v>-3.8789332453257219E-2</v>
+      </c>
+      <c r="M25" s="15">
+        <f>(M2/M3)-1</f>
+        <v>0.13749994095015872</v>
+      </c>
+      <c r="N25" s="15">
+        <f>(N2/N3)-1</f>
+        <v>0.25861368569064869</v>
+      </c>
+      <c r="O25" s="15">
+        <f>(O2/O3)-1</f>
+        <v>0.20980388556349383</v>
+      </c>
+      <c r="P25" s="15">
+        <f>(P2/P3)-1</f>
+        <v>-0.10010439308011876</v>
+      </c>
+      <c r="Q25" s="15">
+        <f>(Q2/Q3)-1</f>
+        <v>-0.1785524891387561</v>
+      </c>
+      <c r="R25" s="15">
+        <f>(R2/R3)-1</f>
+        <v>0.19480529083602205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <f>A25+1</f>
+        <v>1</v>
+      </c>
+      <c r="C26" s="15">
+        <f>(C5/C6)-1</f>
+        <v>0.21094715575120637</v>
+      </c>
+      <c r="D26" s="15">
+        <f t="shared" ref="D26:R26" si="0">(D5/D6)-1</f>
+        <v>3.0509624868235496E-2</v>
+      </c>
+      <c r="E26" s="15">
+        <f t="shared" si="0"/>
+        <v>7.438993738363342E-2</v>
+      </c>
+      <c r="F26" s="15">
+        <f t="shared" si="0"/>
+        <v>1.1978388733416834E-2</v>
+      </c>
+      <c r="G26" s="15">
+        <f t="shared" si="0"/>
+        <v>-8.3145081627309381E-3</v>
+      </c>
+      <c r="H26" s="15">
+        <f t="shared" si="0"/>
+        <v>0.16127795903622766</v>
+      </c>
+      <c r="I26" s="15">
+        <f t="shared" si="0"/>
+        <v>2.9608327240562282E-2</v>
+      </c>
+      <c r="J26" s="15">
+        <f t="shared" si="0"/>
+        <v>-5.8922843263540248E-2</v>
+      </c>
+      <c r="K26" s="15">
+        <f t="shared" si="0"/>
+        <v>2.3503011526366802E-2</v>
+      </c>
+      <c r="L26" s="15">
+        <f t="shared" si="0"/>
+        <v>-4.5160987023170396E-2</v>
+      </c>
+      <c r="M26" s="15">
+        <f t="shared" si="0"/>
+        <v>-5.4709366162986717E-2</v>
+      </c>
+      <c r="N26" s="15">
+        <f t="shared" si="0"/>
+        <v>2.3761624816903248E-2</v>
+      </c>
+      <c r="O26" s="15">
+        <f t="shared" si="0"/>
+        <v>0.1230402599800573</v>
+      </c>
+      <c r="P26" s="15">
+        <f t="shared" si="0"/>
+        <v>-0.16355901877733359</v>
+      </c>
+      <c r="Q26" s="15">
+        <f t="shared" si="0"/>
+        <v>-6.7763340025902341E-2</v>
+      </c>
+      <c r="R26" s="15">
+        <f t="shared" si="0"/>
+        <v>0.25852228066912319</v>
+      </c>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="34"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <f t="shared" ref="A27:A30" si="1">A26+1</f>
+        <v>2</v>
+      </c>
+      <c r="C27" s="15">
+        <f>(C8/C9)-1</f>
+        <v>0.19751783979247906</v>
+      </c>
+      <c r="D27" s="15">
+        <f t="shared" ref="D27:R27" si="2">(D8/D9)-1</f>
+        <v>-9.276436666696275E-2</v>
+      </c>
+      <c r="E27" s="15">
+        <f t="shared" si="2"/>
+        <v>1.1698938401325076E-2</v>
+      </c>
+      <c r="F27" s="15">
+        <f t="shared" si="2"/>
+        <v>-5.9032691128102055E-2</v>
+      </c>
+      <c r="G27" s="15">
+        <f t="shared" si="2"/>
+        <v>7.6753767380775439E-2</v>
+      </c>
+      <c r="H27" s="15">
+        <f t="shared" si="2"/>
+        <v>7.4221794072617753E-2</v>
+      </c>
+      <c r="I27" s="15">
+        <f t="shared" si="2"/>
+        <v>-4.3140747587474548E-2</v>
+      </c>
+      <c r="J27" s="15">
+        <f t="shared" si="2"/>
+        <v>-0.10280391950165912</v>
+      </c>
+      <c r="K27" s="15">
+        <f t="shared" si="2"/>
+        <v>-3.6766206269346235E-2</v>
+      </c>
+      <c r="L27" s="15">
+        <f t="shared" si="2"/>
+        <v>-9.2545168457396798E-2</v>
+      </c>
+      <c r="M27" s="15">
+        <f t="shared" si="2"/>
+        <v>-3.9219342480681485E-2</v>
+      </c>
+      <c r="N27" s="15">
+        <f t="shared" si="2"/>
+        <v>0.18908855007090697</v>
+      </c>
+      <c r="O27" s="15">
+        <f t="shared" si="2"/>
+        <v>0.24984082909823457</v>
+      </c>
+      <c r="P27" s="15">
+        <f t="shared" si="2"/>
+        <v>-0.14188101151990107</v>
+      </c>
+      <c r="Q27" s="15">
+        <f t="shared" si="2"/>
+        <v>-0.10721056495603187</v>
+      </c>
+      <c r="R27" s="15">
+        <f t="shared" si="2"/>
+        <v>0.18010938619017747</v>
+      </c>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="15"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C28" s="15">
+        <f>(C11/C12)-1</f>
+        <v>0.25646268672830819</v>
+      </c>
+      <c r="D28" s="15">
+        <f t="shared" ref="D28:R28" si="3">(D11/D12)-1</f>
+        <v>-8.8491683697801138E-3</v>
+      </c>
+      <c r="E28" s="15">
+        <f t="shared" si="3"/>
+        <v>6.3840254470228563E-2</v>
+      </c>
+      <c r="F28" s="15">
+        <f t="shared" si="3"/>
+        <v>-3.1317383830811063E-2</v>
+      </c>
+      <c r="G28" s="15">
+        <f t="shared" si="3"/>
+        <v>-3.1905172992594988E-2</v>
+      </c>
+      <c r="H28" s="15">
+        <f t="shared" si="3"/>
+        <v>5.2260209641986632E-2</v>
+      </c>
+      <c r="I28" s="15">
+        <f t="shared" si="3"/>
+        <v>1.913781536360637E-2</v>
+      </c>
+      <c r="J28" s="15">
+        <f t="shared" si="3"/>
+        <v>-0.10205138645053313</v>
+      </c>
+      <c r="K28" s="15">
+        <f t="shared" si="3"/>
+        <v>-2.3710136465821319E-2</v>
+      </c>
+      <c r="L28" s="15">
+        <f t="shared" si="3"/>
+        <v>-4.7758610082039299E-3</v>
+      </c>
+      <c r="M28" s="15">
+        <f t="shared" si="3"/>
+        <v>-6.8334115734363099E-3</v>
+      </c>
+      <c r="N28" s="15">
+        <f t="shared" si="3"/>
+        <v>0.18277773424703936</v>
+      </c>
+      <c r="O28" s="15">
+        <f t="shared" si="3"/>
+        <v>-1.3312773550577583E-2</v>
+      </c>
+      <c r="P28" s="15">
+        <f t="shared" si="3"/>
+        <v>-6.2561852170983534E-2</v>
+      </c>
+      <c r="Q28" s="15">
+        <f t="shared" si="3"/>
+        <v>-5.8890452041020835E-2</v>
+      </c>
+      <c r="R28" s="15">
+        <f t="shared" si="3"/>
+        <v>0.1669857489501978</v>
+      </c>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="15"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C29" s="15">
+        <f>(C14/C15)-1</f>
+        <v>2.2617581670861808E-2</v>
+      </c>
+      <c r="D29" s="15">
+        <f t="shared" ref="D29:R29" si="4">(D14/D15)-1</f>
+        <v>-1.0808853999729751E-3</v>
+      </c>
+      <c r="E29" s="15">
+        <f t="shared" si="4"/>
+        <v>3.8306416665261578E-2</v>
+      </c>
+      <c r="F29" s="15">
+        <f t="shared" si="4"/>
+        <v>-2.1999354749875355E-3</v>
+      </c>
+      <c r="G29" s="15">
+        <f t="shared" si="4"/>
+        <v>-1.1917326009136531E-2</v>
+      </c>
+      <c r="H29" s="15">
+        <f t="shared" si="4"/>
+        <v>4.0016609646382761E-2</v>
+      </c>
+      <c r="I29" s="15">
+        <f t="shared" si="4"/>
+        <v>5.5923299143229244E-2</v>
+      </c>
+      <c r="J29" s="15">
+        <f t="shared" si="4"/>
+        <v>-3.385898197895254E-2</v>
+      </c>
+      <c r="K29" s="15">
+        <f t="shared" si="4"/>
+        <v>-0.10476866889154923</v>
+      </c>
+      <c r="L29" s="15">
+        <f t="shared" si="4"/>
+        <v>6.696950280521996E-2</v>
+      </c>
+      <c r="M29" s="15">
+        <f t="shared" si="4"/>
+        <v>-8.3030329097429356E-2</v>
+      </c>
+      <c r="N29" s="15">
+        <f t="shared" si="4"/>
+        <v>0.14078501293855417</v>
+      </c>
+      <c r="O29" s="15">
+        <f t="shared" si="4"/>
+        <v>0.15861999003068639</v>
+      </c>
+      <c r="P29" s="15">
+        <f t="shared" si="4"/>
+        <v>-6.7326038437284574E-2</v>
+      </c>
+      <c r="Q29" s="15">
+        <f t="shared" si="4"/>
+        <v>-0.10523703005015461</v>
+      </c>
+      <c r="R29" s="15">
+        <f t="shared" si="4"/>
+        <v>0.24930036235826813</v>
+      </c>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="15"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C30" s="15">
+        <f>(C17/C18)-1</f>
+        <v>7.3143376976864793E-2</v>
+      </c>
+      <c r="D30" s="15">
+        <f t="shared" ref="D30:R30" si="5">(D17/D18)-1</f>
+        <v>-8.3641311857414191E-2</v>
+      </c>
+      <c r="E30" s="15">
+        <f t="shared" si="5"/>
+        <v>-5.1515123253855766E-3</v>
+      </c>
+      <c r="F30" s="15">
+        <f t="shared" si="5"/>
+        <v>7.3094188465290033E-2</v>
+      </c>
+      <c r="G30" s="15">
+        <f t="shared" si="5"/>
+        <v>0.12294637825966181</v>
+      </c>
+      <c r="H30" s="15">
+        <f t="shared" si="5"/>
+        <v>0.22275591448484011</v>
+      </c>
+      <c r="I30" s="15">
+        <f t="shared" si="5"/>
+        <v>6.1350861922453204E-2</v>
+      </c>
+      <c r="J30" s="15">
+        <f t="shared" si="5"/>
+        <v>-0.10377296264968261</v>
+      </c>
+      <c r="K30" s="15">
+        <f t="shared" si="5"/>
+        <v>-1.5478618546968193E-2</v>
+      </c>
+      <c r="L30" s="15">
+        <f t="shared" si="5"/>
+        <v>3.1459923244266941E-2</v>
+      </c>
+      <c r="M30" s="15">
+        <f t="shared" si="5"/>
+        <v>-0.16501618699201137</v>
+      </c>
+      <c r="N30" s="15">
+        <f t="shared" si="5"/>
+        <v>0.20763657163752081</v>
+      </c>
+      <c r="O30" s="15">
+        <f t="shared" si="5"/>
+        <v>0.15441602399973542</v>
+      </c>
+      <c r="P30" s="15">
+        <f t="shared" si="5"/>
+        <v>-9.2363423757613416E-2</v>
+      </c>
+      <c r="Q30" s="15">
+        <f t="shared" si="5"/>
+        <v>-0.10786277277313128</v>
+      </c>
+      <c r="R30" s="15">
+        <f t="shared" si="5"/>
+        <v>2.1508407556542597E-2</v>
+      </c>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="15"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="15"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="15"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C3">

--- a/migforecasting/clustering/AN-method output (only mundist).xlsx
+++ b/migforecasting/clustering/AN-method output (only mundist).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
   <si>
     <t>clust</t>
   </si>
@@ -4035,8 +4035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5105,6 +5105,9 @@
       <c r="N20" s="10" t="s">
         <v>22</v>
       </c>
+      <c r="O20" s="28" t="s">
+        <v>23</v>
+      </c>
       <c r="P20" s="10" t="s">
         <v>22</v>
       </c>
@@ -5179,67 +5182,67 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="15">
-        <f>(C2/C3)-1</f>
+        <f t="shared" ref="C25:R25" si="0">(C2/C3)-1</f>
         <v>2.2364226635940065E-2</v>
       </c>
       <c r="D25" s="15">
-        <f>(D2/D3)-1</f>
+        <f t="shared" si="0"/>
         <v>-4.5743197755307441E-2</v>
       </c>
       <c r="E25" s="15">
-        <f>(E2/E3)-1</f>
+        <f t="shared" si="0"/>
         <v>2.7774349516331842E-2</v>
       </c>
       <c r="F25" s="15">
-        <f>(F2/F3)-1</f>
+        <f t="shared" si="0"/>
         <v>5.3474901878183267E-3</v>
       </c>
       <c r="G25" s="15">
-        <f>(G2/G3)-1</f>
+        <f t="shared" si="0"/>
         <v>0.14461645276441581</v>
       </c>
       <c r="H25" s="15">
-        <f>(H2/H3)-1</f>
+        <f t="shared" si="0"/>
         <v>9.9704416197773149E-2</v>
       </c>
       <c r="I25" s="15">
-        <f>(I2/I3)-1</f>
+        <f t="shared" si="0"/>
         <v>6.6799773221124736E-2</v>
       </c>
       <c r="J25" s="15">
-        <f>(J2/J3)-1</f>
+        <f t="shared" si="0"/>
         <v>-8.6941013784360033E-2</v>
       </c>
       <c r="K25" s="15">
-        <f>(K2/K3)-1</f>
+        <f t="shared" si="0"/>
         <v>2.4699306072995864E-2</v>
       </c>
       <c r="L25" s="15">
-        <f>(L2/L3)-1</f>
+        <f t="shared" si="0"/>
         <v>-3.8789332453257219E-2</v>
       </c>
       <c r="M25" s="15">
-        <f>(M2/M3)-1</f>
+        <f t="shared" si="0"/>
         <v>0.13749994095015872</v>
       </c>
       <c r="N25" s="15">
-        <f>(N2/N3)-1</f>
+        <f t="shared" si="0"/>
         <v>0.25861368569064869</v>
       </c>
       <c r="O25" s="15">
-        <f>(O2/O3)-1</f>
+        <f t="shared" si="0"/>
         <v>0.20980388556349383</v>
       </c>
       <c r="P25" s="15">
-        <f>(P2/P3)-1</f>
+        <f t="shared" si="0"/>
         <v>-0.10010439308011876</v>
       </c>
       <c r="Q25" s="15">
-        <f>(Q2/Q3)-1</f>
+        <f t="shared" si="0"/>
         <v>-0.1785524891387561</v>
       </c>
       <c r="R25" s="15">
-        <f>(R2/R3)-1</f>
+        <f t="shared" si="0"/>
         <v>0.19480529083602205</v>
       </c>
     </row>
@@ -5253,63 +5256,63 @@
         <v>0.21094715575120637</v>
       </c>
       <c r="D26" s="15">
-        <f t="shared" ref="D26:R26" si="0">(D5/D6)-1</f>
+        <f t="shared" ref="D26:R26" si="1">(D5/D6)-1</f>
         <v>3.0509624868235496E-2</v>
       </c>
       <c r="E26" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.438993738363342E-2</v>
       </c>
       <c r="F26" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1978388733416834E-2</v>
       </c>
       <c r="G26" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-8.3145081627309381E-3</v>
       </c>
       <c r="H26" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16127795903622766</v>
       </c>
       <c r="I26" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.9608327240562282E-2</v>
       </c>
       <c r="J26" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5.8922843263540248E-2</v>
       </c>
       <c r="K26" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3503011526366802E-2</v>
       </c>
       <c r="L26" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-4.5160987023170396E-2</v>
       </c>
       <c r="M26" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5.4709366162986717E-2</v>
       </c>
       <c r="N26" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3761624816903248E-2</v>
       </c>
       <c r="O26" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1230402599800573</v>
       </c>
       <c r="P26" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.16355901877733359</v>
       </c>
       <c r="Q26" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-6.7763340025902341E-2</v>
       </c>
       <c r="R26" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.25852228066912319</v>
       </c>
       <c r="T26" s="34"/>
@@ -5323,7 +5326,7 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <f t="shared" ref="A27:A30" si="1">A26+1</f>
+        <f t="shared" ref="A27:A30" si="2">A26+1</f>
         <v>2</v>
       </c>
       <c r="C27" s="15">
@@ -5331,63 +5334,63 @@
         <v>0.19751783979247906</v>
       </c>
       <c r="D27" s="15">
-        <f t="shared" ref="D27:R27" si="2">(D8/D9)-1</f>
+        <f t="shared" ref="D27:R27" si="3">(D8/D9)-1</f>
         <v>-9.276436666696275E-2</v>
       </c>
       <c r="E27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1698938401325076E-2</v>
       </c>
       <c r="F27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-5.9032691128102055E-2</v>
       </c>
       <c r="G27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.6753767380775439E-2</v>
       </c>
       <c r="H27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.4221794072617753E-2</v>
       </c>
       <c r="I27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-4.3140747587474548E-2</v>
       </c>
       <c r="J27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.10280391950165912</v>
       </c>
       <c r="K27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.6766206269346235E-2</v>
       </c>
       <c r="L27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-9.2545168457396798E-2</v>
       </c>
       <c r="M27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.9219342480681485E-2</v>
       </c>
       <c r="N27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.18908855007090697</v>
       </c>
       <c r="O27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.24984082909823457</v>
       </c>
       <c r="P27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.14188101151990107</v>
       </c>
       <c r="Q27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.10721056495603187</v>
       </c>
       <c r="R27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.18010938619017747</v>
       </c>
       <c r="T27" s="15"/>
@@ -5401,7 +5404,7 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C28" s="15">
@@ -5409,63 +5412,63 @@
         <v>0.25646268672830819</v>
       </c>
       <c r="D28" s="15">
-        <f t="shared" ref="D28:R28" si="3">(D11/D12)-1</f>
+        <f t="shared" ref="D28:R28" si="4">(D11/D12)-1</f>
         <v>-8.8491683697801138E-3</v>
       </c>
       <c r="E28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.3840254470228563E-2</v>
       </c>
       <c r="F28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3.1317383830811063E-2</v>
       </c>
       <c r="G28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3.1905172992594988E-2</v>
       </c>
       <c r="H28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.2260209641986632E-2</v>
       </c>
       <c r="I28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.913781536360637E-2</v>
       </c>
       <c r="J28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.10205138645053313</v>
       </c>
       <c r="K28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.3710136465821319E-2</v>
       </c>
       <c r="L28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4.7758610082039299E-3</v>
       </c>
       <c r="M28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-6.8334115734363099E-3</v>
       </c>
       <c r="N28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.18277773424703936</v>
       </c>
       <c r="O28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.3312773550577583E-2</v>
       </c>
       <c r="P28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-6.2561852170983534E-2</v>
       </c>
       <c r="Q28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5.8890452041020835E-2</v>
       </c>
       <c r="R28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1669857489501978</v>
       </c>
       <c r="T28" s="15"/>
@@ -5479,7 +5482,7 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C29" s="15">
@@ -5487,63 +5490,63 @@
         <v>2.2617581670861808E-2</v>
       </c>
       <c r="D29" s="15">
-        <f t="shared" ref="D29:R29" si="4">(D14/D15)-1</f>
+        <f t="shared" ref="D29:R29" si="5">(D14/D15)-1</f>
         <v>-1.0808853999729751E-3</v>
       </c>
       <c r="E29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.8306416665261578E-2</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.1999354749875355E-3</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.1917326009136531E-2</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.0016609646382761E-2</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.5923299143229244E-2</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-3.385898197895254E-2</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.10476866889154923</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.696950280521996E-2</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-8.3030329097429356E-2</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.14078501293855417</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.15861999003068639</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-6.7326038437284574E-2</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.10523703005015461</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.24930036235826813</v>
       </c>
       <c r="T29" s="15"/>
@@ -5557,7 +5560,7 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="C30" s="15">
@@ -5565,63 +5568,63 @@
         <v>7.3143376976864793E-2</v>
       </c>
       <c r="D30" s="15">
-        <f t="shared" ref="D30:R30" si="5">(D17/D18)-1</f>
+        <f t="shared" ref="D30:R30" si="6">(D17/D18)-1</f>
         <v>-8.3641311857414191E-2</v>
       </c>
       <c r="E30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-5.1515123253855766E-3</v>
       </c>
       <c r="F30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.3094188465290033E-2</v>
       </c>
       <c r="G30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.12294637825966181</v>
       </c>
       <c r="H30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.22275591448484011</v>
       </c>
       <c r="I30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.1350861922453204E-2</v>
       </c>
       <c r="J30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.10377296264968261</v>
       </c>
       <c r="K30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.5478618546968193E-2</v>
       </c>
       <c r="L30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.1459923244266941E-2</v>
       </c>
       <c r="M30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.16501618699201137</v>
       </c>
       <c r="N30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.20763657163752081</v>
       </c>
       <c r="O30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.15441602399973542</v>
       </c>
       <c r="P30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-9.2363423757613416E-2</v>
       </c>
       <c r="Q30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.10786277277313128</v>
       </c>
       <c r="R30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.1508407556542597E-2</v>
       </c>
       <c r="T30" s="15"/>
@@ -5655,6 +5658,78 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C3">
+    <cfRule type="colorScale" priority="104">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D3">
+    <cfRule type="colorScale" priority="103">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F3">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G3">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H3">
+    <cfRule type="colorScale" priority="99">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I3">
     <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="min"/>
@@ -5666,7 +5741,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D3">
+  <conditionalFormatting sqref="J2:J3">
     <cfRule type="colorScale" priority="97">
       <colorScale>
         <cfvo type="min"/>
@@ -5678,7 +5753,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="K2:K3">
     <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="min"/>
@@ -5690,7 +5765,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F3">
+  <conditionalFormatting sqref="L2:L3">
     <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="min"/>
@@ -5702,7 +5777,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G3">
+  <conditionalFormatting sqref="M2:M3">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
@@ -5714,7 +5789,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H3">
+  <conditionalFormatting sqref="N2:N3">
     <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
@@ -5726,7 +5801,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I3">
+  <conditionalFormatting sqref="O2:O3">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min"/>
@@ -5738,7 +5813,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J3">
+  <conditionalFormatting sqref="P2:P3">
     <cfRule type="colorScale" priority="91">
       <colorScale>
         <cfvo type="min"/>
@@ -5750,7 +5825,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K3">
+  <conditionalFormatting sqref="Q2:Q3">
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="min"/>
@@ -5762,7 +5837,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L3">
+  <conditionalFormatting sqref="R2:R3">
     <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="min"/>
@@ -5774,31 +5849,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M3">
-    <cfRule type="colorScale" priority="88">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N3">
-    <cfRule type="colorScale" priority="87">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O3">
+  <conditionalFormatting sqref="C5:C6">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
@@ -5810,7 +5861,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P3">
+  <conditionalFormatting sqref="D5:D6">
     <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="min"/>
@@ -5822,7 +5873,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q3">
+  <conditionalFormatting sqref="E5:E6">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min"/>
@@ -5834,7 +5885,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R3">
+  <conditionalFormatting sqref="F5:F6">
     <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="min"/>
@@ -5846,7 +5897,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C6">
+  <conditionalFormatting sqref="G5:G6">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H6">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I6">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
@@ -5858,7 +5933,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D6">
+  <conditionalFormatting sqref="J5:J6">
     <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
@@ -5870,7 +5945,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E6">
+  <conditionalFormatting sqref="K5:K6">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
@@ -5882,7 +5957,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F6">
+  <conditionalFormatting sqref="L5:L6">
     <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
@@ -5894,7 +5969,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G6">
+  <conditionalFormatting sqref="M5:M6">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
@@ -5906,7 +5981,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H6">
+  <conditionalFormatting sqref="N5:N6">
     <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
@@ -5918,7 +5993,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I6">
+  <conditionalFormatting sqref="O5:O6">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
@@ -5930,7 +6005,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J6">
+  <conditionalFormatting sqref="P5:P6">
     <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
@@ -5942,7 +6017,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K6">
+  <conditionalFormatting sqref="Q5:Q6">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
@@ -5954,7 +6029,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L6">
+  <conditionalFormatting sqref="R5:R6">
     <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
@@ -5966,7 +6041,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M6">
+  <conditionalFormatting sqref="C8:C9">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
@@ -5978,7 +6053,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:N6">
+  <conditionalFormatting sqref="D8:D9">
     <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
@@ -5990,7 +6065,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5:O6">
+  <conditionalFormatting sqref="E8:E9">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
@@ -6002,7 +6077,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P5:P6">
+  <conditionalFormatting sqref="F8:F9">
     <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
@@ -6014,7 +6089,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q5:Q6">
+  <conditionalFormatting sqref="G8:G9">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -6026,7 +6101,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R5:R6">
+  <conditionalFormatting sqref="H8:H9">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
@@ -6038,7 +6113,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8:C9">
+  <conditionalFormatting sqref="I8:I9">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
@@ -6050,7 +6125,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D9">
+  <conditionalFormatting sqref="J8:J9">
     <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
@@ -6062,7 +6137,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E9">
+  <conditionalFormatting sqref="K8:K9">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
@@ -6074,7 +6149,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F9">
+  <conditionalFormatting sqref="L8:L9">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
@@ -6086,7 +6161,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G9">
+  <conditionalFormatting sqref="M8:M9">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
@@ -6098,7 +6173,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H9">
+  <conditionalFormatting sqref="N8:N9">
     <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
@@ -6110,7 +6185,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I9">
+  <conditionalFormatting sqref="O8:O9">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
@@ -6122,7 +6197,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8:J9">
+  <conditionalFormatting sqref="P8:P9">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -6134,7 +6209,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K9">
+  <conditionalFormatting sqref="Q8:Q9">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
@@ -6146,7 +6221,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8:L9">
+  <conditionalFormatting sqref="R8:R9">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -6158,7 +6233,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8:M9">
+  <conditionalFormatting sqref="C11:C12">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -6170,7 +6245,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N8:N9">
+  <conditionalFormatting sqref="D11:D12">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -6182,7 +6257,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O8:O9">
+  <conditionalFormatting sqref="E11:E12">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -6194,7 +6269,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P8:P9">
+  <conditionalFormatting sqref="F11:F12">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -6206,7 +6281,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q8:Q9">
+  <conditionalFormatting sqref="G11:G12">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -6218,7 +6293,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R8:R9">
+  <conditionalFormatting sqref="H11:H12">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -6230,7 +6305,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C12">
+  <conditionalFormatting sqref="I11:I12">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -6242,7 +6317,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:D12">
+  <conditionalFormatting sqref="C14:C15">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -6254,7 +6329,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E12">
+  <conditionalFormatting sqref="D14:D15">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -6266,7 +6341,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F12">
+  <conditionalFormatting sqref="E14:E15">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -6278,7 +6353,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11:G12">
+  <conditionalFormatting sqref="F14:F15">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -6290,7 +6365,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H12">
+  <conditionalFormatting sqref="G14:G15">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -6302,7 +6377,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11:I12">
+  <conditionalFormatting sqref="J11:J12">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -6314,7 +6389,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14:C15">
+  <conditionalFormatting sqref="K11:K12">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -6326,7 +6401,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D15">
+  <conditionalFormatting sqref="L11:L12">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -6338,7 +6413,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E15">
+  <conditionalFormatting sqref="M11:M12">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -6350,7 +6425,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:F15">
+  <conditionalFormatting sqref="N11:N12">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -6362,7 +6437,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G15">
+  <conditionalFormatting sqref="O11:O12">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -6374,7 +6449,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11:J12">
+  <conditionalFormatting sqref="P11:P12">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -6386,7 +6461,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:K12">
+  <conditionalFormatting sqref="Q11:Q12">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -6398,7 +6473,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L11:L12">
+  <conditionalFormatting sqref="R11:R12">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -6410,7 +6485,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M11:M12">
+  <conditionalFormatting sqref="H14:H15">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -6422,7 +6497,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N11:N12">
+  <conditionalFormatting sqref="I14:I15">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -6434,7 +6509,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O11:O12">
+  <conditionalFormatting sqref="J14:J15">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -6446,7 +6521,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P11:P12">
+  <conditionalFormatting sqref="K14:K15">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -6458,7 +6533,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q11:Q12">
+  <conditionalFormatting sqref="L14:L15">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -6470,7 +6545,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R11:R12">
+  <conditionalFormatting sqref="M14:M15">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -6482,7 +6557,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14:H15">
+  <conditionalFormatting sqref="N14:N15">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -6494,7 +6569,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14:I15">
+  <conditionalFormatting sqref="O14:O15">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -6506,7 +6581,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J14:J15">
+  <conditionalFormatting sqref="P14:P15">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -6518,7 +6593,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:K15">
+  <conditionalFormatting sqref="Q14:Q15">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -6530,7 +6605,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14:L15">
+  <conditionalFormatting sqref="R14:R15">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -6542,7 +6617,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14:M15">
+  <conditionalFormatting sqref="R17:R18">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -6554,7 +6629,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N14:N15">
+  <conditionalFormatting sqref="C17:C18">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -6566,7 +6641,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O14:O15">
+  <conditionalFormatting sqref="D17:D18">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -6578,7 +6653,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P14:P15">
+  <conditionalFormatting sqref="E17:E18">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -6590,7 +6665,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q14:Q15">
+  <conditionalFormatting sqref="F17:F18">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -6602,7 +6677,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R14:R15">
+  <conditionalFormatting sqref="G17:G18">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -6614,7 +6689,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R17:R18">
+  <conditionalFormatting sqref="H17:H18">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -6626,7 +6701,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C18">
+  <conditionalFormatting sqref="I17:I18">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -6638,7 +6713,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D18">
+  <conditionalFormatting sqref="J17:J18">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -6650,7 +6725,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:E18">
+  <conditionalFormatting sqref="K17:K18">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -6662,7 +6737,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17:F18">
+  <conditionalFormatting sqref="L17:L18">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -6674,7 +6749,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17:G18">
+  <conditionalFormatting sqref="M17:M18">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -6686,7 +6761,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17:H18">
+  <conditionalFormatting sqref="N17:N18">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -6698,7 +6773,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17:I18">
+  <conditionalFormatting sqref="O17:O18">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -6710,7 +6785,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17:J18">
+  <conditionalFormatting sqref="P17:P18">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -6722,7 +6797,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:K18">
+  <conditionalFormatting sqref="Q17:Q18">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -6734,7 +6809,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L17:L18">
+  <conditionalFormatting sqref="C25:R25">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -6746,7 +6821,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M17:M18">
+  <conditionalFormatting sqref="C26:R26">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -6758,7 +6833,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N17:N18">
+  <conditionalFormatting sqref="C27:R27">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -6770,7 +6845,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O17:O18">
+  <conditionalFormatting sqref="C28:R28">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -6782,7 +6857,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P17:P18">
+  <conditionalFormatting sqref="C29:R29">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -6794,7 +6869,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q17:Q18">
+  <conditionalFormatting sqref="C30:R30">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/migforecasting/clustering/AN-method output (only mundist).xlsx
+++ b/migforecasting/clustering/AN-method output (only mundist).xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Анализ" sheetId="1" r:id="rId1"/>
+    <sheet name="Прогноз" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="30">
   <si>
     <t>clust</t>
   </si>
@@ -95,6 +96,21 @@
   <si>
     <t>Процент превосходства соцэко индикатора в положительной части кластера по сравнению с отрицательной</t>
   </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>neg+pos</t>
+  </si>
+  <si>
+    <t>pred saldo</t>
+  </si>
 </sst>
 </file>
 
@@ -165,7 +181,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -403,12 +419,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -520,6 +545,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -575,7 +618,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!$D$24:$R$24</c:f>
+              <c:f>Анализ!$D$24:$R$24</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -628,7 +671,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$25:$R$25</c:f>
+              <c:f>Анализ!$D$25:$R$25</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
@@ -704,7 +747,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!$D$24:$R$24</c:f>
+              <c:f>Анализ!$D$24:$R$24</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -757,7 +800,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$26:$R$26</c:f>
+              <c:f>Анализ!$D$26:$R$26</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
@@ -833,7 +876,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!$D$24:$R$24</c:f>
+              <c:f>Анализ!$D$24:$R$24</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -886,7 +929,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$27:$R$27</c:f>
+              <c:f>Анализ!$D$27:$R$27</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
@@ -962,7 +1005,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!$D$24:$R$24</c:f>
+              <c:f>Анализ!$D$24:$R$24</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -1015,7 +1058,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$28:$R$28</c:f>
+              <c:f>Анализ!$D$28:$R$28</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1091,7 +1134,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!$D$24:$R$24</c:f>
+              <c:f>Анализ!$D$24:$R$24</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -1144,7 +1187,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$29:$R$29</c:f>
+              <c:f>Анализ!$D$29:$R$29</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1220,7 +1263,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!$D$24:$R$24</c:f>
+              <c:f>Анализ!$D$24:$R$24</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -1273,7 +1316,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$30:$R$30</c:f>
+              <c:f>Анализ!$D$30:$R$30</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1586,7 +1629,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$24:$R$24</c:f>
+              <c:f>Анализ!$D$24:$R$24</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -1639,7 +1682,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$25:$R$25</c:f>
+              <c:f>Анализ!$D$25:$R$25</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1720,7 +1763,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$24:$R$24</c:f>
+              <c:f>Анализ!$D$24:$R$24</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -1773,7 +1816,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$26:$R$26</c:f>
+              <c:f>Анализ!$D$26:$R$26</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1854,7 +1897,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$24:$R$24</c:f>
+              <c:f>Анализ!$D$24:$R$24</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -1907,7 +1950,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$27:$R$27</c:f>
+              <c:f>Анализ!$D$27:$R$27</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1988,7 +2031,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$24:$R$24</c:f>
+              <c:f>Анализ!$D$24:$R$24</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -2041,7 +2084,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$28:$R$28</c:f>
+              <c:f>Анализ!$D$28:$R$28</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2122,7 +2165,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$24:$R$24</c:f>
+              <c:f>Анализ!$D$24:$R$24</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -2175,7 +2218,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$29:$R$29</c:f>
+              <c:f>Анализ!$D$29:$R$29</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2256,7 +2299,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$24:$R$24</c:f>
+              <c:f>Анализ!$D$24:$R$24</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -2309,7 +2352,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$30:$R$30</c:f>
+              <c:f>Анализ!$D$30:$R$30</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4035,8 +4078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S37" sqref="S37"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6885,4 +6928,562 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" customWidth="1"/>
+    <col min="17" max="17" width="13" customWidth="1"/>
+    <col min="18" max="18" width="15.85546875" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="43">
+        <v>12466.2215189873</v>
+      </c>
+      <c r="D2" s="44">
+        <v>0.15537792827527699</v>
+      </c>
+      <c r="E2" s="44">
+        <v>19572.777895253101</v>
+      </c>
+      <c r="F2" s="44">
+        <v>0.59943388972022804</v>
+      </c>
+      <c r="G2" s="44">
+        <v>2.1408653018402099E-2</v>
+      </c>
+      <c r="H2" s="44">
+        <v>31.763283585238799</v>
+      </c>
+      <c r="I2" s="44">
+        <v>36.797278481012597</v>
+      </c>
+      <c r="J2" s="44">
+        <v>3.1782259483334901E-3</v>
+      </c>
+      <c r="K2" s="44">
+        <v>2.17877692228757E-3</v>
+      </c>
+      <c r="L2" s="44">
+        <v>4.4741021307432398E-2</v>
+      </c>
+      <c r="M2" s="44">
+        <v>2.2083498388787102</v>
+      </c>
+      <c r="N2" s="44">
+        <v>0.95033878347038303</v>
+      </c>
+      <c r="O2" s="44">
+        <v>63.417090477938302</v>
+      </c>
+      <c r="P2" s="44">
+        <v>1.44716921405294E-3</v>
+      </c>
+      <c r="Q2" s="44">
+        <v>4.3844441259593803E-2</v>
+      </c>
+      <c r="R2" s="44">
+        <v>75.817080209307306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="43">
+        <v>12193.522811343901</v>
+      </c>
+      <c r="D3" s="44">
+        <v>0.16282611547518699</v>
+      </c>
+      <c r="E3" s="44">
+        <v>19043.8474208507</v>
+      </c>
+      <c r="F3" s="44">
+        <v>0.59624547290434105</v>
+      </c>
+      <c r="G3" s="44">
+        <v>1.8703778865572899E-2</v>
+      </c>
+      <c r="H3" s="44">
+        <v>28.8834737020156</v>
+      </c>
+      <c r="I3" s="44">
+        <v>34.493144266337701</v>
+      </c>
+      <c r="J3" s="44">
+        <v>3.48085501190487E-3</v>
+      </c>
+      <c r="K3" s="44">
+        <v>2.1262597811619499E-3</v>
+      </c>
+      <c r="L3" s="44">
+        <v>4.65465301395614E-2</v>
+      </c>
+      <c r="M3" s="44">
+        <v>1.9414065525437001</v>
+      </c>
+      <c r="N3" s="44">
+        <v>0.75506789277354502</v>
+      </c>
+      <c r="O3" s="44">
+        <v>52.419314596927698</v>
+      </c>
+      <c r="P3" s="44">
+        <v>1.60815232669736E-3</v>
+      </c>
+      <c r="Q3" s="44">
+        <v>5.3374610890993199E-2</v>
+      </c>
+      <c r="R3" s="44">
+        <v>63.455594640242197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="46">
+        <v>12193.522811343901</v>
+      </c>
+      <c r="D4" s="47">
+        <v>0.16282611547518699</v>
+      </c>
+      <c r="E4" s="44">
+        <v>19572.777895253101</v>
+      </c>
+      <c r="F4" s="44">
+        <v>0.59943388972022804</v>
+      </c>
+      <c r="G4" s="44">
+        <v>2.1408653018402099E-2</v>
+      </c>
+      <c r="H4" s="44">
+        <v>31.763283585238799</v>
+      </c>
+      <c r="I4" s="44">
+        <v>36.797278481012597</v>
+      </c>
+      <c r="J4" s="47">
+        <v>3.48085501190487E-3</v>
+      </c>
+      <c r="K4" s="44">
+        <v>2.17877692228757E-3</v>
+      </c>
+      <c r="L4" s="47">
+        <v>4.65465301395614E-2</v>
+      </c>
+      <c r="M4" s="44">
+        <v>2.2083498388787102</v>
+      </c>
+      <c r="N4" s="44">
+        <v>0.95033878347038303</v>
+      </c>
+      <c r="O4" s="44">
+        <v>63.417090477938302</v>
+      </c>
+      <c r="P4" s="47">
+        <v>1.60815232669736E-3</v>
+      </c>
+      <c r="Q4" s="47">
+        <v>5.3374610890993199E-2</v>
+      </c>
+      <c r="R4" s="44">
+        <v>75.817080209307306</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D3">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F3">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G3">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H3">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I3">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J3">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K3">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L3">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M3">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N3">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O3">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P3">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q3">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:R3">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R4">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/migforecasting/clustering/AN-method output (only mundist).xlsx
+++ b/migforecasting/clustering/AN-method output (only mundist).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="31">
   <si>
     <t>clust</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>pred saldo</t>
+  </si>
+  <si>
+    <t>neg+sf</t>
   </si>
 </sst>
 </file>
@@ -433,7 +436,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -562,6 +565,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4079,7 +4085,7 @@
   <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:R3"/>
+      <selection activeCell="C17" sqref="C17:R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6932,22 +6938,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="2" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
     <col min="15" max="15" width="10.42578125" customWidth="1"/>
     <col min="16" max="16" width="14.28515625" customWidth="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
@@ -7069,6 +7077,7 @@
       <c r="R2" s="44">
         <v>75.817080209307306</v>
       </c>
+      <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -7125,46 +7134,47 @@
       <c r="R3" s="44">
         <v>63.455594640242197</v>
       </c>
+      <c r="S3" s="2"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="46">
+        <v>30</v>
+      </c>
+      <c r="C4" s="43">
         <v>12193.522811343901</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="44">
         <v>0.16282611547518699</v>
       </c>
       <c r="E4" s="44">
         <v>19572.777895253101</v>
       </c>
       <c r="F4" s="44">
-        <v>0.59943388972022804</v>
+        <v>0.59624547290434105</v>
       </c>
       <c r="G4" s="44">
-        <v>2.1408653018402099E-2</v>
+        <v>1.8703778865572899E-2</v>
       </c>
       <c r="H4" s="44">
         <v>31.763283585238799</v>
       </c>
       <c r="I4" s="44">
-        <v>36.797278481012597</v>
-      </c>
-      <c r="J4" s="47">
+        <v>34.493144266337701</v>
+      </c>
+      <c r="J4" s="44">
         <v>3.48085501190487E-3</v>
       </c>
       <c r="K4" s="44">
-        <v>2.17877692228757E-3</v>
-      </c>
-      <c r="L4" s="47">
+        <v>2.1262597811619499E-3</v>
+      </c>
+      <c r="L4" s="44">
         <v>4.65465301395614E-2</v>
       </c>
       <c r="M4" s="44">
-        <v>2.2083498388787102</v>
+        <v>1.9414065525437001</v>
       </c>
       <c r="N4" s="44">
         <v>0.95033878347038303</v>
@@ -7172,18 +7182,2898 @@
       <c r="O4" s="44">
         <v>63.417090477938302</v>
       </c>
-      <c r="P4" s="47">
+      <c r="P4" s="44">
         <v>1.60815232669736E-3</v>
       </c>
-      <c r="Q4" s="47">
+      <c r="Q4" s="44">
         <v>5.3374610890993199E-2</v>
       </c>
       <c r="R4" s="44">
         <v>75.817080209307306</v>
+      </c>
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="46">
+        <v>12193.522811343901</v>
+      </c>
+      <c r="D5" s="47">
+        <v>0.16282611547518699</v>
+      </c>
+      <c r="E5" s="44">
+        <v>19572.777895253101</v>
+      </c>
+      <c r="F5" s="44">
+        <v>0.59943388972022804</v>
+      </c>
+      <c r="G5" s="44">
+        <v>2.1408653018402099E-2</v>
+      </c>
+      <c r="H5" s="44">
+        <v>31.763283585238799</v>
+      </c>
+      <c r="I5" s="44">
+        <v>36.797278481012597</v>
+      </c>
+      <c r="J5" s="47">
+        <v>3.48085501190487E-3</v>
+      </c>
+      <c r="K5" s="44">
+        <v>2.17877692228757E-3</v>
+      </c>
+      <c r="L5" s="47">
+        <v>4.65465301395614E-2</v>
+      </c>
+      <c r="M5" s="44">
+        <v>2.2083498388787102</v>
+      </c>
+      <c r="N5" s="44">
+        <v>0.95033878347038303</v>
+      </c>
+      <c r="O5" s="44">
+        <v>63.417090477938302</v>
+      </c>
+      <c r="P5" s="47">
+        <v>1.60815232669736E-3</v>
+      </c>
+      <c r="Q5" s="47">
+        <v>5.3374610890993199E-2</v>
+      </c>
+      <c r="R5" s="44">
+        <v>75.817080209307306</v>
+      </c>
+      <c r="S5" s="2"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="43">
+        <v>34342.793103448203</v>
+      </c>
+      <c r="D8" s="44">
+        <v>0.140599216047296</v>
+      </c>
+      <c r="E8" s="44">
+        <v>20210.003367155099</v>
+      </c>
+      <c r="F8" s="44">
+        <v>0.49025275181269201</v>
+      </c>
+      <c r="G8" s="44">
+        <v>2.2640969387253299E-2</v>
+      </c>
+      <c r="H8" s="44">
+        <v>26.1633889114254</v>
+      </c>
+      <c r="I8" s="44">
+        <v>31.4955172413793</v>
+      </c>
+      <c r="J8" s="44">
+        <v>3.34276484095325E-3</v>
+      </c>
+      <c r="K8" s="44">
+        <v>1.95814363189694E-3</v>
+      </c>
+      <c r="L8" s="44">
+        <v>1.7680319496344001E-2</v>
+      </c>
+      <c r="M8" s="44">
+        <v>2.9557867543708398</v>
+      </c>
+      <c r="N8" s="44">
+        <v>3.4553795455496301</v>
+      </c>
+      <c r="O8" s="44">
+        <v>127.008591583068</v>
+      </c>
+      <c r="P8" s="44">
+        <v>9.62046220573081E-4</v>
+      </c>
+      <c r="Q8" s="44">
+        <v>4.0239335372280499E-2</v>
+      </c>
+      <c r="R8" s="44">
+        <v>118.263281060987</v>
+      </c>
+      <c r="S8" s="49"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="43">
+        <v>28360.273972602699</v>
+      </c>
+      <c r="D9" s="44">
+        <v>0.13643658696081901</v>
+      </c>
+      <c r="E9" s="44">
+        <v>18810.678194148699</v>
+      </c>
+      <c r="F9" s="44">
+        <v>0.484449823504915</v>
+      </c>
+      <c r="G9" s="44">
+        <v>2.28307962288598E-2</v>
+      </c>
+      <c r="H9" s="44">
+        <v>22.529824757148599</v>
+      </c>
+      <c r="I9" s="44">
+        <v>30.5898043052837</v>
+      </c>
+      <c r="J9" s="44">
+        <v>3.5520624605803299E-3</v>
+      </c>
+      <c r="K9" s="44">
+        <v>1.9131781830096701E-3</v>
+      </c>
+      <c r="L9" s="44">
+        <v>1.8516544942192299E-2</v>
+      </c>
+      <c r="M9" s="44">
+        <v>3.1268550100544799</v>
+      </c>
+      <c r="N9" s="44">
+        <v>3.37517978969725</v>
+      </c>
+      <c r="O9" s="44">
+        <v>113.09353378419701</v>
+      </c>
+      <c r="P9" s="44">
+        <v>1.1501662904737299E-3</v>
+      </c>
+      <c r="Q9" s="44">
+        <v>4.3164291965731703E-2</v>
+      </c>
+      <c r="R9" s="44">
+        <v>93.969954189535301</v>
+      </c>
+      <c r="S9" s="49"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="43">
+        <v>28360.273972602699</v>
+      </c>
+      <c r="D10" s="44">
+        <v>0.13643658696081901</v>
+      </c>
+      <c r="E10" s="44">
+        <v>20210.003367155099</v>
+      </c>
+      <c r="F10" s="44">
+        <v>0.484449823504915</v>
+      </c>
+      <c r="G10" s="44">
+        <v>2.28307962288598E-2</v>
+      </c>
+      <c r="H10" s="44">
+        <v>26.1633889114254</v>
+      </c>
+      <c r="I10" s="44">
+        <v>30.5898043052837</v>
+      </c>
+      <c r="J10" s="44">
+        <v>3.5520624605803299E-3</v>
+      </c>
+      <c r="K10" s="44">
+        <v>1.9131781830096701E-3</v>
+      </c>
+      <c r="L10" s="44">
+        <v>1.8516544942192299E-2</v>
+      </c>
+      <c r="M10" s="44">
+        <v>3.1268550100544799</v>
+      </c>
+      <c r="N10" s="44">
+        <v>3.4553795455496301</v>
+      </c>
+      <c r="O10" s="44">
+        <v>127.008591583068</v>
+      </c>
+      <c r="P10" s="44">
+        <v>1.1501662904737299E-3</v>
+      </c>
+      <c r="Q10" s="44">
+        <v>4.3164291965731703E-2</v>
+      </c>
+      <c r="R10" s="44">
+        <v>118.263281060987</v>
+      </c>
+      <c r="S10" s="49"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="43">
+        <v>28360.273972602699</v>
+      </c>
+      <c r="D11" s="44">
+        <v>0.140599216047296</v>
+      </c>
+      <c r="E11" s="44">
+        <v>20210.003367155099</v>
+      </c>
+      <c r="F11" s="44">
+        <v>0.49025275181269201</v>
+      </c>
+      <c r="G11" s="44">
+        <v>2.28307962288598E-2</v>
+      </c>
+      <c r="H11" s="44">
+        <v>26.1633889114254</v>
+      </c>
+      <c r="I11" s="44">
+        <v>31.4955172413793</v>
+      </c>
+      <c r="J11" s="44">
+        <v>3.5520624605803299E-3</v>
+      </c>
+      <c r="K11" s="44">
+        <v>1.95814363189694E-3</v>
+      </c>
+      <c r="L11" s="44">
+        <v>1.8516544942192299E-2</v>
+      </c>
+      <c r="M11" s="44">
+        <v>3.1268550100544799</v>
+      </c>
+      <c r="N11" s="44">
+        <v>3.4553795455496301</v>
+      </c>
+      <c r="O11" s="44">
+        <v>127.008591583068</v>
+      </c>
+      <c r="P11" s="44">
+        <v>1.1501662904737299E-3</v>
+      </c>
+      <c r="Q11" s="44">
+        <v>4.3164291965731703E-2</v>
+      </c>
+      <c r="R11" s="44">
+        <v>118.263281060987</v>
+      </c>
+      <c r="S11" s="49"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>2</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="43">
+        <v>38381.222003929201</v>
+      </c>
+      <c r="D14" s="44">
+        <v>0.149972072188887</v>
+      </c>
+      <c r="E14" s="44">
+        <v>21023.171959174801</v>
+      </c>
+      <c r="F14" s="44">
+        <v>0.54991739186712396</v>
+      </c>
+      <c r="G14" s="44">
+        <v>2.2864117909977499E-2</v>
+      </c>
+      <c r="H14" s="44">
+        <v>25.205377310320099</v>
+      </c>
+      <c r="I14" s="44">
+        <v>26.198664047151201</v>
+      </c>
+      <c r="J14" s="44">
+        <v>2.4254841735263798E-3</v>
+      </c>
+      <c r="K14" s="44">
+        <v>2.18425076030584E-3</v>
+      </c>
+      <c r="L14" s="44">
+        <v>1.4035777899736901E-2</v>
+      </c>
+      <c r="M14" s="44">
+        <v>1.7095834867900701</v>
+      </c>
+      <c r="N14" s="44">
+        <v>0.86923486513663195</v>
+      </c>
+      <c r="O14" s="44">
+        <v>57.732322228729799</v>
+      </c>
+      <c r="P14" s="44">
+        <v>7.59856698021134E-4</v>
+      </c>
+      <c r="Q14" s="44">
+        <v>4.5827935875661002E-2</v>
+      </c>
+      <c r="R14" s="44">
+        <v>83.250391101316396</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>2</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="43">
+        <v>32050.647371216099</v>
+      </c>
+      <c r="D15" s="44">
+        <v>0.16530663774516199</v>
+      </c>
+      <c r="E15" s="44">
+        <v>20780.067232644698</v>
+      </c>
+      <c r="F15" s="44">
+        <v>0.584417106399165</v>
+      </c>
+      <c r="G15" s="44">
+        <v>2.1234305003264502E-2</v>
+      </c>
+      <c r="H15" s="44">
+        <v>23.463848387176</v>
+      </c>
+      <c r="I15" s="44">
+        <v>27.379851301115199</v>
+      </c>
+      <c r="J15" s="44">
+        <v>2.70340478101416E-3</v>
+      </c>
+      <c r="K15" s="44">
+        <v>2.2676226421065701E-3</v>
+      </c>
+      <c r="L15" s="44">
+        <v>1.5467191767415201E-2</v>
+      </c>
+      <c r="M15" s="44">
+        <v>1.77936917589923</v>
+      </c>
+      <c r="N15" s="44">
+        <v>0.73100936434447905</v>
+      </c>
+      <c r="O15" s="44">
+        <v>46.191739687671998</v>
+      </c>
+      <c r="P15" s="44">
+        <v>8.8549106618301596E-4</v>
+      </c>
+      <c r="Q15" s="44">
+        <v>5.13311807653773E-2</v>
+      </c>
+      <c r="R15" s="44">
+        <v>70.544639399978806</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>2</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="43">
+        <v>32050.647371216099</v>
+      </c>
+      <c r="D16" s="44">
+        <v>0.16530663774516199</v>
+      </c>
+      <c r="E16" s="44">
+        <v>21023.171959174801</v>
+      </c>
+      <c r="F16" s="44">
+        <v>0.584417106399165</v>
+      </c>
+      <c r="G16" s="44">
+        <v>2.1234305003264502E-2</v>
+      </c>
+      <c r="H16" s="44">
+        <v>25.205377310320099</v>
+      </c>
+      <c r="I16" s="44">
+        <v>27.379851301115199</v>
+      </c>
+      <c r="J16" s="44">
+        <v>2.70340478101416E-3</v>
+      </c>
+      <c r="K16" s="44">
+        <v>2.2676226421065701E-3</v>
+      </c>
+      <c r="L16" s="44">
+        <v>1.5467191767415201E-2</v>
+      </c>
+      <c r="M16" s="44">
+        <v>1.77936917589923</v>
+      </c>
+      <c r="N16" s="44">
+        <v>0.86923486513663195</v>
+      </c>
+      <c r="O16" s="44">
+        <v>57.732322228729799</v>
+      </c>
+      <c r="P16" s="44">
+        <v>8.8549106618301596E-4</v>
+      </c>
+      <c r="Q16" s="44">
+        <v>5.13311807653773E-2</v>
+      </c>
+      <c r="R16" s="44">
+        <v>83.250391101316396</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>2</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="43">
+        <v>32050.647371216099</v>
+      </c>
+      <c r="D17" s="44">
+        <v>0.16530663774516199</v>
+      </c>
+      <c r="E17" s="44">
+        <v>21023.171959174801</v>
+      </c>
+      <c r="F17" s="44">
+        <v>0.584417106399165</v>
+      </c>
+      <c r="G17" s="44">
+        <v>2.2864117909977499E-2</v>
+      </c>
+      <c r="H17" s="44">
+        <v>25.205377310320099</v>
+      </c>
+      <c r="I17" s="44">
+        <v>27.379851301115199</v>
+      </c>
+      <c r="J17" s="44">
+        <v>2.70340478101416E-3</v>
+      </c>
+      <c r="K17" s="44">
+        <v>2.2676226421065701E-3</v>
+      </c>
+      <c r="L17" s="44">
+        <v>1.5467191767415201E-2</v>
+      </c>
+      <c r="M17" s="44">
+        <v>1.77936917589923</v>
+      </c>
+      <c r="N17" s="44">
+        <v>0.86923486513663195</v>
+      </c>
+      <c r="O17" s="44">
+        <v>57.732322228729799</v>
+      </c>
+      <c r="P17" s="44">
+        <v>8.8549106618301596E-4</v>
+      </c>
+      <c r="Q17" s="44">
+        <v>5.13311807653773E-2</v>
+      </c>
+      <c r="R17" s="44">
+        <v>83.250391101316396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>3</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="43">
+        <v>35649.398809523802</v>
+      </c>
+      <c r="D20" s="44">
+        <v>0.15775027305643</v>
+      </c>
+      <c r="E20" s="44">
+        <v>20557.532877559501</v>
+      </c>
+      <c r="F20" s="44">
+        <v>0.51272478123941201</v>
+      </c>
+      <c r="G20" s="44">
+        <v>1.86604099983875E-2</v>
+      </c>
+      <c r="H20" s="44">
+        <v>22.870114979037599</v>
+      </c>
+      <c r="I20" s="44">
+        <v>29.107619047619</v>
+      </c>
+      <c r="J20" s="44">
+        <v>3.0670489109887798E-3</v>
+      </c>
+      <c r="K20" s="44">
+        <v>2.1869503982130801E-3</v>
+      </c>
+      <c r="L20" s="44">
+        <v>1.8858009986420302E-2</v>
+      </c>
+      <c r="M20" s="44">
+        <v>12.5095739121479</v>
+      </c>
+      <c r="N20" s="44">
+        <v>1.4224047319879001</v>
+      </c>
+      <c r="O20" s="44">
+        <v>150.386727642507</v>
+      </c>
+      <c r="P20" s="44">
+        <v>1.0152820270234301E-3</v>
+      </c>
+      <c r="Q20" s="44">
+        <v>4.3068937853294097E-2</v>
+      </c>
+      <c r="R20" s="44">
+        <v>155.613070376834</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>3</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="43">
+        <v>28372.8272921108</v>
+      </c>
+      <c r="D21" s="44">
+        <v>0.15915869514730299</v>
+      </c>
+      <c r="E21" s="44">
+        <v>19323.890773240899</v>
+      </c>
+      <c r="F21" s="44">
+        <v>0.52930110717488099</v>
+      </c>
+      <c r="G21" s="44">
+        <v>1.9275394804113302E-2</v>
+      </c>
+      <c r="H21" s="44">
+        <v>21.734277101306301</v>
+      </c>
+      <c r="I21" s="44">
+        <v>28.561023454157699</v>
+      </c>
+      <c r="J21" s="44">
+        <v>3.4156174024983E-3</v>
+      </c>
+      <c r="K21" s="44">
+        <v>2.2400625878632998E-3</v>
+      </c>
+      <c r="L21" s="44">
+        <v>1.89485054145936E-2</v>
+      </c>
+      <c r="M21" s="44">
+        <v>12.595645139418499</v>
+      </c>
+      <c r="N21" s="44">
+        <v>1.2025968115585199</v>
+      </c>
+      <c r="O21" s="44">
+        <v>152.41580473649299</v>
+      </c>
+      <c r="P21" s="44">
+        <v>1.08303894968931E-3</v>
+      </c>
+      <c r="Q21" s="44">
+        <v>4.5764000531818401E-2</v>
+      </c>
+      <c r="R21" s="44">
+        <v>133.34616169633699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>3</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="43">
+        <v>28372.8272921108</v>
+      </c>
+      <c r="D22" s="44">
+        <v>0.15915869514730299</v>
+      </c>
+      <c r="E22" s="44">
+        <v>20557.532877559501</v>
+      </c>
+      <c r="F22" s="44">
+        <v>0.52930110717488099</v>
+      </c>
+      <c r="G22" s="44">
+        <v>1.9275394804113302E-2</v>
+      </c>
+      <c r="H22" s="44">
+        <v>22.870114979037599</v>
+      </c>
+      <c r="I22" s="44">
+        <v>28.561023454157699</v>
+      </c>
+      <c r="J22" s="44">
+        <v>3.4156174024983E-3</v>
+      </c>
+      <c r="K22" s="44">
+        <v>2.2400625878632998E-3</v>
+      </c>
+      <c r="L22" s="44">
+        <v>1.89485054145936E-2</v>
+      </c>
+      <c r="M22" s="44">
+        <v>12.595645139418499</v>
+      </c>
+      <c r="N22" s="44">
+        <v>1.4224047319879001</v>
+      </c>
+      <c r="O22" s="44">
+        <v>152.41580473649299</v>
+      </c>
+      <c r="P22" s="44">
+        <v>1.08303894968931E-3</v>
+      </c>
+      <c r="Q22" s="44">
+        <v>4.5764000531818401E-2</v>
+      </c>
+      <c r="R22" s="44">
+        <v>155.613070376834</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>3</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="43">
+        <v>28372.8272921108</v>
+      </c>
+      <c r="D23" s="44">
+        <v>0.15915869514730299</v>
+      </c>
+      <c r="E23" s="44">
+        <v>20557.532877559501</v>
+      </c>
+      <c r="F23" s="44">
+        <v>0.52930110717488099</v>
+      </c>
+      <c r="G23" s="44">
+        <v>1.9275394804113302E-2</v>
+      </c>
+      <c r="H23" s="44">
+        <v>22.870114979037599</v>
+      </c>
+      <c r="I23" s="44">
+        <v>29.107619047619</v>
+      </c>
+      <c r="J23" s="44">
+        <v>3.4156174024983E-3</v>
+      </c>
+      <c r="K23" s="44">
+        <v>2.2400625878632998E-3</v>
+      </c>
+      <c r="L23" s="44">
+        <v>1.89485054145936E-2</v>
+      </c>
+      <c r="M23" s="44">
+        <v>12.595645139418499</v>
+      </c>
+      <c r="N23" s="44">
+        <v>1.4224047319879001</v>
+      </c>
+      <c r="O23" s="44">
+        <v>152.41580473649299</v>
+      </c>
+      <c r="P23" s="44">
+        <v>1.08303894968931E-3</v>
+      </c>
+      <c r="Q23" s="44">
+        <v>4.5764000531818401E-2</v>
+      </c>
+      <c r="R23" s="44">
+        <v>155.613070376834</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>4</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="43">
+        <v>18071.360153256599</v>
+      </c>
+      <c r="D26" s="44">
+        <v>0.14688569170663399</v>
+      </c>
+      <c r="E26" s="44">
+        <v>19058.719056245202</v>
+      </c>
+      <c r="F26" s="44">
+        <v>0.50560211821628098</v>
+      </c>
+      <c r="G26" s="44">
+        <v>1.78661873338729E-2</v>
+      </c>
+      <c r="H26" s="44">
+        <v>19.711909146930299</v>
+      </c>
+      <c r="I26" s="44">
+        <v>31.278237547892701</v>
+      </c>
+      <c r="J26" s="44">
+        <v>4.3539840607562004E-3</v>
+      </c>
+      <c r="K26" s="44">
+        <v>1.9321186749371199E-3</v>
+      </c>
+      <c r="L26" s="44">
+        <v>2.1467873108114599E-2</v>
+      </c>
+      <c r="M26" s="44">
+        <v>3.1891703495100101</v>
+      </c>
+      <c r="N26" s="44">
+        <v>1.1431319745403701</v>
+      </c>
+      <c r="O26" s="44">
+        <v>123.95614681649</v>
+      </c>
+      <c r="P26" s="44">
+        <v>1.5739377307579E-3</v>
+      </c>
+      <c r="Q26" s="44">
+        <v>4.48305819114279E-2</v>
+      </c>
+      <c r="R26" s="44">
+        <v>73.125417192873499</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>4</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="43">
+        <v>17671.669720101701</v>
+      </c>
+      <c r="D27" s="44">
+        <v>0.14704463010045399</v>
+      </c>
+      <c r="E27" s="44">
+        <v>18355.582466162799</v>
+      </c>
+      <c r="F27" s="44">
+        <v>0.50671686261812898</v>
+      </c>
+      <c r="G27" s="44">
+        <v>1.8081672520085201E-2</v>
+      </c>
+      <c r="H27" s="44">
+        <v>18.953456093006601</v>
+      </c>
+      <c r="I27" s="44">
+        <v>29.621694656488501</v>
+      </c>
+      <c r="J27" s="44">
+        <v>4.50657200092228E-3</v>
+      </c>
+      <c r="K27" s="44">
+        <v>2.1582339757309698E-3</v>
+      </c>
+      <c r="L27" s="44">
+        <v>2.0120418673328901E-2</v>
+      </c>
+      <c r="M27" s="44">
+        <v>3.4779452916593399</v>
+      </c>
+      <c r="N27" s="44">
+        <v>1.0020573215594499</v>
+      </c>
+      <c r="O27" s="44">
+        <v>106.986024652662</v>
+      </c>
+      <c r="P27" s="44">
+        <v>1.68755406028569E-3</v>
+      </c>
+      <c r="Q27" s="44">
+        <v>5.01033049165421E-2</v>
+      </c>
+      <c r="R27" s="44">
+        <v>58.533095319716999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>4</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="43">
+        <v>17671.669720101701</v>
+      </c>
+      <c r="D28" s="44">
+        <v>0.14704463010045399</v>
+      </c>
+      <c r="E28" s="44">
+        <v>19058.719056245202</v>
+      </c>
+      <c r="F28" s="44">
+        <v>0.50671686261812898</v>
+      </c>
+      <c r="G28" s="44">
+        <v>1.8081672520085201E-2</v>
+      </c>
+      <c r="H28" s="44">
+        <v>19.711909146930299</v>
+      </c>
+      <c r="I28" s="44">
+        <v>29.621694656488501</v>
+      </c>
+      <c r="J28" s="44">
+        <v>4.50657200092228E-3</v>
+      </c>
+      <c r="K28" s="44">
+        <v>2.1582339757309698E-3</v>
+      </c>
+      <c r="L28" s="44">
+        <v>2.0120418673328901E-2</v>
+      </c>
+      <c r="M28" s="44">
+        <v>3.4779452916593399</v>
+      </c>
+      <c r="N28" s="44">
+        <v>1.1431319745403701</v>
+      </c>
+      <c r="O28" s="44">
+        <v>123.95614681649</v>
+      </c>
+      <c r="P28" s="44">
+        <v>1.68755406028569E-3</v>
+      </c>
+      <c r="Q28" s="44">
+        <v>5.01033049165421E-2</v>
+      </c>
+      <c r="R28" s="44">
+        <v>73.125417192873499</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>4</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="43">
+        <v>17671.669720101701</v>
+      </c>
+      <c r="D29" s="44">
+        <v>0.14704463010045399</v>
+      </c>
+      <c r="E29" s="44">
+        <v>19058.719056245202</v>
+      </c>
+      <c r="F29" s="44">
+        <v>0.50671686261812898</v>
+      </c>
+      <c r="G29" s="44">
+        <v>1.8081672520085201E-2</v>
+      </c>
+      <c r="H29" s="44">
+        <v>19.711909146930299</v>
+      </c>
+      <c r="I29" s="44">
+        <v>31.278237547892701</v>
+      </c>
+      <c r="J29" s="44">
+        <v>4.50657200092228E-3</v>
+      </c>
+      <c r="K29" s="44">
+        <v>2.1582339757309698E-3</v>
+      </c>
+      <c r="L29" s="44">
+        <v>2.1467873108114599E-2</v>
+      </c>
+      <c r="M29" s="44">
+        <v>3.4779452916593399</v>
+      </c>
+      <c r="N29" s="44">
+        <v>1.1431319745403701</v>
+      </c>
+      <c r="O29" s="44">
+        <v>123.95614681649</v>
+      </c>
+      <c r="P29" s="44">
+        <v>1.68755406028569E-3</v>
+      </c>
+      <c r="Q29" s="44">
+        <v>5.01033049165421E-2</v>
+      </c>
+      <c r="R29" s="44">
+        <v>73.125417192873499</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>5</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="43">
+        <v>40421.106481481402</v>
+      </c>
+      <c r="D32" s="44">
+        <v>0.19879719706364901</v>
+      </c>
+      <c r="E32" s="44">
+        <v>25443.955409953702</v>
+      </c>
+      <c r="F32" s="44">
+        <v>0.69725770152667399</v>
+      </c>
+      <c r="G32" s="44">
+        <v>2.7366643327838901E-2</v>
+      </c>
+      <c r="H32" s="44">
+        <v>38.744814159246801</v>
+      </c>
+      <c r="I32" s="44">
+        <v>30.995601851851799</v>
+      </c>
+      <c r="J32" s="44">
+        <v>2.7293966388769E-3</v>
+      </c>
+      <c r="K32" s="44">
+        <v>2.52828399277238E-3</v>
+      </c>
+      <c r="L32" s="44">
+        <v>1.6408419923949501E-2</v>
+      </c>
+      <c r="M32" s="44">
+        <v>1.30316756609832</v>
+      </c>
+      <c r="N32" s="44">
+        <v>0.98281653355162102</v>
+      </c>
+      <c r="O32" s="44">
+        <v>60.970441955093797</v>
+      </c>
+      <c r="P32" s="44">
+        <v>8.1836397144078796E-4</v>
+      </c>
+      <c r="Q32" s="44">
+        <v>5.1905160878513698E-2</v>
+      </c>
+      <c r="R32" s="44">
+        <v>351.86731958595101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>5</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="43">
+        <v>37666.082043343602</v>
+      </c>
+      <c r="D33" s="44">
+        <v>0.21694255714058999</v>
+      </c>
+      <c r="E33" s="44">
+        <v>25575.708990046402</v>
+      </c>
+      <c r="F33" s="44">
+        <v>0.64976374769475997</v>
+      </c>
+      <c r="G33" s="44">
+        <v>2.4370391906202701E-2</v>
+      </c>
+      <c r="H33" s="44">
+        <v>31.6864663668958</v>
+      </c>
+      <c r="I33" s="44">
+        <v>29.2039164086687</v>
+      </c>
+      <c r="J33" s="44">
+        <v>3.0454299247056E-3</v>
+      </c>
+      <c r="K33" s="44">
+        <v>2.56803360536563E-3</v>
+      </c>
+      <c r="L33" s="44">
+        <v>1.59079568233149E-2</v>
+      </c>
+      <c r="M33" s="44">
+        <v>1.56070997520745</v>
+      </c>
+      <c r="N33" s="44">
+        <v>0.81383468887411203</v>
+      </c>
+      <c r="O33" s="44">
+        <v>52.8149650451385</v>
+      </c>
+      <c r="P33" s="44">
+        <v>9.0164278617859697E-4</v>
+      </c>
+      <c r="Q33" s="44">
+        <v>5.8180691595906601E-2</v>
+      </c>
+      <c r="R33" s="44">
+        <v>344.45856439656802</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>5</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="43">
+        <v>37666.082043343602</v>
+      </c>
+      <c r="D34" s="44">
+        <v>0.21694255714058999</v>
+      </c>
+      <c r="E34" s="44">
+        <v>25575.708990046402</v>
+      </c>
+      <c r="F34" s="44">
+        <v>0.64976374769475997</v>
+      </c>
+      <c r="G34" s="44">
+        <v>2.4370391906202701E-2</v>
+      </c>
+      <c r="H34" s="44">
+        <v>38.744814159246801</v>
+      </c>
+      <c r="I34" s="44">
+        <v>29.2039164086687</v>
+      </c>
+      <c r="J34" s="44">
+        <v>3.0454299247056E-3</v>
+      </c>
+      <c r="K34" s="44">
+        <v>2.56803360536563E-3</v>
+      </c>
+      <c r="L34" s="44">
+        <v>1.59079568233149E-2</v>
+      </c>
+      <c r="M34" s="44">
+        <v>1.56070997520745</v>
+      </c>
+      <c r="N34" s="44">
+        <v>0.98281653355162102</v>
+      </c>
+      <c r="O34" s="44">
+        <v>60.970441955093797</v>
+      </c>
+      <c r="P34" s="44">
+        <v>9.0164278617859697E-4</v>
+      </c>
+      <c r="Q34" s="44">
+        <v>5.8180691595906601E-2</v>
+      </c>
+      <c r="R34" s="44">
+        <v>351.86731958595101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>5</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="43">
+        <v>37666.082043343602</v>
+      </c>
+      <c r="D35" s="44">
+        <v>0.21694255714058999</v>
+      </c>
+      <c r="E35" s="44">
+        <v>25575.708990046402</v>
+      </c>
+      <c r="F35" s="44">
+        <v>0.69725770152667399</v>
+      </c>
+      <c r="G35" s="44">
+        <v>2.7366643327838901E-2</v>
+      </c>
+      <c r="H35" s="44">
+        <v>38.744814159246801</v>
+      </c>
+      <c r="I35" s="44">
+        <v>30.995601851851799</v>
+      </c>
+      <c r="J35" s="44">
+        <v>3.0454299247056E-3</v>
+      </c>
+      <c r="K35" s="44">
+        <v>2.56803360536563E-3</v>
+      </c>
+      <c r="L35" s="44">
+        <v>1.6408419923949501E-2</v>
+      </c>
+      <c r="M35" s="44">
+        <v>1.56070997520745</v>
+      </c>
+      <c r="N35" s="44">
+        <v>0.98281653355162102</v>
+      </c>
+      <c r="O35" s="44">
+        <v>60.970441955093797</v>
+      </c>
+      <c r="P35" s="44">
+        <v>9.0164278617859697E-4</v>
+      </c>
+      <c r="Q35" s="44">
+        <v>5.8180691595906601E-2</v>
+      </c>
+      <c r="R35" s="44">
+        <v>351.86731958595101</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D3">
+    <cfRule type="colorScale" priority="342">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="colorScale" priority="341">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F3">
+    <cfRule type="colorScale" priority="340">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G3">
+    <cfRule type="colorScale" priority="339">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H3">
+    <cfRule type="colorScale" priority="338">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I3">
+    <cfRule type="colorScale" priority="337">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J3">
+    <cfRule type="colorScale" priority="336">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K3">
+    <cfRule type="colorScale" priority="335">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L3">
+    <cfRule type="colorScale" priority="334">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M3">
+    <cfRule type="colorScale" priority="333">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N3">
+    <cfRule type="colorScale" priority="332">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O3">
+    <cfRule type="colorScale" priority="331">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P3">
+    <cfRule type="colorScale" priority="330">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q3">
+    <cfRule type="colorScale" priority="329">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:R3">
+    <cfRule type="colorScale" priority="328">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="colorScale" priority="311">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="colorScale" priority="310">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="colorScale" priority="309">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="colorScale" priority="308">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="colorScale" priority="307">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5">
+    <cfRule type="colorScale" priority="306">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="colorScale" priority="305">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="colorScale" priority="304">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="colorScale" priority="303">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="colorScale" priority="302">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="colorScale" priority="286">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="colorScale" priority="285">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4">
+    <cfRule type="colorScale" priority="284">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4">
+    <cfRule type="colorScale" priority="283">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R4">
+    <cfRule type="colorScale" priority="282">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D9">
+    <cfRule type="colorScale" priority="280">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8:E9">
+    <cfRule type="colorScale" priority="279">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F9">
+    <cfRule type="colorScale" priority="278">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:G9">
+    <cfRule type="colorScale" priority="277">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:H9">
+    <cfRule type="colorScale" priority="276">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:I9">
+    <cfRule type="colorScale" priority="275">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8:J9">
+    <cfRule type="colorScale" priority="274">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:K9">
+    <cfRule type="colorScale" priority="273">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8:L9">
+    <cfRule type="colorScale" priority="272">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M8:M9">
+    <cfRule type="colorScale" priority="271">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N8:N9">
+    <cfRule type="colorScale" priority="270">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O8:O9">
+    <cfRule type="colorScale" priority="269">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P8:P9">
+    <cfRule type="colorScale" priority="268">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q8:Q9">
+    <cfRule type="colorScale" priority="267">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R8:R9">
+    <cfRule type="colorScale" priority="266">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="colorScale" priority="249">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="colorScale" priority="248">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N10">
+    <cfRule type="colorScale" priority="247">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10">
+    <cfRule type="colorScale" priority="246">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R10">
+    <cfRule type="colorScale" priority="245">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="colorScale" priority="227">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="colorScale" priority="226">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="colorScale" priority="225">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="colorScale" priority="224">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="colorScale" priority="223">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="colorScale" priority="222">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11">
+    <cfRule type="colorScale" priority="221">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O11">
+    <cfRule type="colorScale" priority="220">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R11">
+    <cfRule type="colorScale" priority="219">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:D15">
+    <cfRule type="colorScale" priority="217">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E15">
+    <cfRule type="colorScale" priority="216">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F15">
+    <cfRule type="colorScale" priority="215">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:G15">
+    <cfRule type="colorScale" priority="214">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:H15">
+    <cfRule type="colorScale" priority="213">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:I15">
+    <cfRule type="colorScale" priority="212">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14:J15">
+    <cfRule type="colorScale" priority="211">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14:K15">
+    <cfRule type="colorScale" priority="210">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14:L15">
+    <cfRule type="colorScale" priority="209">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14:M15">
+    <cfRule type="colorScale" priority="208">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14:N15">
+    <cfRule type="colorScale" priority="207">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O14:O15">
+    <cfRule type="colorScale" priority="206">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P14:P15">
+    <cfRule type="colorScale" priority="205">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q14:Q15">
+    <cfRule type="colorScale" priority="204">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R14:R15">
+    <cfRule type="colorScale" priority="203">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="colorScale" priority="186">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="colorScale" priority="185">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16">
+    <cfRule type="colorScale" priority="184">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O16">
+    <cfRule type="colorScale" priority="183">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R16">
+    <cfRule type="colorScale" priority="182">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="colorScale" priority="166">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="colorScale" priority="165">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="colorScale" priority="164">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N17">
+    <cfRule type="colorScale" priority="163">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O17">
+    <cfRule type="colorScale" priority="162">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R17">
+    <cfRule type="colorScale" priority="161">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:D21">
+    <cfRule type="colorScale" priority="159">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20:E21">
+    <cfRule type="colorScale" priority="158">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20:F21">
+    <cfRule type="colorScale" priority="157">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:G21">
+    <cfRule type="colorScale" priority="156">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20:H21">
+    <cfRule type="colorScale" priority="155">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20:I21">
+    <cfRule type="colorScale" priority="154">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20:J21">
+    <cfRule type="colorScale" priority="153">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20:K21">
+    <cfRule type="colorScale" priority="152">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L20:L21">
+    <cfRule type="colorScale" priority="151">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M20:M21">
+    <cfRule type="colorScale" priority="150">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N20:N21">
+    <cfRule type="colorScale" priority="149">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O20:O23">
+    <cfRule type="colorScale" priority="148">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P20:P21">
+    <cfRule type="colorScale" priority="147">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q20:Q21">
+    <cfRule type="colorScale" priority="146">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R20:R21">
+    <cfRule type="colorScale" priority="145">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22:E23">
+    <cfRule type="colorScale" priority="129">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22:H23">
+    <cfRule type="colorScale" priority="128">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N22:N23">
+    <cfRule type="colorScale" priority="127">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R22:R23">
+    <cfRule type="colorScale" priority="125">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="colorScale" priority="109">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:D27">
+    <cfRule type="colorScale" priority="107">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:E27">
+    <cfRule type="colorScale" priority="106">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26:F27">
+    <cfRule type="colorScale" priority="105">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26:G27">
+    <cfRule type="colorScale" priority="104">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26:H27">
+    <cfRule type="colorScale" priority="103">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26:I27">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26:J27">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26:K27">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L26:L27">
+    <cfRule type="colorScale" priority="99">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M26:M27">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N26:N27">
+    <cfRule type="colorScale" priority="97">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O26:O27">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P26:P27">
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q26:Q27">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R26:R27">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:E29">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28:H29">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R28:R29">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N28:N29">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O28:O29">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L29">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R32:R33">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D33">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:E33">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:F33">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:G33">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:H33">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32:I33">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32:J33">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32:K33">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L32:L33">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M32:M33">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N32:N33">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O32:O33">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P32:P33">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -7195,7 +10085,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="Q32:Q33">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -7207,223 +10097,55 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F3">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G3">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H3">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I3">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J3">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K3">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L3">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M3">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N3">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O3">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P3">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q3">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R3">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
+  <conditionalFormatting sqref="H34">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N34:N35">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O34:O35">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R34:R35">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -7435,7 +10157,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4">
+  <conditionalFormatting sqref="G35">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -7447,7 +10169,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N4">
+  <conditionalFormatting sqref="H35">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -7459,7 +10181,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4">
+  <conditionalFormatting sqref="I35">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -7471,7 +10193,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R4">
+  <conditionalFormatting sqref="L35">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/migforecasting/clustering/AN-method output (only mundist).xlsx
+++ b/migforecasting/clustering/AN-method output (only mundist).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="32">
   <si>
     <t>clust</t>
   </si>
@@ -114,6 +114,9 @@
   <si>
     <t>neg+sf</t>
   </si>
+  <si>
+    <t>pred saldo + popsize</t>
+  </si>
 </sst>
 </file>
 
@@ -176,12 +179,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="20">
@@ -436,7 +445,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -566,7 +575,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1525,7 +1537,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2544,7 +2555,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6938,10 +6948,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6961,9 +6971,10 @@
     <col min="17" max="17" width="13" customWidth="1"/>
     <col min="18" max="18" width="15.85546875" customWidth="1"/>
     <col min="19" max="19" width="12.85546875" customWidth="1"/>
+    <col min="20" max="20" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -7021,8 +7032,11 @@
       <c r="S1" s="48" t="s">
         <v>29</v>
       </c>
+      <c r="T1" s="49" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -7077,9 +7091,11 @@
       <c r="R2" s="44">
         <v>75.817080209307306</v>
       </c>
-      <c r="S2" s="2"/>
+      <c r="S2" s="50">
+        <v>-62.559999999999967</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -7134,9 +7150,11 @@
       <c r="R3" s="44">
         <v>63.455594640242197</v>
       </c>
-      <c r="S3" s="2"/>
+      <c r="S3" s="50">
+        <v>-53.989999999999988</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -7191,9 +7209,11 @@
       <c r="R4" s="44">
         <v>75.817080209307306</v>
       </c>
-      <c r="S4" s="2"/>
+      <c r="S4" s="50">
+        <v>-56.77999999999998</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -7248,9 +7268,14 @@
       <c r="R5" s="44">
         <v>75.817080209307306</v>
       </c>
-      <c r="S5" s="2"/>
+      <c r="S5" s="50">
+        <v>-65.919999999999973</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S6" s="2"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
       <c r="E7" s="37"/>
@@ -7267,8 +7292,9 @@
       <c r="P7" s="37"/>
       <c r="Q7" s="37"/>
       <c r="R7" s="37"/>
+      <c r="S7" s="2"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -7323,9 +7349,11 @@
       <c r="R8" s="44">
         <v>118.263281060987</v>
       </c>
-      <c r="S8" s="49"/>
+      <c r="S8" s="2">
+        <v>-99.51</v>
+      </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -7380,9 +7408,11 @@
       <c r="R9" s="44">
         <v>93.969954189535301</v>
       </c>
-      <c r="S9" s="49"/>
+      <c r="S9" s="2">
+        <v>-131.99</v>
+      </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -7437,9 +7467,11 @@
       <c r="R10" s="44">
         <v>118.263281060987</v>
       </c>
-      <c r="S10" s="49"/>
+      <c r="S10" s="2">
+        <v>-126.19</v>
+      </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -7494,9 +7526,17 @@
       <c r="R11" s="44">
         <v>118.263281060987</v>
       </c>
-      <c r="S11" s="49"/>
+      <c r="S11" s="2">
+        <v>-101.26</v>
+      </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2</v>
       </c>
@@ -7551,8 +7591,11 @@
       <c r="R14" s="44">
         <v>83.250391101316396</v>
       </c>
+      <c r="S14" s="50">
+        <v>-206.67999999999989</v>
+      </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2</v>
       </c>
@@ -7607,8 +7650,11 @@
       <c r="R15" s="44">
         <v>70.544639399978806</v>
       </c>
+      <c r="S15" s="50">
+        <v>-161.32</v>
+      </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2</v>
       </c>
@@ -7663,8 +7709,11 @@
       <c r="R16" s="44">
         <v>83.250391101316396</v>
       </c>
+      <c r="S16" s="50">
+        <v>-190</v>
+      </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2</v>
       </c>
@@ -7719,8 +7768,17 @@
       <c r="R17" s="44">
         <v>83.250391101316396</v>
       </c>
+      <c r="S17" s="50">
+        <v>-186.16</v>
+      </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S18" s="2"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S19" s="2"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>3</v>
       </c>
@@ -7775,8 +7833,11 @@
       <c r="R20" s="44">
         <v>155.613070376834</v>
       </c>
+      <c r="S20" s="50">
+        <v>-122.37</v>
+      </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>3</v>
       </c>
@@ -7831,8 +7892,11 @@
       <c r="R21" s="44">
         <v>133.34616169633699</v>
       </c>
+      <c r="S21" s="50">
+        <v>-119.82</v>
+      </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>3</v>
       </c>
@@ -7887,8 +7951,11 @@
       <c r="R22" s="44">
         <v>155.613070376834</v>
       </c>
+      <c r="S22" s="50">
+        <v>-120.83</v>
+      </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>3</v>
       </c>
@@ -7943,8 +8010,17 @@
       <c r="R23" s="44">
         <v>155.613070376834</v>
       </c>
+      <c r="S23" s="50">
+        <v>-120.74</v>
+      </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S24" s="2"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S25" s="2"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>4</v>
       </c>
@@ -7999,8 +8075,11 @@
       <c r="R26" s="44">
         <v>73.125417192873499</v>
       </c>
+      <c r="S26" s="2">
+        <v>-142.04</v>
+      </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>4</v>
       </c>
@@ -8055,8 +8134,11 @@
       <c r="R27" s="44">
         <v>58.533095319716999</v>
       </c>
+      <c r="S27" s="2">
+        <v>-153.9199999999999</v>
+      </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>4</v>
       </c>
@@ -8111,8 +8193,11 @@
       <c r="R28" s="44">
         <v>73.125417192873499</v>
       </c>
+      <c r="S28" s="2">
+        <v>-145.21</v>
+      </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>4</v>
       </c>
@@ -8167,8 +8252,17 @@
       <c r="R29" s="44">
         <v>73.125417192873499</v>
       </c>
+      <c r="S29" s="2">
+        <v>-156.91</v>
+      </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S30" s="2"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S31" s="2"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>5</v>
       </c>
@@ -8223,8 +8317,11 @@
       <c r="R32" s="44">
         <v>351.86731958595101</v>
       </c>
+      <c r="S32" s="2">
+        <v>-105.14</v>
+      </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>5</v>
       </c>
@@ -8279,8 +8376,11 @@
       <c r="R33" s="44">
         <v>344.45856439656802</v>
       </c>
+      <c r="S33" s="2">
+        <v>-153.07</v>
+      </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>5</v>
       </c>
@@ -8335,8 +8435,11 @@
       <c r="R34" s="44">
         <v>351.86731958595101</v>
       </c>
+      <c r="S34" s="2">
+        <v>-122.7699999999999</v>
+      </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>5</v>
       </c>
@@ -8390,11 +8493,14 @@
       </c>
       <c r="R35" s="44">
         <v>351.86731958595101</v>
+      </c>
+      <c r="S35" s="2">
+        <v>-102.32</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D3">
-    <cfRule type="colorScale" priority="342">
+    <cfRule type="colorScale" priority="357">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8406,7 +8512,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E3">
-    <cfRule type="colorScale" priority="341">
+    <cfRule type="colorScale" priority="356">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8418,7 +8524,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F3">
-    <cfRule type="colorScale" priority="340">
+    <cfRule type="colorScale" priority="355">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8430,7 +8536,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G3">
-    <cfRule type="colorScale" priority="339">
+    <cfRule type="colorScale" priority="354">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8442,7 +8548,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H3">
-    <cfRule type="colorScale" priority="338">
+    <cfRule type="colorScale" priority="353">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8454,7 +8560,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="colorScale" priority="337">
+    <cfRule type="colorScale" priority="352">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8466,7 +8572,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J3">
-    <cfRule type="colorScale" priority="336">
+    <cfRule type="colorScale" priority="351">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8478,7 +8584,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K3">
-    <cfRule type="colorScale" priority="335">
+    <cfRule type="colorScale" priority="350">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8490,7 +8596,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L3">
-    <cfRule type="colorScale" priority="334">
+    <cfRule type="colorScale" priority="349">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8502,7 +8608,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M3">
-    <cfRule type="colorScale" priority="333">
+    <cfRule type="colorScale" priority="348">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8514,7 +8620,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N3">
-    <cfRule type="colorScale" priority="332">
+    <cfRule type="colorScale" priority="347">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8526,7 +8632,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O3">
-    <cfRule type="colorScale" priority="331">
+    <cfRule type="colorScale" priority="346">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8538,7 +8644,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P3">
-    <cfRule type="colorScale" priority="330">
+    <cfRule type="colorScale" priority="345">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8550,7 +8656,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q3">
-    <cfRule type="colorScale" priority="329">
+    <cfRule type="colorScale" priority="344">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8562,7 +8668,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R3">
-    <cfRule type="colorScale" priority="328">
+    <cfRule type="colorScale" priority="343">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8574,7 +8680,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="colorScale" priority="311">
+    <cfRule type="colorScale" priority="326">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8586,7 +8692,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="colorScale" priority="310">
+    <cfRule type="colorScale" priority="325">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8598,7 +8704,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="colorScale" priority="309">
+    <cfRule type="colorScale" priority="324">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8610,7 +8716,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="colorScale" priority="308">
+    <cfRule type="colorScale" priority="323">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8622,7 +8728,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="colorScale" priority="307">
+    <cfRule type="colorScale" priority="322">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8634,7 +8740,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="colorScale" priority="306">
+    <cfRule type="colorScale" priority="321">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8646,7 +8752,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="colorScale" priority="305">
+    <cfRule type="colorScale" priority="320">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8658,7 +8764,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="colorScale" priority="304">
+    <cfRule type="colorScale" priority="319">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8670,7 +8776,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
-    <cfRule type="colorScale" priority="303">
+    <cfRule type="colorScale" priority="318">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8682,7 +8788,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R5">
-    <cfRule type="colorScale" priority="302">
+    <cfRule type="colorScale" priority="317">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8694,6 +8800,174 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
+    <cfRule type="colorScale" priority="301">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="colorScale" priority="300">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4">
+    <cfRule type="colorScale" priority="299">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4">
+    <cfRule type="colorScale" priority="298">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R4">
+    <cfRule type="colorScale" priority="297">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D9">
+    <cfRule type="colorScale" priority="295">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8:E9">
+    <cfRule type="colorScale" priority="294">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F9">
+    <cfRule type="colorScale" priority="293">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:G9">
+    <cfRule type="colorScale" priority="292">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:H9">
+    <cfRule type="colorScale" priority="291">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:I9">
+    <cfRule type="colorScale" priority="290">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8:J9">
+    <cfRule type="colorScale" priority="289">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:K9">
+    <cfRule type="colorScale" priority="288">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8:L9">
+    <cfRule type="colorScale" priority="287">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M8:M9">
     <cfRule type="colorScale" priority="286">
       <colorScale>
         <cfvo type="min"/>
@@ -8705,7 +8979,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
+  <conditionalFormatting sqref="N8:N9">
     <cfRule type="colorScale" priority="285">
       <colorScale>
         <cfvo type="min"/>
@@ -8717,7 +8991,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N4">
+  <conditionalFormatting sqref="O8:O9">
     <cfRule type="colorScale" priority="284">
       <colorScale>
         <cfvo type="min"/>
@@ -8729,7 +9003,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4">
+  <conditionalFormatting sqref="P8:P9">
     <cfRule type="colorScale" priority="283">
       <colorScale>
         <cfvo type="min"/>
@@ -8741,7 +9015,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R4">
+  <conditionalFormatting sqref="Q8:Q9">
     <cfRule type="colorScale" priority="282">
       <colorScale>
         <cfvo type="min"/>
@@ -8753,176 +9027,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D9">
-    <cfRule type="colorScale" priority="280">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E9">
-    <cfRule type="colorScale" priority="279">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F9">
-    <cfRule type="colorScale" priority="278">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G9">
-    <cfRule type="colorScale" priority="277">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H9">
-    <cfRule type="colorScale" priority="276">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I9">
-    <cfRule type="colorScale" priority="275">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8:J9">
-    <cfRule type="colorScale" priority="274">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K9">
-    <cfRule type="colorScale" priority="273">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L8:L9">
-    <cfRule type="colorScale" priority="272">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M8:M9">
-    <cfRule type="colorScale" priority="271">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N8:N9">
-    <cfRule type="colorScale" priority="270">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O8:O9">
-    <cfRule type="colorScale" priority="269">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P8:P9">
-    <cfRule type="colorScale" priority="268">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q8:Q9">
-    <cfRule type="colorScale" priority="267">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="R8:R9">
-    <cfRule type="colorScale" priority="266">
+    <cfRule type="colorScale" priority="281">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8934,7 +9040,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="colorScale" priority="249">
+    <cfRule type="colorScale" priority="264">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8946,7 +9052,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="colorScale" priority="248">
+    <cfRule type="colorScale" priority="263">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8958,7 +9064,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="colorScale" priority="247">
+    <cfRule type="colorScale" priority="262">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8970,7 +9076,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="colorScale" priority="246">
+    <cfRule type="colorScale" priority="261">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8982,7 +9088,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10">
-    <cfRule type="colorScale" priority="245">
+    <cfRule type="colorScale" priority="260">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8994,6 +9100,174 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
+    <cfRule type="colorScale" priority="242">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="colorScale" priority="241">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="colorScale" priority="240">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="colorScale" priority="239">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="colorScale" priority="238">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="colorScale" priority="237">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11">
+    <cfRule type="colorScale" priority="236">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O11">
+    <cfRule type="colorScale" priority="235">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R11">
+    <cfRule type="colorScale" priority="234">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:D15">
+    <cfRule type="colorScale" priority="232">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E15">
+    <cfRule type="colorScale" priority="231">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F15">
+    <cfRule type="colorScale" priority="230">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:G15">
+    <cfRule type="colorScale" priority="229">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:H15">
+    <cfRule type="colorScale" priority="228">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:I15">
     <cfRule type="colorScale" priority="227">
       <colorScale>
         <cfvo type="min"/>
@@ -9005,7 +9279,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
+  <conditionalFormatting sqref="J14:J15">
     <cfRule type="colorScale" priority="226">
       <colorScale>
         <cfvo type="min"/>
@@ -9017,7 +9291,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11">
+  <conditionalFormatting sqref="K14:K15">
     <cfRule type="colorScale" priority="225">
       <colorScale>
         <cfvo type="min"/>
@@ -9029,7 +9303,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+  <conditionalFormatting sqref="L14:L15">
     <cfRule type="colorScale" priority="224">
       <colorScale>
         <cfvo type="min"/>
@@ -9041,7 +9315,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
+  <conditionalFormatting sqref="M14:M15">
     <cfRule type="colorScale" priority="223">
       <colorScale>
         <cfvo type="min"/>
@@ -9053,7 +9327,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
+  <conditionalFormatting sqref="N14:N15">
     <cfRule type="colorScale" priority="222">
       <colorScale>
         <cfvo type="min"/>
@@ -9065,7 +9339,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N11">
+  <conditionalFormatting sqref="O14:O15">
     <cfRule type="colorScale" priority="221">
       <colorScale>
         <cfvo type="min"/>
@@ -9077,7 +9351,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O11">
+  <conditionalFormatting sqref="P14:P15">
     <cfRule type="colorScale" priority="220">
       <colorScale>
         <cfvo type="min"/>
@@ -9089,7 +9363,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R11">
+  <conditionalFormatting sqref="Q14:Q15">
     <cfRule type="colorScale" priority="219">
       <colorScale>
         <cfvo type="min"/>
@@ -9101,176 +9375,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D15">
-    <cfRule type="colorScale" priority="217">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E15">
-    <cfRule type="colorScale" priority="216">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14:F15">
-    <cfRule type="colorScale" priority="215">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G15">
-    <cfRule type="colorScale" priority="214">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14:H15">
-    <cfRule type="colorScale" priority="213">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14:I15">
-    <cfRule type="colorScale" priority="212">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14:J15">
-    <cfRule type="colorScale" priority="211">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K14:K15">
-    <cfRule type="colorScale" priority="210">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L14:L15">
-    <cfRule type="colorScale" priority="209">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M14:M15">
-    <cfRule type="colorScale" priority="208">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N14:N15">
-    <cfRule type="colorScale" priority="207">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O14:O15">
-    <cfRule type="colorScale" priority="206">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P14:P15">
-    <cfRule type="colorScale" priority="205">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q14:Q15">
-    <cfRule type="colorScale" priority="204">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="R14:R15">
-    <cfRule type="colorScale" priority="203">
+    <cfRule type="colorScale" priority="218">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9282,7 +9388,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="colorScale" priority="186">
+    <cfRule type="colorScale" priority="201">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9294,7 +9400,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="colorScale" priority="185">
+    <cfRule type="colorScale" priority="200">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9306,7 +9412,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="colorScale" priority="184">
+    <cfRule type="colorScale" priority="199">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9318,7 +9424,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16">
-    <cfRule type="colorScale" priority="183">
+    <cfRule type="colorScale" priority="198">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9330,7 +9436,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16">
-    <cfRule type="colorScale" priority="182">
+    <cfRule type="colorScale" priority="197">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9342,6 +9448,174 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
+    <cfRule type="colorScale" priority="181">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="colorScale" priority="180">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="colorScale" priority="179">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N17">
+    <cfRule type="colorScale" priority="178">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O17">
+    <cfRule type="colorScale" priority="177">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R17">
+    <cfRule type="colorScale" priority="176">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:D21">
+    <cfRule type="colorScale" priority="174">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20:E21">
+    <cfRule type="colorScale" priority="173">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20:F21">
+    <cfRule type="colorScale" priority="172">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:G21">
+    <cfRule type="colorScale" priority="171">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20:H21">
+    <cfRule type="colorScale" priority="170">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20:I21">
+    <cfRule type="colorScale" priority="169">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20:J21">
+    <cfRule type="colorScale" priority="168">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20:K21">
+    <cfRule type="colorScale" priority="167">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L20:L21">
     <cfRule type="colorScale" priority="166">
       <colorScale>
         <cfvo type="min"/>
@@ -9353,7 +9627,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
+  <conditionalFormatting sqref="M20:M21">
     <cfRule type="colorScale" priority="165">
       <colorScale>
         <cfvo type="min"/>
@@ -9365,7 +9639,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
+  <conditionalFormatting sqref="N20:N21">
     <cfRule type="colorScale" priority="164">
       <colorScale>
         <cfvo type="min"/>
@@ -9377,7 +9651,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N17">
+  <conditionalFormatting sqref="O20:O23">
     <cfRule type="colorScale" priority="163">
       <colorScale>
         <cfvo type="min"/>
@@ -9389,7 +9663,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O17">
+  <conditionalFormatting sqref="P20:P21">
     <cfRule type="colorScale" priority="162">
       <colorScale>
         <cfvo type="min"/>
@@ -9401,7 +9675,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R17">
+  <conditionalFormatting sqref="Q20:Q21">
     <cfRule type="colorScale" priority="161">
       <colorScale>
         <cfvo type="min"/>
@@ -9413,176 +9687,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20:D21">
-    <cfRule type="colorScale" priority="159">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20:E21">
-    <cfRule type="colorScale" priority="158">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F21">
-    <cfRule type="colorScale" priority="157">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20:G21">
-    <cfRule type="colorScale" priority="156">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20:H21">
-    <cfRule type="colorScale" priority="155">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I21">
-    <cfRule type="colorScale" priority="154">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20:J21">
-    <cfRule type="colorScale" priority="153">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K20:K21">
-    <cfRule type="colorScale" priority="152">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L20:L21">
-    <cfRule type="colorScale" priority="151">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M20:M21">
-    <cfRule type="colorScale" priority="150">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N20:N21">
-    <cfRule type="colorScale" priority="149">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O20:O23">
-    <cfRule type="colorScale" priority="148">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P20:P21">
-    <cfRule type="colorScale" priority="147">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q20:Q21">
-    <cfRule type="colorScale" priority="146">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="R20:R21">
-    <cfRule type="colorScale" priority="145">
+    <cfRule type="colorScale" priority="160">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9594,7 +9700,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:E23">
-    <cfRule type="colorScale" priority="129">
+    <cfRule type="colorScale" priority="144">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9606,7 +9712,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:H23">
-    <cfRule type="colorScale" priority="128">
+    <cfRule type="colorScale" priority="143">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9618,7 +9724,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22:N23">
-    <cfRule type="colorScale" priority="127">
+    <cfRule type="colorScale" priority="142">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9630,7 +9736,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R22:R23">
-    <cfRule type="colorScale" priority="125">
+    <cfRule type="colorScale" priority="140">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9642,6 +9748,174 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
+    <cfRule type="colorScale" priority="124">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:D27">
+    <cfRule type="colorScale" priority="122">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:E27">
+    <cfRule type="colorScale" priority="121">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26:F27">
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26:G27">
+    <cfRule type="colorScale" priority="119">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26:H27">
+    <cfRule type="colorScale" priority="118">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26:I27">
+    <cfRule type="colorScale" priority="117">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26:J27">
+    <cfRule type="colorScale" priority="116">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26:K27">
+    <cfRule type="colorScale" priority="115">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L26:L27">
+    <cfRule type="colorScale" priority="114">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M26:M27">
+    <cfRule type="colorScale" priority="113">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N26:N27">
+    <cfRule type="colorScale" priority="112">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O26:O27">
+    <cfRule type="colorScale" priority="111">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P26:P27">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q26:Q27">
     <cfRule type="colorScale" priority="109">
       <colorScale>
         <cfvo type="min"/>
@@ -9653,176 +9927,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D27">
-    <cfRule type="colorScale" priority="107">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E27">
-    <cfRule type="colorScale" priority="106">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26:F27">
-    <cfRule type="colorScale" priority="105">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26:G27">
-    <cfRule type="colorScale" priority="104">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26:H27">
-    <cfRule type="colorScale" priority="103">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26:I27">
-    <cfRule type="colorScale" priority="102">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J26:J27">
-    <cfRule type="colorScale" priority="101">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K26:K27">
-    <cfRule type="colorScale" priority="100">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L26:L27">
-    <cfRule type="colorScale" priority="99">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M26:M27">
-    <cfRule type="colorScale" priority="98">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N26:N27">
-    <cfRule type="colorScale" priority="97">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O26:O27">
-    <cfRule type="colorScale" priority="96">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P26:P27">
-    <cfRule type="colorScale" priority="95">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q26:Q27">
-    <cfRule type="colorScale" priority="94">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="R26:R27">
-    <cfRule type="colorScale" priority="93">
+    <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9834,7 +9940,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:E29">
-    <cfRule type="colorScale" priority="77">
+    <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9846,7 +9952,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:H29">
-    <cfRule type="colorScale" priority="76">
+    <cfRule type="colorScale" priority="91">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9858,7 +9964,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R28:R29">
-    <cfRule type="colorScale" priority="75">
+    <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9870,7 +9976,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28:N29">
-    <cfRule type="colorScale" priority="74">
+    <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9882,7 +9988,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O28:O29">
-    <cfRule type="colorScale" priority="73">
+    <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9894,6 +10000,174 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L29">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R32:R33">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D33">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:E33">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:F33">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:G33">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:H33">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32:I33">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32:J33">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32:K33">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L32:L33">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M32:M33">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N32:N33">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O32:O33">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -9905,7 +10179,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L29">
+  <conditionalFormatting sqref="P32:P33">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
@@ -9917,7 +10191,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R32:R33">
+  <conditionalFormatting sqref="Q32:Q33">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -9929,176 +10203,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32:D33">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32:E33">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F33">
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G32:G33">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32:H33">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32:I33">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32:J33">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32:K33">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L32:L33">
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M32:M33">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N32:N33">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O32:O33">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P32:P33">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q32:Q33">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10110,7 +10216,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N34:N35">
-    <cfRule type="colorScale" priority="23">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10122,7 +10228,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O34:O35">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10134,7 +10240,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R34:R35">
-    <cfRule type="colorScale" priority="21">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10146,7 +10252,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10158,7 +10264,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10170,6 +10276,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L35">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S8:S11">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -10181,7 +10323,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35">
+  <conditionalFormatting sqref="S32:S35">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -10193,7 +10335,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L35">
+  <conditionalFormatting sqref="S26:S29">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/migforecasting/clustering/AN-method output (only mundist).xlsx
+++ b/migforecasting/clustering/AN-method output (only mundist).xlsx
@@ -145,6 +145,8 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -445,7 +447,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -578,7 +580,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6950,14 +6955,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="3" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" customWidth="1"/>
@@ -6970,8 +6976,10 @@
     <col min="16" max="16" width="14.28515625" customWidth="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
     <col min="18" max="18" width="15.85546875" customWidth="1"/>
-    <col min="19" max="19" width="12.85546875" customWidth="1"/>
-    <col min="20" max="20" width="20.140625" customWidth="1"/>
+    <col min="19" max="19" width="11" customWidth="1"/>
+    <col min="20" max="20" width="18.5703125" customWidth="1"/>
+    <col min="21" max="21" width="19.28515625" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -7094,6 +7102,9 @@
       <c r="S2" s="50">
         <v>-62.559999999999967</v>
       </c>
+      <c r="T2" s="51">
+        <v>-79.189999999999955</v>
+      </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -7153,6 +7164,9 @@
       <c r="S3" s="50">
         <v>-53.989999999999988</v>
       </c>
+      <c r="T3" s="51">
+        <v>-95.529999999999973</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -7212,6 +7226,9 @@
       <c r="S4" s="50">
         <v>-56.77999999999998</v>
       </c>
+      <c r="T4" s="51">
+        <v>-84.299999999999969</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -7271,9 +7288,12 @@
       <c r="S5" s="50">
         <v>-65.919999999999973</v>
       </c>
+      <c r="T5" s="51">
+        <v>-76.569999999999993</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="S6" s="2"/>
+      <c r="S6" s="51"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" s="37"/>
@@ -7292,7 +7312,7 @@
       <c r="P7" s="37"/>
       <c r="Q7" s="37"/>
       <c r="R7" s="37"/>
-      <c r="S7" s="2"/>
+      <c r="S7" s="51"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -7349,8 +7369,11 @@
       <c r="R8" s="44">
         <v>118.263281060987</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="51">
         <v>-99.51</v>
+      </c>
+      <c r="T8" s="51">
+        <v>-94.350000000000023</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -7408,8 +7431,11 @@
       <c r="R9" s="44">
         <v>93.969954189535301</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S9" s="51">
         <v>-131.99</v>
+      </c>
+      <c r="T9" s="51">
+        <v>-181.42</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -7467,8 +7493,11 @@
       <c r="R10" s="44">
         <v>118.263281060987</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="51">
         <v>-126.19</v>
+      </c>
+      <c r="T10" s="51">
+        <v>-118.52</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -7526,15 +7555,18 @@
       <c r="R11" s="44">
         <v>118.263281060987</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11" s="51">
         <v>-101.26</v>
+      </c>
+      <c r="T11" s="51">
+        <v>-106.18</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="S12" s="2"/>
+      <c r="S12" s="51"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="S13" s="2"/>
+      <c r="S13" s="51"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -7594,6 +7626,9 @@
       <c r="S14" s="50">
         <v>-206.67999999999989</v>
       </c>
+      <c r="T14" s="51">
+        <v>-153.0499999999999</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -7653,6 +7688,9 @@
       <c r="S15" s="50">
         <v>-161.32</v>
       </c>
+      <c r="T15" s="51">
+        <v>-160.75</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -7712,8 +7750,11 @@
       <c r="S16" s="50">
         <v>-190</v>
       </c>
+      <c r="T16" s="51">
+        <v>-138.36000000000001</v>
+      </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2</v>
       </c>
@@ -7771,14 +7812,17 @@
       <c r="S17" s="50">
         <v>-186.16</v>
       </c>
+      <c r="T17" s="51">
+        <v>-140.6</v>
+      </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="S18" s="2"/>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S18" s="51"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="S19" s="2"/>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S19" s="51"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>3</v>
       </c>
@@ -7836,8 +7880,11 @@
       <c r="S20" s="50">
         <v>-122.37</v>
       </c>
+      <c r="T20" s="51">
+        <v>-113.55</v>
+      </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>3</v>
       </c>
@@ -7895,8 +7942,11 @@
       <c r="S21" s="50">
         <v>-119.82</v>
       </c>
+      <c r="T21" s="51">
+        <v>-117.28</v>
+      </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>3</v>
       </c>
@@ -7954,8 +8004,11 @@
       <c r="S22" s="50">
         <v>-120.83</v>
       </c>
+      <c r="T22" s="51">
+        <v>-85.64</v>
+      </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>3</v>
       </c>
@@ -8013,14 +8066,17 @@
       <c r="S23" s="50">
         <v>-120.74</v>
       </c>
+      <c r="T23" s="51">
+        <v>-88.47999999999999</v>
+      </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="S24" s="2"/>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S24" s="51"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="S25" s="2"/>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S25" s="51"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>4</v>
       </c>
@@ -8075,11 +8131,14 @@
       <c r="R26" s="44">
         <v>73.125417192873499</v>
       </c>
-      <c r="S26" s="2">
+      <c r="S26" s="51">
         <v>-142.04</v>
       </c>
+      <c r="T26" s="51">
+        <v>-120.52</v>
+      </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>4</v>
       </c>
@@ -8134,11 +8193,14 @@
       <c r="R27" s="44">
         <v>58.533095319716999</v>
       </c>
-      <c r="S27" s="2">
+      <c r="S27" s="51">
         <v>-153.9199999999999</v>
       </c>
+      <c r="T27" s="51">
+        <v>-126.2</v>
+      </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>4</v>
       </c>
@@ -8193,11 +8255,14 @@
       <c r="R28" s="44">
         <v>73.125417192873499</v>
       </c>
-      <c r="S28" s="2">
+      <c r="S28" s="51">
         <v>-145.21</v>
       </c>
+      <c r="T28" s="51">
+        <v>-122.17</v>
+      </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>4</v>
       </c>
@@ -8252,17 +8317,20 @@
       <c r="R29" s="44">
         <v>73.125417192873499</v>
       </c>
-      <c r="S29" s="2">
+      <c r="S29" s="51">
         <v>-156.91</v>
       </c>
+      <c r="T29" s="51">
+        <v>-118.21</v>
+      </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="S30" s="2"/>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S30" s="51"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="S31" s="2"/>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S31" s="51"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>5</v>
       </c>
@@ -8317,11 +8385,14 @@
       <c r="R32" s="44">
         <v>351.86731958595101</v>
       </c>
-      <c r="S32" s="2">
+      <c r="S32" s="51">
         <v>-105.14</v>
       </c>
+      <c r="T32" s="51">
+        <v>-59.569999999999958</v>
+      </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>5</v>
       </c>
@@ -8376,11 +8447,14 @@
       <c r="R33" s="44">
         <v>344.45856439656802</v>
       </c>
-      <c r="S33" s="2">
+      <c r="S33" s="51">
         <v>-153.07</v>
       </c>
+      <c r="T33" s="51">
+        <v>-181.83999999999989</v>
+      </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>5</v>
       </c>
@@ -8435,11 +8509,14 @@
       <c r="R34" s="44">
         <v>351.86731958595101</v>
       </c>
-      <c r="S34" s="2">
+      <c r="S34" s="51">
         <v>-122.7699999999999</v>
       </c>
+      <c r="T34" s="51">
+        <v>-112.07</v>
+      </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>5</v>
       </c>
@@ -8494,12 +8571,87 @@
       <c r="R35" s="44">
         <v>351.86731958595101</v>
       </c>
-      <c r="S35" s="2">
+      <c r="S35" s="51">
         <v>-102.32</v>
+      </c>
+      <c r="T35" s="51">
+        <v>-92.949999999999932</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D3">
+    <cfRule type="colorScale" priority="363">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="colorScale" priority="362">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F3">
+    <cfRule type="colorScale" priority="361">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G3">
+    <cfRule type="colorScale" priority="360">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H3">
+    <cfRule type="colorScale" priority="359">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I3">
+    <cfRule type="colorScale" priority="358">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J3">
     <cfRule type="colorScale" priority="357">
       <colorScale>
         <cfvo type="min"/>
@@ -8511,7 +8663,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="K2:K3">
     <cfRule type="colorScale" priority="356">
       <colorScale>
         <cfvo type="min"/>
@@ -8523,7 +8675,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F3">
+  <conditionalFormatting sqref="L2:L3">
     <cfRule type="colorScale" priority="355">
       <colorScale>
         <cfvo type="min"/>
@@ -8535,7 +8687,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G3">
+  <conditionalFormatting sqref="M2:M3">
     <cfRule type="colorScale" priority="354">
       <colorScale>
         <cfvo type="min"/>
@@ -8547,7 +8699,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H3">
+  <conditionalFormatting sqref="N2:N3">
     <cfRule type="colorScale" priority="353">
       <colorScale>
         <cfvo type="min"/>
@@ -8559,7 +8711,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I3">
+  <conditionalFormatting sqref="O2:O3">
     <cfRule type="colorScale" priority="352">
       <colorScale>
         <cfvo type="min"/>
@@ -8571,7 +8723,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J3">
+  <conditionalFormatting sqref="P2:P3">
     <cfRule type="colorScale" priority="351">
       <colorScale>
         <cfvo type="min"/>
@@ -8583,7 +8735,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K3">
+  <conditionalFormatting sqref="Q2:Q3">
     <cfRule type="colorScale" priority="350">
       <colorScale>
         <cfvo type="min"/>
@@ -8595,7 +8747,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L3">
+  <conditionalFormatting sqref="R2:R3">
     <cfRule type="colorScale" priority="349">
       <colorScale>
         <cfvo type="min"/>
@@ -8607,79 +8759,79 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M3">
-    <cfRule type="colorScale" priority="348">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N3">
-    <cfRule type="colorScale" priority="347">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O3">
-    <cfRule type="colorScale" priority="346">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P3">
-    <cfRule type="colorScale" priority="345">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q3">
-    <cfRule type="colorScale" priority="344">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R3">
-    <cfRule type="colorScale" priority="343">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E5">
+    <cfRule type="colorScale" priority="332">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="colorScale" priority="331">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="colorScale" priority="330">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="colorScale" priority="329">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="colorScale" priority="328">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5">
+    <cfRule type="colorScale" priority="327">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
     <cfRule type="colorScale" priority="326">
       <colorScale>
         <cfvo type="min"/>
@@ -8691,7 +8843,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="N5">
     <cfRule type="colorScale" priority="325">
       <colorScale>
         <cfvo type="min"/>
@@ -8703,7 +8855,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
+  <conditionalFormatting sqref="O5">
     <cfRule type="colorScale" priority="324">
       <colorScale>
         <cfvo type="min"/>
@@ -8715,7 +8867,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
+  <conditionalFormatting sqref="R5">
     <cfRule type="colorScale" priority="323">
       <colorScale>
         <cfvo type="min"/>
@@ -8727,79 +8879,67 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="colorScale" priority="322">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="colorScale" priority="321">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="colorScale" priority="320">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="colorScale" priority="319">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="colorScale" priority="318">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5">
-    <cfRule type="colorScale" priority="317">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E4">
+    <cfRule type="colorScale" priority="307">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="colorScale" priority="306">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4">
+    <cfRule type="colorScale" priority="305">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4">
+    <cfRule type="colorScale" priority="304">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R4">
+    <cfRule type="colorScale" priority="303">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D9">
     <cfRule type="colorScale" priority="301">
       <colorScale>
         <cfvo type="min"/>
@@ -8811,7 +8951,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
+  <conditionalFormatting sqref="E8:E9">
     <cfRule type="colorScale" priority="300">
       <colorScale>
         <cfvo type="min"/>
@@ -8823,7 +8963,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N4">
+  <conditionalFormatting sqref="F8:F9">
     <cfRule type="colorScale" priority="299">
       <colorScale>
         <cfvo type="min"/>
@@ -8835,7 +8975,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4">
+  <conditionalFormatting sqref="G8:G9">
     <cfRule type="colorScale" priority="298">
       <colorScale>
         <cfvo type="min"/>
@@ -8847,7 +8987,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R4">
+  <conditionalFormatting sqref="H8:H9">
     <cfRule type="colorScale" priority="297">
       <colorScale>
         <cfvo type="min"/>
@@ -8859,7 +8999,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D9">
+  <conditionalFormatting sqref="I8:I9">
+    <cfRule type="colorScale" priority="296">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8:J9">
     <cfRule type="colorScale" priority="295">
       <colorScale>
         <cfvo type="min"/>
@@ -8871,7 +9023,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E9">
+  <conditionalFormatting sqref="K8:K9">
     <cfRule type="colorScale" priority="294">
       <colorScale>
         <cfvo type="min"/>
@@ -8883,7 +9035,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F9">
+  <conditionalFormatting sqref="L8:L9">
     <cfRule type="colorScale" priority="293">
       <colorScale>
         <cfvo type="min"/>
@@ -8895,7 +9047,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G9">
+  <conditionalFormatting sqref="M8:M9">
     <cfRule type="colorScale" priority="292">
       <colorScale>
         <cfvo type="min"/>
@@ -8907,7 +9059,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H9">
+  <conditionalFormatting sqref="N8:N9">
     <cfRule type="colorScale" priority="291">
       <colorScale>
         <cfvo type="min"/>
@@ -8919,7 +9071,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I9">
+  <conditionalFormatting sqref="O8:O9">
     <cfRule type="colorScale" priority="290">
       <colorScale>
         <cfvo type="min"/>
@@ -8931,7 +9083,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8:J9">
+  <conditionalFormatting sqref="P8:P9">
     <cfRule type="colorScale" priority="289">
       <colorScale>
         <cfvo type="min"/>
@@ -8943,7 +9095,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K9">
+  <conditionalFormatting sqref="Q8:Q9">
     <cfRule type="colorScale" priority="288">
       <colorScale>
         <cfvo type="min"/>
@@ -8955,7 +9107,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8:L9">
+  <conditionalFormatting sqref="R8:R9">
     <cfRule type="colorScale" priority="287">
       <colorScale>
         <cfvo type="min"/>
@@ -8967,80 +9119,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8:M9">
-    <cfRule type="colorScale" priority="286">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N8:N9">
-    <cfRule type="colorScale" priority="285">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O8:O9">
-    <cfRule type="colorScale" priority="284">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P8:P9">
-    <cfRule type="colorScale" priority="283">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q8:Q9">
-    <cfRule type="colorScale" priority="282">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R8:R9">
-    <cfRule type="colorScale" priority="281">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="colorScale" priority="264">
+    <cfRule type="colorScale" priority="270">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9052,7 +9132,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="colorScale" priority="263">
+    <cfRule type="colorScale" priority="269">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9064,7 +9144,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="colorScale" priority="262">
+    <cfRule type="colorScale" priority="268">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9076,7 +9156,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="colorScale" priority="261">
+    <cfRule type="colorScale" priority="267">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9088,7 +9168,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10">
-    <cfRule type="colorScale" priority="260">
+    <cfRule type="colorScale" priority="266">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9100,6 +9180,78 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
+    <cfRule type="colorScale" priority="248">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="colorScale" priority="247">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="colorScale" priority="246">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="colorScale" priority="245">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="colorScale" priority="244">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="colorScale" priority="243">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11">
     <cfRule type="colorScale" priority="242">
       <colorScale>
         <cfvo type="min"/>
@@ -9111,7 +9263,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
+  <conditionalFormatting sqref="O11">
     <cfRule type="colorScale" priority="241">
       <colorScale>
         <cfvo type="min"/>
@@ -9123,7 +9275,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11">
+  <conditionalFormatting sqref="R11">
     <cfRule type="colorScale" priority="240">
       <colorScale>
         <cfvo type="min"/>
@@ -9135,19 +9287,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="colorScale" priority="239">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
+  <conditionalFormatting sqref="D14:D15">
     <cfRule type="colorScale" priority="238">
       <colorScale>
         <cfvo type="min"/>
@@ -9159,7 +9299,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
+  <conditionalFormatting sqref="E14:E15">
     <cfRule type="colorScale" priority="237">
       <colorScale>
         <cfvo type="min"/>
@@ -9171,7 +9311,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N11">
+  <conditionalFormatting sqref="F14:F15">
     <cfRule type="colorScale" priority="236">
       <colorScale>
         <cfvo type="min"/>
@@ -9183,7 +9323,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O11">
+  <conditionalFormatting sqref="G14:G15">
     <cfRule type="colorScale" priority="235">
       <colorScale>
         <cfvo type="min"/>
@@ -9195,7 +9335,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R11">
+  <conditionalFormatting sqref="H14:H15">
     <cfRule type="colorScale" priority="234">
       <colorScale>
         <cfvo type="min"/>
@@ -9207,7 +9347,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D15">
+  <conditionalFormatting sqref="I14:I15">
+    <cfRule type="colorScale" priority="233">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14:J15">
     <cfRule type="colorScale" priority="232">
       <colorScale>
         <cfvo type="min"/>
@@ -9219,7 +9371,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E15">
+  <conditionalFormatting sqref="K14:K15">
     <cfRule type="colorScale" priority="231">
       <colorScale>
         <cfvo type="min"/>
@@ -9231,7 +9383,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:F15">
+  <conditionalFormatting sqref="L14:L15">
     <cfRule type="colorScale" priority="230">
       <colorScale>
         <cfvo type="min"/>
@@ -9243,7 +9395,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G15">
+  <conditionalFormatting sqref="M14:M15">
     <cfRule type="colorScale" priority="229">
       <colorScale>
         <cfvo type="min"/>
@@ -9255,7 +9407,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14:H15">
+  <conditionalFormatting sqref="N14:N15">
     <cfRule type="colorScale" priority="228">
       <colorScale>
         <cfvo type="min"/>
@@ -9267,7 +9419,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14:I15">
+  <conditionalFormatting sqref="O14:O15">
     <cfRule type="colorScale" priority="227">
       <colorScale>
         <cfvo type="min"/>
@@ -9279,7 +9431,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J14:J15">
+  <conditionalFormatting sqref="P14:P15">
     <cfRule type="colorScale" priority="226">
       <colorScale>
         <cfvo type="min"/>
@@ -9291,7 +9443,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:K15">
+  <conditionalFormatting sqref="Q14:Q15">
     <cfRule type="colorScale" priority="225">
       <colorScale>
         <cfvo type="min"/>
@@ -9303,7 +9455,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14:L15">
+  <conditionalFormatting sqref="R14:R15">
     <cfRule type="colorScale" priority="224">
       <colorScale>
         <cfvo type="min"/>
@@ -9315,80 +9467,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14:M15">
-    <cfRule type="colorScale" priority="223">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N14:N15">
-    <cfRule type="colorScale" priority="222">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O14:O15">
-    <cfRule type="colorScale" priority="221">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P14:P15">
-    <cfRule type="colorScale" priority="220">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q14:Q15">
-    <cfRule type="colorScale" priority="219">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R14:R15">
-    <cfRule type="colorScale" priority="218">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="colorScale" priority="201">
+    <cfRule type="colorScale" priority="207">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9400,7 +9480,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="colorScale" priority="200">
+    <cfRule type="colorScale" priority="206">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9412,7 +9492,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="colorScale" priority="199">
+    <cfRule type="colorScale" priority="205">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9424,7 +9504,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16">
-    <cfRule type="colorScale" priority="198">
+    <cfRule type="colorScale" priority="204">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9436,7 +9516,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16">
-    <cfRule type="colorScale" priority="197">
+    <cfRule type="colorScale" priority="203">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9448,7 +9528,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="colorScale" priority="181">
+    <cfRule type="colorScale" priority="187">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9460,6 +9540,66 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
+    <cfRule type="colorScale" priority="186">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="colorScale" priority="185">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N17">
+    <cfRule type="colorScale" priority="184">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O17">
+    <cfRule type="colorScale" priority="183">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R17">
+    <cfRule type="colorScale" priority="182">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:D21">
     <cfRule type="colorScale" priority="180">
       <colorScale>
         <cfvo type="min"/>
@@ -9471,7 +9611,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
+  <conditionalFormatting sqref="E20:E21">
     <cfRule type="colorScale" priority="179">
       <colorScale>
         <cfvo type="min"/>
@@ -9483,7 +9623,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N17">
+  <conditionalFormatting sqref="F20:F21">
     <cfRule type="colorScale" priority="178">
       <colorScale>
         <cfvo type="min"/>
@@ -9495,7 +9635,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O17">
+  <conditionalFormatting sqref="G20:G21">
     <cfRule type="colorScale" priority="177">
       <colorScale>
         <cfvo type="min"/>
@@ -9507,7 +9647,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R17">
+  <conditionalFormatting sqref="H20:H21">
     <cfRule type="colorScale" priority="176">
       <colorScale>
         <cfvo type="min"/>
@@ -9519,7 +9659,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20:D21">
+  <conditionalFormatting sqref="I20:I21">
+    <cfRule type="colorScale" priority="175">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20:J21">
     <cfRule type="colorScale" priority="174">
       <colorScale>
         <cfvo type="min"/>
@@ -9531,7 +9683,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20:E21">
+  <conditionalFormatting sqref="K20:K21">
     <cfRule type="colorScale" priority="173">
       <colorScale>
         <cfvo type="min"/>
@@ -9543,7 +9695,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F21">
+  <conditionalFormatting sqref="L20:L21">
     <cfRule type="colorScale" priority="172">
       <colorScale>
         <cfvo type="min"/>
@@ -9555,7 +9707,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20:G21">
+  <conditionalFormatting sqref="M20:M21">
     <cfRule type="colorScale" priority="171">
       <colorScale>
         <cfvo type="min"/>
@@ -9567,7 +9719,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20:H21">
+  <conditionalFormatting sqref="N20:N21">
     <cfRule type="colorScale" priority="170">
       <colorScale>
         <cfvo type="min"/>
@@ -9579,7 +9731,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I21">
+  <conditionalFormatting sqref="O20:O23">
     <cfRule type="colorScale" priority="169">
       <colorScale>
         <cfvo type="min"/>
@@ -9591,7 +9743,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J20:J21">
+  <conditionalFormatting sqref="P20:P21">
     <cfRule type="colorScale" priority="168">
       <colorScale>
         <cfvo type="min"/>
@@ -9603,7 +9755,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20:K21">
+  <conditionalFormatting sqref="Q20:Q21">
     <cfRule type="colorScale" priority="167">
       <colorScale>
         <cfvo type="min"/>
@@ -9615,7 +9767,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L20:L21">
+  <conditionalFormatting sqref="R20:R21">
     <cfRule type="colorScale" priority="166">
       <colorScale>
         <cfvo type="min"/>
@@ -9627,80 +9779,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M20:M21">
-    <cfRule type="colorScale" priority="165">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N20:N21">
-    <cfRule type="colorScale" priority="164">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O20:O23">
-    <cfRule type="colorScale" priority="163">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P20:P21">
-    <cfRule type="colorScale" priority="162">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q20:Q21">
-    <cfRule type="colorScale" priority="161">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R20:R21">
-    <cfRule type="colorScale" priority="160">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E22:E23">
-    <cfRule type="colorScale" priority="144">
+    <cfRule type="colorScale" priority="150">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9712,7 +9792,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:H23">
-    <cfRule type="colorScale" priority="143">
+    <cfRule type="colorScale" priority="149">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9724,7 +9804,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22:N23">
-    <cfRule type="colorScale" priority="142">
+    <cfRule type="colorScale" priority="148">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9736,7 +9816,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R22:R23">
-    <cfRule type="colorScale" priority="140">
+    <cfRule type="colorScale" priority="146">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9748,6 +9828,66 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
+    <cfRule type="colorScale" priority="130">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:D27">
+    <cfRule type="colorScale" priority="128">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:E27">
+    <cfRule type="colorScale" priority="127">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26:F27">
+    <cfRule type="colorScale" priority="126">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26:G27">
+    <cfRule type="colorScale" priority="125">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26:H27">
     <cfRule type="colorScale" priority="124">
       <colorScale>
         <cfvo type="min"/>
@@ -9759,7 +9899,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D27">
+  <conditionalFormatting sqref="I26:I27">
+    <cfRule type="colorScale" priority="123">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26:J27">
     <cfRule type="colorScale" priority="122">
       <colorScale>
         <cfvo type="min"/>
@@ -9771,7 +9923,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E27">
+  <conditionalFormatting sqref="K26:K27">
     <cfRule type="colorScale" priority="121">
       <colorScale>
         <cfvo type="min"/>
@@ -9783,7 +9935,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26:F27">
+  <conditionalFormatting sqref="L26:L27">
     <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="min"/>
@@ -9795,7 +9947,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26:G27">
+  <conditionalFormatting sqref="M26:M27">
     <cfRule type="colorScale" priority="119">
       <colorScale>
         <cfvo type="min"/>
@@ -9807,7 +9959,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26:H27">
+  <conditionalFormatting sqref="N26:N27">
     <cfRule type="colorScale" priority="118">
       <colorScale>
         <cfvo type="min"/>
@@ -9819,7 +9971,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26:I27">
+  <conditionalFormatting sqref="O26:O27">
     <cfRule type="colorScale" priority="117">
       <colorScale>
         <cfvo type="min"/>
@@ -9831,7 +9983,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26:J27">
+  <conditionalFormatting sqref="P26:P27">
     <cfRule type="colorScale" priority="116">
       <colorScale>
         <cfvo type="min"/>
@@ -9843,7 +9995,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:K27">
+  <conditionalFormatting sqref="Q26:Q27">
     <cfRule type="colorScale" priority="115">
       <colorScale>
         <cfvo type="min"/>
@@ -9855,7 +10007,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L26:L27">
+  <conditionalFormatting sqref="R26:R27">
     <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="min"/>
@@ -9867,80 +10019,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M26:M27">
-    <cfRule type="colorScale" priority="113">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N26:N27">
-    <cfRule type="colorScale" priority="112">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O26:O27">
-    <cfRule type="colorScale" priority="111">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P26:P27">
-    <cfRule type="colorScale" priority="110">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q26:Q27">
-    <cfRule type="colorScale" priority="109">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R26:R27">
-    <cfRule type="colorScale" priority="108">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E28:E29">
-    <cfRule type="colorScale" priority="92">
+    <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9952,7 +10032,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:H29">
-    <cfRule type="colorScale" priority="91">
+    <cfRule type="colorScale" priority="97">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9964,7 +10044,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R28:R29">
-    <cfRule type="colorScale" priority="90">
+    <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9976,7 +10056,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28:N29">
-    <cfRule type="colorScale" priority="89">
+    <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9988,7 +10068,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O28:O29">
-    <cfRule type="colorScale" priority="88">
+    <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10000,6 +10080,66 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L29">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R32:R33">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D33">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:E33">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:F33">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
@@ -10011,7 +10151,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L29">
+  <conditionalFormatting sqref="G32:G33">
     <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
@@ -10023,7 +10163,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R32:R33">
+  <conditionalFormatting sqref="H32:H33">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
@@ -10035,7 +10175,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32:D33">
+  <conditionalFormatting sqref="I32:I33">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32:J33">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
@@ -10047,7 +10199,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32:E33">
+  <conditionalFormatting sqref="K32:K33">
     <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
@@ -10059,7 +10211,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F33">
+  <conditionalFormatting sqref="L32:L33">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -10071,7 +10223,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32:G33">
+  <conditionalFormatting sqref="M32:M33">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
@@ -10083,7 +10235,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32:H33">
+  <conditionalFormatting sqref="N32:N33">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
@@ -10095,7 +10247,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:I33">
+  <conditionalFormatting sqref="O32:O33">
     <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
@@ -10107,7 +10259,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32:J33">
+  <conditionalFormatting sqref="P32:P33">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
@@ -10119,7 +10271,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K32:K33">
+  <conditionalFormatting sqref="Q32:Q33">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
@@ -10131,80 +10283,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L32:L33">
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M32:M33">
-    <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N32:N33">
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O32:O33">
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P32:P33">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q32:Q33">
-    <cfRule type="colorScale" priority="55">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="colorScale" priority="39">
+    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10216,7 +10296,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N34:N35">
-    <cfRule type="colorScale" priority="38">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10228,7 +10308,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O34:O35">
-    <cfRule type="colorScale" priority="37">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10240,7 +10320,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R34:R35">
-    <cfRule type="colorScale" priority="36">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10252,7 +10332,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="colorScale" priority="20">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10264,7 +10344,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="colorScale" priority="19">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10276,7 +10356,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10288,7 +10368,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10300,7 +10380,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35">
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10312,6 +10392,78 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:S11">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S32:S35">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S26:S29">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T2:T5">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T8:T11">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T14:T17">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T20:T23">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -10323,7 +10475,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S32:S35">
+  <conditionalFormatting sqref="T26:T29">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -10335,7 +10487,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S26:S29">
+  <conditionalFormatting sqref="T32:T35">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/migforecasting/clustering/AN-method output (only mundist).xlsx
+++ b/migforecasting/clustering/AN-method output (only mundist).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12255" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="33">
   <si>
     <t>clust</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>pred saldo + popsize</t>
+  </si>
+  <si>
+    <t>avg</t>
   </si>
 </sst>
 </file>
@@ -447,7 +450,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -584,6 +587,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1542,6 +1548,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2560,6 +2567,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4099,8 +4107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:R18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5701,6 +5709,73 @@
       <c r="AA30" s="15"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A31" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="52">
+        <f>AVERAGE(C25:C30)</f>
+        <v>0.13050881125927671</v>
+      </c>
+      <c r="D31" s="52">
+        <f t="shared" ref="D31:R31" si="7">AVERAGE(D25:D30)</f>
+        <v>-3.3594884196866993E-2</v>
+      </c>
+      <c r="E31" s="52">
+        <f t="shared" si="7"/>
+        <v>3.5143064018565817E-2</v>
+      </c>
+      <c r="F31" s="52">
+        <f t="shared" si="7"/>
+        <v>-3.5499050789590997E-4</v>
+      </c>
+      <c r="G31" s="52">
+        <f t="shared" si="7"/>
+        <v>4.8696598540065104E-2</v>
+      </c>
+      <c r="H31" s="52">
+        <f t="shared" si="7"/>
+        <v>0.10837281717997134</v>
+      </c>
+      <c r="I31" s="52">
+        <f t="shared" si="7"/>
+        <v>3.1613221550583548E-2</v>
+      </c>
+      <c r="J31" s="52">
+        <f t="shared" si="7"/>
+        <v>-8.139185127145461E-2</v>
+      </c>
+      <c r="K31" s="52">
+        <f t="shared" si="7"/>
+        <v>-2.208688542905372E-2</v>
+      </c>
+      <c r="L31" s="52">
+        <f t="shared" si="7"/>
+        <v>-1.3806987148756908E-2</v>
+      </c>
+      <c r="M31" s="52">
+        <f t="shared" si="7"/>
+        <v>-3.5218115892731085E-2</v>
+      </c>
+      <c r="N31" s="52">
+        <f t="shared" si="7"/>
+        <v>0.16711052990026221</v>
+      </c>
+      <c r="O31" s="52">
+        <f t="shared" si="7"/>
+        <v>0.14706803585360498</v>
+      </c>
+      <c r="P31" s="52">
+        <f t="shared" si="7"/>
+        <v>-0.10463262295720582</v>
+      </c>
+      <c r="Q31" s="52">
+        <f t="shared" si="7"/>
+        <v>-0.10425277483083284</v>
+      </c>
+      <c r="R31" s="52">
+        <f t="shared" si="7"/>
+        <v>0.17853857942672188</v>
+      </c>
       <c r="T31" s="15"/>
       <c r="U31" s="15"/>
       <c r="V31" s="15"/>
@@ -6955,7 +7030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>

--- a/migforecasting/clustering/AN-method output (only mundist).xlsx
+++ b/migforecasting/clustering/AN-method output (only mundist).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Анализ" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="35">
   <si>
     <t>clust</t>
   </si>
@@ -109,16 +109,22 @@
     <t>neg+pos</t>
   </si>
   <si>
-    <t>pred saldo</t>
-  </si>
-  <si>
     <t>neg+sf</t>
   </si>
   <si>
-    <t>pred saldo + popsize</t>
+    <t>avg</t>
   </si>
   <si>
-    <t>avg</t>
+    <t>pred saldo (dataset-24)</t>
+  </si>
+  <si>
+    <t>pred saldo (24-normbysoul)</t>
+  </si>
+  <si>
+    <t>(24-normbysoul)+popsize</t>
+  </si>
+  <si>
+    <t>pred saldo (24-balanced)</t>
   </si>
 </sst>
 </file>
@@ -193,7 +199,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,19 +583,19 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4107,7 +4113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -5710,69 +5716,69 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="52">
+        <v>30</v>
+      </c>
+      <c r="C31" s="50">
         <f>AVERAGE(C25:C30)</f>
         <v>0.13050881125927671</v>
       </c>
-      <c r="D31" s="52">
+      <c r="D31" s="50">
         <f t="shared" ref="D31:R31" si="7">AVERAGE(D25:D30)</f>
         <v>-3.3594884196866993E-2</v>
       </c>
-      <c r="E31" s="52">
+      <c r="E31" s="50">
         <f t="shared" si="7"/>
         <v>3.5143064018565817E-2</v>
       </c>
-      <c r="F31" s="52">
+      <c r="F31" s="50">
         <f t="shared" si="7"/>
         <v>-3.5499050789590997E-4</v>
       </c>
-      <c r="G31" s="52">
+      <c r="G31" s="50">
         <f t="shared" si="7"/>
         <v>4.8696598540065104E-2</v>
       </c>
-      <c r="H31" s="52">
+      <c r="H31" s="50">
         <f t="shared" si="7"/>
         <v>0.10837281717997134</v>
       </c>
-      <c r="I31" s="52">
+      <c r="I31" s="50">
         <f t="shared" si="7"/>
         <v>3.1613221550583548E-2</v>
       </c>
-      <c r="J31" s="52">
+      <c r="J31" s="50">
         <f t="shared" si="7"/>
         <v>-8.139185127145461E-2</v>
       </c>
-      <c r="K31" s="52">
+      <c r="K31" s="50">
         <f t="shared" si="7"/>
         <v>-2.208688542905372E-2</v>
       </c>
-      <c r="L31" s="52">
+      <c r="L31" s="50">
         <f t="shared" si="7"/>
         <v>-1.3806987148756908E-2</v>
       </c>
-      <c r="M31" s="52">
+      <c r="M31" s="50">
         <f t="shared" si="7"/>
         <v>-3.5218115892731085E-2</v>
       </c>
-      <c r="N31" s="52">
+      <c r="N31" s="50">
         <f t="shared" si="7"/>
         <v>0.16711052990026221</v>
       </c>
-      <c r="O31" s="52">
+      <c r="O31" s="50">
         <f t="shared" si="7"/>
         <v>0.14706803585360498</v>
       </c>
-      <c r="P31" s="52">
+      <c r="P31" s="50">
         <f t="shared" si="7"/>
         <v>-0.10463262295720582</v>
       </c>
-      <c r="Q31" s="52">
+      <c r="Q31" s="50">
         <f t="shared" si="7"/>
         <v>-0.10425277483083284</v>
       </c>
-      <c r="R31" s="52">
+      <c r="R31" s="50">
         <f t="shared" si="7"/>
         <v>0.17853857942672188</v>
       </c>
@@ -7028,10 +7034,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7051,13 +7057,13 @@
     <col min="16" max="16" width="14.28515625" customWidth="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
     <col min="18" max="18" width="15.85546875" customWidth="1"/>
-    <col min="19" max="19" width="11" customWidth="1"/>
-    <col min="20" max="20" width="18.5703125" customWidth="1"/>
-    <col min="21" max="21" width="19.28515625" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" customWidth="1"/>
+    <col min="19" max="19" width="26.7109375" customWidth="1"/>
+    <col min="20" max="20" width="25" customWidth="1"/>
+    <col min="21" max="21" width="22.140625" customWidth="1"/>
+    <col min="22" max="22" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -7113,13 +7119,19 @@
         <v>17</v>
       </c>
       <c r="S1" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="T1" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="48" t="s">
         <v>31</v>
       </c>
+      <c r="V1" s="48" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -7174,14 +7186,17 @@
       <c r="R2" s="44">
         <v>75.817080209307306</v>
       </c>
-      <c r="S2" s="50">
+      <c r="S2" s="51">
         <v>-62.559999999999967</v>
       </c>
-      <c r="T2" s="51">
+      <c r="T2" s="49">
         <v>-79.189999999999955</v>
       </c>
+      <c r="U2" s="2">
+        <v>-34.569999999999993</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -7236,19 +7251,22 @@
       <c r="R3" s="44">
         <v>63.455594640242197</v>
       </c>
-      <c r="S3" s="50">
+      <c r="S3" s="51">
         <v>-53.989999999999988</v>
       </c>
-      <c r="T3" s="51">
+      <c r="T3" s="49">
         <v>-95.529999999999973</v>
       </c>
+      <c r="U3" s="2">
+        <v>-93.349999999999966</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="43">
         <v>12193.522811343901</v>
@@ -7298,14 +7316,17 @@
       <c r="R4" s="44">
         <v>75.817080209307306</v>
       </c>
-      <c r="S4" s="50">
+      <c r="S4" s="51">
         <v>-56.77999999999998</v>
       </c>
-      <c r="T4" s="51">
+      <c r="T4" s="49">
         <v>-84.299999999999969</v>
       </c>
+      <c r="U4" s="2">
+        <v>-71.819999999999965</v>
+      </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -7360,17 +7381,21 @@
       <c r="R5" s="44">
         <v>75.817080209307306</v>
       </c>
-      <c r="S5" s="50">
+      <c r="S5" s="51">
         <v>-65.919999999999973</v>
       </c>
-      <c r="T5" s="51">
+      <c r="T5" s="49">
         <v>-76.569999999999993</v>
       </c>
+      <c r="U5" s="2">
+        <v>-65.259999999999991</v>
+      </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="S6" s="51"/>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S6" s="49"/>
+      <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
       <c r="E7" s="37"/>
@@ -7387,9 +7412,10 @@
       <c r="P7" s="37"/>
       <c r="Q7" s="37"/>
       <c r="R7" s="37"/>
-      <c r="S7" s="51"/>
+      <c r="S7" s="49"/>
+      <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -7444,14 +7470,17 @@
       <c r="R8" s="44">
         <v>118.263281060987</v>
       </c>
-      <c r="S8" s="51">
+      <c r="S8" s="49">
         <v>-99.51</v>
       </c>
-      <c r="T8" s="51">
+      <c r="T8" s="49">
         <v>-94.350000000000023</v>
       </c>
+      <c r="U8" s="2">
+        <v>-50.12</v>
+      </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -7506,19 +7535,22 @@
       <c r="R9" s="44">
         <v>93.969954189535301</v>
       </c>
-      <c r="S9" s="51">
+      <c r="S9" s="49">
         <v>-131.99</v>
       </c>
-      <c r="T9" s="51">
+      <c r="T9" s="49">
         <v>-181.42</v>
       </c>
+      <c r="U9" s="2">
+        <v>-142.03</v>
+      </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="43">
         <v>28360.273972602699</v>
@@ -7568,14 +7600,17 @@
       <c r="R10" s="44">
         <v>118.263281060987</v>
       </c>
-      <c r="S10" s="51">
+      <c r="S10" s="49">
         <v>-126.19</v>
       </c>
-      <c r="T10" s="51">
+      <c r="T10" s="49">
         <v>-118.52</v>
       </c>
+      <c r="U10" s="2">
+        <v>-111.22</v>
+      </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -7630,20 +7665,25 @@
       <c r="R11" s="44">
         <v>118.263281060987</v>
       </c>
-      <c r="S11" s="51">
+      <c r="S11" s="49">
         <v>-101.26</v>
       </c>
-      <c r="T11" s="51">
+      <c r="T11" s="49">
         <v>-106.18</v>
       </c>
+      <c r="U11" s="2">
+        <v>-108.98</v>
+      </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="S12" s="51"/>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S12" s="49"/>
+      <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="S13" s="51"/>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S13" s="49"/>
+      <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2</v>
       </c>
@@ -7698,14 +7738,17 @@
       <c r="R14" s="44">
         <v>83.250391101316396</v>
       </c>
-      <c r="S14" s="50">
+      <c r="S14" s="51">
         <v>-206.67999999999989</v>
       </c>
-      <c r="T14" s="51">
+      <c r="T14" s="49">
         <v>-153.0499999999999</v>
       </c>
+      <c r="U14" s="52">
+        <v>-168.05</v>
+      </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2</v>
       </c>
@@ -7760,19 +7803,22 @@
       <c r="R15" s="44">
         <v>70.544639399978806</v>
       </c>
-      <c r="S15" s="50">
+      <c r="S15" s="51">
         <v>-161.32</v>
       </c>
-      <c r="T15" s="51">
+      <c r="T15" s="49">
         <v>-160.75</v>
       </c>
+      <c r="U15" s="52">
+        <v>-124.14</v>
+      </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="43">
         <v>32050.647371216099</v>
@@ -7822,14 +7868,17 @@
       <c r="R16" s="44">
         <v>83.250391101316396</v>
       </c>
-      <c r="S16" s="50">
+      <c r="S16" s="51">
         <v>-190</v>
       </c>
-      <c r="T16" s="51">
+      <c r="T16" s="49">
         <v>-138.36000000000001</v>
       </c>
+      <c r="U16" s="2">
+        <v>-112.38</v>
+      </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2</v>
       </c>
@@ -7884,20 +7933,25 @@
       <c r="R17" s="44">
         <v>83.250391101316396</v>
       </c>
-      <c r="S17" s="50">
+      <c r="S17" s="51">
         <v>-186.16</v>
       </c>
-      <c r="T17" s="51">
+      <c r="T17" s="49">
         <v>-140.6</v>
       </c>
+      <c r="U17" s="2">
+        <v>-105.42</v>
+      </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="S18" s="51"/>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S18" s="49"/>
+      <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="S19" s="51"/>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S19" s="49"/>
+      <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>3</v>
       </c>
@@ -7952,14 +8006,17 @@
       <c r="R20" s="44">
         <v>155.613070376834</v>
       </c>
-      <c r="S20" s="50">
+      <c r="S20" s="51">
         <v>-122.37</v>
       </c>
-      <c r="T20" s="51">
+      <c r="T20" s="49">
         <v>-113.55</v>
       </c>
+      <c r="U20" s="52">
+        <v>-142.30000000000001</v>
+      </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>3</v>
       </c>
@@ -8014,19 +8071,22 @@
       <c r="R21" s="44">
         <v>133.34616169633699</v>
       </c>
-      <c r="S21" s="50">
+      <c r="S21" s="51">
         <v>-119.82</v>
       </c>
-      <c r="T21" s="51">
+      <c r="T21" s="49">
         <v>-117.28</v>
       </c>
+      <c r="U21" s="52">
+        <v>-116.92</v>
+      </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>3</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="43">
         <v>28372.8272921108</v>
@@ -8076,14 +8136,17 @@
       <c r="R22" s="44">
         <v>155.613070376834</v>
       </c>
-      <c r="S22" s="50">
+      <c r="S22" s="51">
         <v>-120.83</v>
       </c>
-      <c r="T22" s="51">
+      <c r="T22" s="49">
         <v>-85.64</v>
       </c>
+      <c r="U22" s="2">
+        <v>-91.620000000000019</v>
+      </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>3</v>
       </c>
@@ -8138,20 +8201,25 @@
       <c r="R23" s="44">
         <v>155.613070376834</v>
       </c>
-      <c r="S23" s="50">
+      <c r="S23" s="51">
         <v>-120.74</v>
       </c>
-      <c r="T23" s="51">
+      <c r="T23" s="49">
         <v>-88.47999999999999</v>
       </c>
+      <c r="U23" s="2">
+        <v>-92.730000000000018</v>
+      </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="S24" s="51"/>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S24" s="49"/>
+      <c r="U24" s="2"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="S25" s="51"/>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S25" s="49"/>
+      <c r="U25" s="2"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>4</v>
       </c>
@@ -8206,14 +8274,17 @@
       <c r="R26" s="44">
         <v>73.125417192873499</v>
       </c>
-      <c r="S26" s="51">
+      <c r="S26" s="49">
         <v>-142.04</v>
       </c>
-      <c r="T26" s="51">
+      <c r="T26" s="49">
         <v>-120.52</v>
       </c>
+      <c r="U26" s="2">
+        <v>-94.879999999999953</v>
+      </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>4</v>
       </c>
@@ -8268,19 +8339,22 @@
       <c r="R27" s="44">
         <v>58.533095319716999</v>
       </c>
-      <c r="S27" s="51">
+      <c r="S27" s="49">
         <v>-153.9199999999999</v>
       </c>
-      <c r="T27" s="51">
+      <c r="T27" s="49">
         <v>-126.2</v>
       </c>
+      <c r="U27" s="2">
+        <v>-103.7</v>
+      </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>4</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" s="43">
         <v>17671.669720101701</v>
@@ -8330,14 +8404,17 @@
       <c r="R28" s="44">
         <v>73.125417192873499</v>
       </c>
-      <c r="S28" s="51">
+      <c r="S28" s="49">
         <v>-145.21</v>
       </c>
-      <c r="T28" s="51">
+      <c r="T28" s="49">
         <v>-122.17</v>
       </c>
+      <c r="U28" s="52">
+        <v>-105.05</v>
+      </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>4</v>
       </c>
@@ -8392,20 +8469,25 @@
       <c r="R29" s="44">
         <v>73.125417192873499</v>
       </c>
-      <c r="S29" s="51">
+      <c r="S29" s="49">
         <v>-156.91</v>
       </c>
-      <c r="T29" s="51">
+      <c r="T29" s="49">
         <v>-118.21</v>
       </c>
+      <c r="U29" s="52">
+        <v>-104.18</v>
+      </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="S30" s="51"/>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S30" s="49"/>
+      <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="S31" s="51"/>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S31" s="49"/>
+      <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>5</v>
       </c>
@@ -8460,14 +8542,17 @@
       <c r="R32" s="44">
         <v>351.86731958595101</v>
       </c>
-      <c r="S32" s="51">
+      <c r="S32" s="49">
         <v>-105.14</v>
       </c>
-      <c r="T32" s="51">
+      <c r="T32" s="49">
         <v>-59.569999999999958</v>
       </c>
+      <c r="U32" s="2">
+        <v>-88.140000000000015</v>
+      </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>5</v>
       </c>
@@ -8522,19 +8607,22 @@
       <c r="R33" s="44">
         <v>344.45856439656802</v>
       </c>
-      <c r="S33" s="51">
+      <c r="S33" s="49">
         <v>-153.07</v>
       </c>
-      <c r="T33" s="51">
+      <c r="T33" s="49">
         <v>-181.83999999999989</v>
       </c>
+      <c r="U33" s="2">
+        <v>-190.63000000000011</v>
+      </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>5</v>
       </c>
       <c r="B34" s="45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" s="43">
         <v>37666.082043343602</v>
@@ -8584,14 +8672,17 @@
       <c r="R34" s="44">
         <v>351.86731958595101</v>
       </c>
-      <c r="S34" s="51">
+      <c r="S34" s="49">
         <v>-122.7699999999999</v>
       </c>
-      <c r="T34" s="51">
+      <c r="T34" s="49">
         <v>-112.07</v>
       </c>
+      <c r="U34" s="2">
+        <v>-127.17</v>
+      </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>5</v>
       </c>
@@ -8646,15 +8737,90 @@
       <c r="R35" s="44">
         <v>351.86731958595101</v>
       </c>
-      <c r="S35" s="51">
+      <c r="S35" s="49">
         <v>-102.32</v>
       </c>
-      <c r="T35" s="51">
+      <c r="T35" s="49">
         <v>-92.949999999999932</v>
+      </c>
+      <c r="U35" s="2">
+        <v>-127.41</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D3">
+    <cfRule type="colorScale" priority="369">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="colorScale" priority="368">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F3">
+    <cfRule type="colorScale" priority="367">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G3">
+    <cfRule type="colorScale" priority="366">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H3">
+    <cfRule type="colorScale" priority="365">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I3">
+    <cfRule type="colorScale" priority="364">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J3">
     <cfRule type="colorScale" priority="363">
       <colorScale>
         <cfvo type="min"/>
@@ -8666,7 +8832,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="K2:K3">
     <cfRule type="colorScale" priority="362">
       <colorScale>
         <cfvo type="min"/>
@@ -8678,7 +8844,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F3">
+  <conditionalFormatting sqref="L2:L3">
     <cfRule type="colorScale" priority="361">
       <colorScale>
         <cfvo type="min"/>
@@ -8690,7 +8856,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G3">
+  <conditionalFormatting sqref="M2:M3">
     <cfRule type="colorScale" priority="360">
       <colorScale>
         <cfvo type="min"/>
@@ -8702,7 +8868,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H3">
+  <conditionalFormatting sqref="N2:N3">
     <cfRule type="colorScale" priority="359">
       <colorScale>
         <cfvo type="min"/>
@@ -8714,7 +8880,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I3">
+  <conditionalFormatting sqref="O2:O3">
     <cfRule type="colorScale" priority="358">
       <colorScale>
         <cfvo type="min"/>
@@ -8726,7 +8892,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J3">
+  <conditionalFormatting sqref="P2:P3">
     <cfRule type="colorScale" priority="357">
       <colorScale>
         <cfvo type="min"/>
@@ -8738,7 +8904,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K3">
+  <conditionalFormatting sqref="Q2:Q3">
     <cfRule type="colorScale" priority="356">
       <colorScale>
         <cfvo type="min"/>
@@ -8750,7 +8916,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L3">
+  <conditionalFormatting sqref="R2:R3">
     <cfRule type="colorScale" priority="355">
       <colorScale>
         <cfvo type="min"/>
@@ -8762,79 +8928,79 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M3">
-    <cfRule type="colorScale" priority="354">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N3">
-    <cfRule type="colorScale" priority="353">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O3">
-    <cfRule type="colorScale" priority="352">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P3">
-    <cfRule type="colorScale" priority="351">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q3">
-    <cfRule type="colorScale" priority="350">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R3">
-    <cfRule type="colorScale" priority="349">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E5">
+    <cfRule type="colorScale" priority="338">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="colorScale" priority="337">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="colorScale" priority="336">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="colorScale" priority="335">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="colorScale" priority="334">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5">
+    <cfRule type="colorScale" priority="333">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
     <cfRule type="colorScale" priority="332">
       <colorScale>
         <cfvo type="min"/>
@@ -8846,7 +9012,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="N5">
     <cfRule type="colorScale" priority="331">
       <colorScale>
         <cfvo type="min"/>
@@ -8858,7 +9024,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
+  <conditionalFormatting sqref="O5">
     <cfRule type="colorScale" priority="330">
       <colorScale>
         <cfvo type="min"/>
@@ -8870,7 +9036,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
+  <conditionalFormatting sqref="R5">
     <cfRule type="colorScale" priority="329">
       <colorScale>
         <cfvo type="min"/>
@@ -8882,79 +9048,67 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="colorScale" priority="328">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="colorScale" priority="327">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="colorScale" priority="326">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="colorScale" priority="325">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="colorScale" priority="324">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5">
-    <cfRule type="colorScale" priority="323">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E4">
+    <cfRule type="colorScale" priority="313">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="colorScale" priority="312">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4">
+    <cfRule type="colorScale" priority="311">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4">
+    <cfRule type="colorScale" priority="310">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R4">
+    <cfRule type="colorScale" priority="309">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D9">
     <cfRule type="colorScale" priority="307">
       <colorScale>
         <cfvo type="min"/>
@@ -8966,7 +9120,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
+  <conditionalFormatting sqref="E8:E9">
     <cfRule type="colorScale" priority="306">
       <colorScale>
         <cfvo type="min"/>
@@ -8978,7 +9132,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N4">
+  <conditionalFormatting sqref="F8:F9">
     <cfRule type="colorScale" priority="305">
       <colorScale>
         <cfvo type="min"/>
@@ -8990,7 +9144,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4">
+  <conditionalFormatting sqref="G8:G9">
     <cfRule type="colorScale" priority="304">
       <colorScale>
         <cfvo type="min"/>
@@ -9002,7 +9156,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R4">
+  <conditionalFormatting sqref="H8:H9">
     <cfRule type="colorScale" priority="303">
       <colorScale>
         <cfvo type="min"/>
@@ -9014,7 +9168,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D9">
+  <conditionalFormatting sqref="I8:I9">
+    <cfRule type="colorScale" priority="302">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8:J9">
     <cfRule type="colorScale" priority="301">
       <colorScale>
         <cfvo type="min"/>
@@ -9026,7 +9192,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E9">
+  <conditionalFormatting sqref="K8:K9">
     <cfRule type="colorScale" priority="300">
       <colorScale>
         <cfvo type="min"/>
@@ -9038,7 +9204,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F9">
+  <conditionalFormatting sqref="L8:L9">
     <cfRule type="colorScale" priority="299">
       <colorScale>
         <cfvo type="min"/>
@@ -9050,7 +9216,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G9">
+  <conditionalFormatting sqref="M8:M9">
     <cfRule type="colorScale" priority="298">
       <colorScale>
         <cfvo type="min"/>
@@ -9062,7 +9228,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H9">
+  <conditionalFormatting sqref="N8:N9">
     <cfRule type="colorScale" priority="297">
       <colorScale>
         <cfvo type="min"/>
@@ -9074,7 +9240,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I9">
+  <conditionalFormatting sqref="O8:O9">
     <cfRule type="colorScale" priority="296">
       <colorScale>
         <cfvo type="min"/>
@@ -9086,7 +9252,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8:J9">
+  <conditionalFormatting sqref="P8:P9">
     <cfRule type="colorScale" priority="295">
       <colorScale>
         <cfvo type="min"/>
@@ -9098,7 +9264,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K9">
+  <conditionalFormatting sqref="Q8:Q9">
     <cfRule type="colorScale" priority="294">
       <colorScale>
         <cfvo type="min"/>
@@ -9110,7 +9276,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8:L9">
+  <conditionalFormatting sqref="R8:R9">
     <cfRule type="colorScale" priority="293">
       <colorScale>
         <cfvo type="min"/>
@@ -9122,80 +9288,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8:M9">
-    <cfRule type="colorScale" priority="292">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N8:N9">
-    <cfRule type="colorScale" priority="291">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O8:O9">
-    <cfRule type="colorScale" priority="290">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P8:P9">
-    <cfRule type="colorScale" priority="289">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q8:Q9">
-    <cfRule type="colorScale" priority="288">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R8:R9">
-    <cfRule type="colorScale" priority="287">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="colorScale" priority="270">
+    <cfRule type="colorScale" priority="276">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9207,7 +9301,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="colorScale" priority="269">
+    <cfRule type="colorScale" priority="275">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9219,7 +9313,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="colorScale" priority="268">
+    <cfRule type="colorScale" priority="274">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9231,7 +9325,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="colorScale" priority="267">
+    <cfRule type="colorScale" priority="273">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9243,7 +9337,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10">
-    <cfRule type="colorScale" priority="266">
+    <cfRule type="colorScale" priority="272">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9255,6 +9349,78 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
+    <cfRule type="colorScale" priority="254">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="colorScale" priority="253">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="colorScale" priority="252">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="colorScale" priority="251">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="colorScale" priority="250">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="colorScale" priority="249">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11">
     <cfRule type="colorScale" priority="248">
       <colorScale>
         <cfvo type="min"/>
@@ -9266,7 +9432,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
+  <conditionalFormatting sqref="O11">
     <cfRule type="colorScale" priority="247">
       <colorScale>
         <cfvo type="min"/>
@@ -9278,7 +9444,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11">
+  <conditionalFormatting sqref="R11">
     <cfRule type="colorScale" priority="246">
       <colorScale>
         <cfvo type="min"/>
@@ -9290,19 +9456,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="colorScale" priority="245">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
+  <conditionalFormatting sqref="D14:D15">
     <cfRule type="colorScale" priority="244">
       <colorScale>
         <cfvo type="min"/>
@@ -9314,7 +9468,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
+  <conditionalFormatting sqref="E14:E15">
     <cfRule type="colorScale" priority="243">
       <colorScale>
         <cfvo type="min"/>
@@ -9326,7 +9480,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N11">
+  <conditionalFormatting sqref="F14:F15">
     <cfRule type="colorScale" priority="242">
       <colorScale>
         <cfvo type="min"/>
@@ -9338,7 +9492,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O11">
+  <conditionalFormatting sqref="G14:G15">
     <cfRule type="colorScale" priority="241">
       <colorScale>
         <cfvo type="min"/>
@@ -9350,7 +9504,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R11">
+  <conditionalFormatting sqref="H14:H15">
     <cfRule type="colorScale" priority="240">
       <colorScale>
         <cfvo type="min"/>
@@ -9362,7 +9516,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D15">
+  <conditionalFormatting sqref="I14:I15">
+    <cfRule type="colorScale" priority="239">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14:J15">
     <cfRule type="colorScale" priority="238">
       <colorScale>
         <cfvo type="min"/>
@@ -9374,7 +9540,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E15">
+  <conditionalFormatting sqref="K14:K15">
     <cfRule type="colorScale" priority="237">
       <colorScale>
         <cfvo type="min"/>
@@ -9386,7 +9552,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:F15">
+  <conditionalFormatting sqref="L14:L15">
     <cfRule type="colorScale" priority="236">
       <colorScale>
         <cfvo type="min"/>
@@ -9398,7 +9564,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G15">
+  <conditionalFormatting sqref="M14:M15">
     <cfRule type="colorScale" priority="235">
       <colorScale>
         <cfvo type="min"/>
@@ -9410,7 +9576,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14:H15">
+  <conditionalFormatting sqref="N14:N15">
     <cfRule type="colorScale" priority="234">
       <colorScale>
         <cfvo type="min"/>
@@ -9422,7 +9588,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14:I15">
+  <conditionalFormatting sqref="O14:O15">
     <cfRule type="colorScale" priority="233">
       <colorScale>
         <cfvo type="min"/>
@@ -9434,7 +9600,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J14:J15">
+  <conditionalFormatting sqref="P14:P15">
     <cfRule type="colorScale" priority="232">
       <colorScale>
         <cfvo type="min"/>
@@ -9446,7 +9612,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:K15">
+  <conditionalFormatting sqref="Q14:Q15">
     <cfRule type="colorScale" priority="231">
       <colorScale>
         <cfvo type="min"/>
@@ -9458,7 +9624,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14:L15">
+  <conditionalFormatting sqref="R14:R15">
     <cfRule type="colorScale" priority="230">
       <colorScale>
         <cfvo type="min"/>
@@ -9470,80 +9636,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14:M15">
-    <cfRule type="colorScale" priority="229">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N14:N15">
-    <cfRule type="colorScale" priority="228">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O14:O15">
-    <cfRule type="colorScale" priority="227">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P14:P15">
-    <cfRule type="colorScale" priority="226">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q14:Q15">
-    <cfRule type="colorScale" priority="225">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R14:R15">
-    <cfRule type="colorScale" priority="224">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="colorScale" priority="207">
+    <cfRule type="colorScale" priority="213">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9555,7 +9649,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="colorScale" priority="206">
+    <cfRule type="colorScale" priority="212">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9567,7 +9661,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="colorScale" priority="205">
+    <cfRule type="colorScale" priority="211">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9579,7 +9673,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16">
-    <cfRule type="colorScale" priority="204">
+    <cfRule type="colorScale" priority="210">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9591,7 +9685,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16">
-    <cfRule type="colorScale" priority="203">
+    <cfRule type="colorScale" priority="209">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9603,7 +9697,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="colorScale" priority="187">
+    <cfRule type="colorScale" priority="193">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9615,6 +9709,66 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
+    <cfRule type="colorScale" priority="192">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="colorScale" priority="191">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N17">
+    <cfRule type="colorScale" priority="190">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O17">
+    <cfRule type="colorScale" priority="189">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R17">
+    <cfRule type="colorScale" priority="188">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:D21">
     <cfRule type="colorScale" priority="186">
       <colorScale>
         <cfvo type="min"/>
@@ -9626,7 +9780,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
+  <conditionalFormatting sqref="E20:E21">
     <cfRule type="colorScale" priority="185">
       <colorScale>
         <cfvo type="min"/>
@@ -9638,7 +9792,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N17">
+  <conditionalFormatting sqref="F20:F21">
     <cfRule type="colorScale" priority="184">
       <colorScale>
         <cfvo type="min"/>
@@ -9650,7 +9804,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O17">
+  <conditionalFormatting sqref="G20:G21">
     <cfRule type="colorScale" priority="183">
       <colorScale>
         <cfvo type="min"/>
@@ -9662,7 +9816,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R17">
+  <conditionalFormatting sqref="H20:H21">
     <cfRule type="colorScale" priority="182">
       <colorScale>
         <cfvo type="min"/>
@@ -9674,7 +9828,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20:D21">
+  <conditionalFormatting sqref="I20:I21">
+    <cfRule type="colorScale" priority="181">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20:J21">
     <cfRule type="colorScale" priority="180">
       <colorScale>
         <cfvo type="min"/>
@@ -9686,7 +9852,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20:E21">
+  <conditionalFormatting sqref="K20:K21">
     <cfRule type="colorScale" priority="179">
       <colorScale>
         <cfvo type="min"/>
@@ -9698,7 +9864,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F21">
+  <conditionalFormatting sqref="L20:L21">
     <cfRule type="colorScale" priority="178">
       <colorScale>
         <cfvo type="min"/>
@@ -9710,7 +9876,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20:G21">
+  <conditionalFormatting sqref="M20:M21">
     <cfRule type="colorScale" priority="177">
       <colorScale>
         <cfvo type="min"/>
@@ -9722,7 +9888,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20:H21">
+  <conditionalFormatting sqref="N20:N21">
     <cfRule type="colorScale" priority="176">
       <colorScale>
         <cfvo type="min"/>
@@ -9734,7 +9900,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I21">
+  <conditionalFormatting sqref="O20:O23">
     <cfRule type="colorScale" priority="175">
       <colorScale>
         <cfvo type="min"/>
@@ -9746,7 +9912,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J20:J21">
+  <conditionalFormatting sqref="P20:P21">
     <cfRule type="colorScale" priority="174">
       <colorScale>
         <cfvo type="min"/>
@@ -9758,7 +9924,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20:K21">
+  <conditionalFormatting sqref="Q20:Q21">
     <cfRule type="colorScale" priority="173">
       <colorScale>
         <cfvo type="min"/>
@@ -9770,7 +9936,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L20:L21">
+  <conditionalFormatting sqref="R20:R21">
     <cfRule type="colorScale" priority="172">
       <colorScale>
         <cfvo type="min"/>
@@ -9782,80 +9948,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M20:M21">
-    <cfRule type="colorScale" priority="171">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N20:N21">
-    <cfRule type="colorScale" priority="170">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O20:O23">
-    <cfRule type="colorScale" priority="169">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P20:P21">
-    <cfRule type="colorScale" priority="168">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q20:Q21">
-    <cfRule type="colorScale" priority="167">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R20:R21">
-    <cfRule type="colorScale" priority="166">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E22:E23">
-    <cfRule type="colorScale" priority="150">
+    <cfRule type="colorScale" priority="156">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9867,7 +9961,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:H23">
-    <cfRule type="colorScale" priority="149">
+    <cfRule type="colorScale" priority="155">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9879,7 +9973,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22:N23">
-    <cfRule type="colorScale" priority="148">
+    <cfRule type="colorScale" priority="154">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9891,7 +9985,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R22:R23">
-    <cfRule type="colorScale" priority="146">
+    <cfRule type="colorScale" priority="152">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9903,6 +9997,66 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
+    <cfRule type="colorScale" priority="136">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:D27">
+    <cfRule type="colorScale" priority="134">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:E27">
+    <cfRule type="colorScale" priority="133">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26:F27">
+    <cfRule type="colorScale" priority="132">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26:G27">
+    <cfRule type="colorScale" priority="131">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26:H27">
     <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="min"/>
@@ -9914,7 +10068,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D27">
+  <conditionalFormatting sqref="I26:I27">
+    <cfRule type="colorScale" priority="129">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26:J27">
     <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="min"/>
@@ -9926,7 +10092,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E27">
+  <conditionalFormatting sqref="K26:K27">
     <cfRule type="colorScale" priority="127">
       <colorScale>
         <cfvo type="min"/>
@@ -9938,7 +10104,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26:F27">
+  <conditionalFormatting sqref="L26:L27">
     <cfRule type="colorScale" priority="126">
       <colorScale>
         <cfvo type="min"/>
@@ -9950,7 +10116,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26:G27">
+  <conditionalFormatting sqref="M26:M27">
     <cfRule type="colorScale" priority="125">
       <colorScale>
         <cfvo type="min"/>
@@ -9962,7 +10128,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26:H27">
+  <conditionalFormatting sqref="N26:N27">
     <cfRule type="colorScale" priority="124">
       <colorScale>
         <cfvo type="min"/>
@@ -9974,7 +10140,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26:I27">
+  <conditionalFormatting sqref="O26:O27">
     <cfRule type="colorScale" priority="123">
       <colorScale>
         <cfvo type="min"/>
@@ -9986,7 +10152,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26:J27">
+  <conditionalFormatting sqref="P26:P27">
     <cfRule type="colorScale" priority="122">
       <colorScale>
         <cfvo type="min"/>
@@ -9998,7 +10164,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:K27">
+  <conditionalFormatting sqref="Q26:Q27">
     <cfRule type="colorScale" priority="121">
       <colorScale>
         <cfvo type="min"/>
@@ -10010,7 +10176,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L26:L27">
+  <conditionalFormatting sqref="R26:R27">
     <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="min"/>
@@ -10022,80 +10188,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M26:M27">
-    <cfRule type="colorScale" priority="119">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N26:N27">
-    <cfRule type="colorScale" priority="118">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O26:O27">
-    <cfRule type="colorScale" priority="117">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P26:P27">
-    <cfRule type="colorScale" priority="116">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q26:Q27">
-    <cfRule type="colorScale" priority="115">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R26:R27">
-    <cfRule type="colorScale" priority="114">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E28:E29">
-    <cfRule type="colorScale" priority="98">
+    <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10107,7 +10201,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:H29">
-    <cfRule type="colorScale" priority="97">
+    <cfRule type="colorScale" priority="103">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10119,7 +10213,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R28:R29">
-    <cfRule type="colorScale" priority="96">
+    <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10131,7 +10225,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28:N29">
-    <cfRule type="colorScale" priority="95">
+    <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10143,7 +10237,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O28:O29">
-    <cfRule type="colorScale" priority="94">
+    <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10155,6 +10249,66 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L29">
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R32:R33">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D33">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:E33">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:F33">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
@@ -10166,7 +10320,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L29">
+  <conditionalFormatting sqref="G32:G33">
     <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
@@ -10178,7 +10332,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R32:R33">
+  <conditionalFormatting sqref="H32:H33">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
@@ -10190,7 +10344,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32:D33">
+  <conditionalFormatting sqref="I32:I33">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32:J33">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
@@ -10202,7 +10368,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32:E33">
+  <conditionalFormatting sqref="K32:K33">
     <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
@@ -10214,7 +10380,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F33">
+  <conditionalFormatting sqref="L32:L33">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
@@ -10226,7 +10392,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32:G33">
+  <conditionalFormatting sqref="M32:M33">
     <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
@@ -10238,7 +10404,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32:H33">
+  <conditionalFormatting sqref="N32:N33">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
@@ -10250,7 +10416,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:I33">
+  <conditionalFormatting sqref="O32:O33">
     <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
@@ -10262,7 +10428,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32:J33">
+  <conditionalFormatting sqref="P32:P33">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
@@ -10274,7 +10440,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K32:K33">
+  <conditionalFormatting sqref="Q32:Q33">
     <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
@@ -10286,80 +10452,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L32:L33">
-    <cfRule type="colorScale" priority="66">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M32:M33">
-    <cfRule type="colorScale" priority="65">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N32:N33">
-    <cfRule type="colorScale" priority="64">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O32:O33">
-    <cfRule type="colorScale" priority="63">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P32:P33">
-    <cfRule type="colorScale" priority="62">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q32:Q33">
-    <cfRule type="colorScale" priority="61">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="colorScale" priority="45">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10371,7 +10465,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N34:N35">
-    <cfRule type="colorScale" priority="44">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10383,7 +10477,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O34:O35">
-    <cfRule type="colorScale" priority="43">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10395,7 +10489,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R34:R35">
-    <cfRule type="colorScale" priority="42">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10407,7 +10501,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="colorScale" priority="26">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10419,7 +10513,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="colorScale" priority="25">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10431,7 +10525,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10443,7 +10537,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="colorScale" priority="23">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10455,7 +10549,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10467,6 +10561,78 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:S11">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S32:S35">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S26:S29">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T2:T5">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T8:T11">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T14:T17">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T20:T23">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -10478,7 +10644,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S32:S35">
+  <conditionalFormatting sqref="T26:T29">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -10490,7 +10656,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S26:S29">
+  <conditionalFormatting sqref="T32:T35">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -10502,7 +10668,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T5">
+  <conditionalFormatting sqref="U2:U5">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -10514,7 +10680,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T8:T11">
+  <conditionalFormatting sqref="U8:U11">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -10526,7 +10692,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T14:T17">
+  <conditionalFormatting sqref="U16:U17">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -10538,7 +10704,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T20:T23">
+  <conditionalFormatting sqref="U22:U23">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -10550,7 +10716,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T26:T29">
+  <conditionalFormatting sqref="U26:U27">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -10562,7 +10728,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T32:T35">
+  <conditionalFormatting sqref="U32:U35">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/migforecasting/clustering/AN-method output (only mundist).xlsx
+++ b/migforecasting/clustering/AN-method output (only mundist).xlsx
@@ -1554,7 +1554,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2573,7 +2572,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7037,7 +7035,7 @@
   <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+      <selection activeCell="Y23" sqref="Y23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7195,6 +7193,9 @@
       <c r="U2" s="2">
         <v>-34.569999999999993</v>
       </c>
+      <c r="V2" s="2">
+        <v>25.00999999999998</v>
+      </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -7260,6 +7261,9 @@
       <c r="U3" s="2">
         <v>-93.349999999999966</v>
       </c>
+      <c r="V3" s="2">
+        <v>-18.079999999999998</v>
+      </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -7325,6 +7329,9 @@
       <c r="U4" s="2">
         <v>-71.819999999999965</v>
       </c>
+      <c r="V4" s="2">
+        <v>2.0199999999999911</v>
+      </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -7389,6 +7396,9 @@
       </c>
       <c r="U5" s="2">
         <v>-65.259999999999991</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0.43999999999998851</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -7479,6 +7489,9 @@
       <c r="U8" s="2">
         <v>-50.12</v>
       </c>
+      <c r="V8" s="2">
+        <v>81.009999999999962</v>
+      </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -7544,6 +7557,9 @@
       <c r="U9" s="2">
         <v>-142.03</v>
       </c>
+      <c r="V9" s="2">
+        <v>0.93999999999998052</v>
+      </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -7609,6 +7625,9 @@
       <c r="U10" s="2">
         <v>-111.22</v>
       </c>
+      <c r="V10" s="2">
+        <v>47.079999999999977</v>
+      </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -7673,6 +7692,9 @@
       </c>
       <c r="U11" s="2">
         <v>-108.98</v>
+      </c>
+      <c r="V11" s="2">
+        <v>36.819999999999958</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -7747,6 +7769,9 @@
       <c r="U14" s="52">
         <v>-168.05</v>
       </c>
+      <c r="V14" s="2">
+        <v>-38.979999999999997</v>
+      </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -7812,6 +7837,9 @@
       <c r="U15" s="52">
         <v>-124.14</v>
       </c>
+      <c r="V15" s="2">
+        <v>-54.820000000000007</v>
+      </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -7877,8 +7905,11 @@
       <c r="U16" s="2">
         <v>-112.38</v>
       </c>
+      <c r="V16" s="2">
+        <v>-49.940000000000019</v>
+      </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2</v>
       </c>
@@ -7942,16 +7973,19 @@
       <c r="U17" s="2">
         <v>-105.42</v>
       </c>
+      <c r="V17" s="2">
+        <v>-50</v>
+      </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="S18" s="49"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="S19" s="49"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>3</v>
       </c>
@@ -8015,8 +8049,11 @@
       <c r="U20" s="52">
         <v>-142.30000000000001</v>
       </c>
+      <c r="V20" s="2">
+        <v>-8.8800000000000185</v>
+      </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>3</v>
       </c>
@@ -8080,8 +8117,11 @@
       <c r="U21" s="52">
         <v>-116.92</v>
       </c>
+      <c r="V21" s="2">
+        <v>-36.160000000000018</v>
+      </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>3</v>
       </c>
@@ -8145,8 +8185,11 @@
       <c r="U22" s="2">
         <v>-91.620000000000019</v>
       </c>
+      <c r="V22" s="2">
+        <v>-32.65</v>
+      </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>3</v>
       </c>
@@ -8210,16 +8253,19 @@
       <c r="U23" s="2">
         <v>-92.730000000000018</v>
       </c>
+      <c r="V23" s="2">
+        <v>-31.68</v>
+      </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="S24" s="49"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="S25" s="49"/>
       <c r="U25" s="2"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>4</v>
       </c>
@@ -8283,8 +8329,11 @@
       <c r="U26" s="2">
         <v>-94.879999999999953</v>
       </c>
+      <c r="V26" s="2">
+        <v>-50.65</v>
+      </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>4</v>
       </c>
@@ -8348,8 +8397,11 @@
       <c r="U27" s="2">
         <v>-103.7</v>
       </c>
+      <c r="V27" s="2">
+        <v>-69.759999999999977</v>
+      </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>4</v>
       </c>
@@ -8413,8 +8465,11 @@
       <c r="U28" s="52">
         <v>-105.05</v>
       </c>
+      <c r="V28" s="2">
+        <v>-69.239999999999981</v>
+      </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>4</v>
       </c>
@@ -8478,16 +8533,19 @@
       <c r="U29" s="52">
         <v>-104.18</v>
       </c>
+      <c r="V29" s="2">
+        <v>-51.47999999999999</v>
+      </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="S30" s="49"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="S31" s="49"/>
       <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>5</v>
       </c>
@@ -8551,8 +8609,11 @@
       <c r="U32" s="2">
         <v>-88.140000000000015</v>
       </c>
+      <c r="V32" s="2">
+        <v>6.4299999999999846</v>
+      </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>5</v>
       </c>
@@ -8616,8 +8677,11 @@
       <c r="U33" s="2">
         <v>-190.63000000000011</v>
       </c>
+      <c r="V33" s="2">
+        <v>-71.200000000000017</v>
+      </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>5</v>
       </c>
@@ -8681,8 +8745,11 @@
       <c r="U34" s="2">
         <v>-127.17</v>
       </c>
+      <c r="V34" s="2">
+        <v>-32.19</v>
+      </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>5</v>
       </c>
@@ -8745,10 +8812,85 @@
       </c>
       <c r="U35" s="2">
         <v>-127.41</v>
+      </c>
+      <c r="V35" s="2">
+        <v>-21</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D3">
+    <cfRule type="colorScale" priority="375">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="colorScale" priority="374">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F3">
+    <cfRule type="colorScale" priority="373">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G3">
+    <cfRule type="colorScale" priority="372">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H3">
+    <cfRule type="colorScale" priority="371">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I3">
+    <cfRule type="colorScale" priority="370">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J3">
     <cfRule type="colorScale" priority="369">
       <colorScale>
         <cfvo type="min"/>
@@ -8760,7 +8902,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="K2:K3">
     <cfRule type="colorScale" priority="368">
       <colorScale>
         <cfvo type="min"/>
@@ -8772,7 +8914,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F3">
+  <conditionalFormatting sqref="L2:L3">
     <cfRule type="colorScale" priority="367">
       <colorScale>
         <cfvo type="min"/>
@@ -8784,7 +8926,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G3">
+  <conditionalFormatting sqref="M2:M3">
     <cfRule type="colorScale" priority="366">
       <colorScale>
         <cfvo type="min"/>
@@ -8796,7 +8938,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H3">
+  <conditionalFormatting sqref="N2:N3">
     <cfRule type="colorScale" priority="365">
       <colorScale>
         <cfvo type="min"/>
@@ -8808,7 +8950,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I3">
+  <conditionalFormatting sqref="O2:O3">
     <cfRule type="colorScale" priority="364">
       <colorScale>
         <cfvo type="min"/>
@@ -8820,7 +8962,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J3">
+  <conditionalFormatting sqref="P2:P3">
     <cfRule type="colorScale" priority="363">
       <colorScale>
         <cfvo type="min"/>
@@ -8832,7 +8974,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K3">
+  <conditionalFormatting sqref="Q2:Q3">
     <cfRule type="colorScale" priority="362">
       <colorScale>
         <cfvo type="min"/>
@@ -8844,7 +8986,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L3">
+  <conditionalFormatting sqref="R2:R3">
     <cfRule type="colorScale" priority="361">
       <colorScale>
         <cfvo type="min"/>
@@ -8856,79 +8998,79 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M3">
-    <cfRule type="colorScale" priority="360">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N3">
-    <cfRule type="colorScale" priority="359">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O3">
-    <cfRule type="colorScale" priority="358">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P3">
-    <cfRule type="colorScale" priority="357">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q3">
-    <cfRule type="colorScale" priority="356">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R3">
-    <cfRule type="colorScale" priority="355">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E5">
+    <cfRule type="colorScale" priority="344">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="colorScale" priority="343">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="colorScale" priority="342">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="colorScale" priority="341">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="colorScale" priority="340">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5">
+    <cfRule type="colorScale" priority="339">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
     <cfRule type="colorScale" priority="338">
       <colorScale>
         <cfvo type="min"/>
@@ -8940,7 +9082,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="N5">
     <cfRule type="colorScale" priority="337">
       <colorScale>
         <cfvo type="min"/>
@@ -8952,7 +9094,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
+  <conditionalFormatting sqref="O5">
     <cfRule type="colorScale" priority="336">
       <colorScale>
         <cfvo type="min"/>
@@ -8964,7 +9106,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
+  <conditionalFormatting sqref="R5">
     <cfRule type="colorScale" priority="335">
       <colorScale>
         <cfvo type="min"/>
@@ -8976,79 +9118,67 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="colorScale" priority="334">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="colorScale" priority="333">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="colorScale" priority="332">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="colorScale" priority="331">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="colorScale" priority="330">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5">
-    <cfRule type="colorScale" priority="329">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E4">
+    <cfRule type="colorScale" priority="319">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="colorScale" priority="318">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4">
+    <cfRule type="colorScale" priority="317">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4">
+    <cfRule type="colorScale" priority="316">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R4">
+    <cfRule type="colorScale" priority="315">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D9">
     <cfRule type="colorScale" priority="313">
       <colorScale>
         <cfvo type="min"/>
@@ -9060,7 +9190,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
+  <conditionalFormatting sqref="E8:E9">
     <cfRule type="colorScale" priority="312">
       <colorScale>
         <cfvo type="min"/>
@@ -9072,7 +9202,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N4">
+  <conditionalFormatting sqref="F8:F9">
     <cfRule type="colorScale" priority="311">
       <colorScale>
         <cfvo type="min"/>
@@ -9084,7 +9214,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4">
+  <conditionalFormatting sqref="G8:G9">
     <cfRule type="colorScale" priority="310">
       <colorScale>
         <cfvo type="min"/>
@@ -9096,7 +9226,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R4">
+  <conditionalFormatting sqref="H8:H9">
     <cfRule type="colorScale" priority="309">
       <colorScale>
         <cfvo type="min"/>
@@ -9108,7 +9238,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D9">
+  <conditionalFormatting sqref="I8:I9">
+    <cfRule type="colorScale" priority="308">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8:J9">
     <cfRule type="colorScale" priority="307">
       <colorScale>
         <cfvo type="min"/>
@@ -9120,7 +9262,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E9">
+  <conditionalFormatting sqref="K8:K9">
     <cfRule type="colorScale" priority="306">
       <colorScale>
         <cfvo type="min"/>
@@ -9132,7 +9274,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F9">
+  <conditionalFormatting sqref="L8:L9">
     <cfRule type="colorScale" priority="305">
       <colorScale>
         <cfvo type="min"/>
@@ -9144,7 +9286,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G9">
+  <conditionalFormatting sqref="M8:M9">
     <cfRule type="colorScale" priority="304">
       <colorScale>
         <cfvo type="min"/>
@@ -9156,7 +9298,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H9">
+  <conditionalFormatting sqref="N8:N9">
     <cfRule type="colorScale" priority="303">
       <colorScale>
         <cfvo type="min"/>
@@ -9168,7 +9310,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I9">
+  <conditionalFormatting sqref="O8:O9">
     <cfRule type="colorScale" priority="302">
       <colorScale>
         <cfvo type="min"/>
@@ -9180,7 +9322,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8:J9">
+  <conditionalFormatting sqref="P8:P9">
     <cfRule type="colorScale" priority="301">
       <colorScale>
         <cfvo type="min"/>
@@ -9192,7 +9334,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K9">
+  <conditionalFormatting sqref="Q8:Q9">
     <cfRule type="colorScale" priority="300">
       <colorScale>
         <cfvo type="min"/>
@@ -9204,7 +9346,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8:L9">
+  <conditionalFormatting sqref="R8:R9">
     <cfRule type="colorScale" priority="299">
       <colorScale>
         <cfvo type="min"/>
@@ -9216,80 +9358,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8:M9">
-    <cfRule type="colorScale" priority="298">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N8:N9">
-    <cfRule type="colorScale" priority="297">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O8:O9">
-    <cfRule type="colorScale" priority="296">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P8:P9">
-    <cfRule type="colorScale" priority="295">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q8:Q9">
-    <cfRule type="colorScale" priority="294">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R8:R9">
-    <cfRule type="colorScale" priority="293">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="colorScale" priority="276">
+    <cfRule type="colorScale" priority="282">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9301,7 +9371,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="colorScale" priority="275">
+    <cfRule type="colorScale" priority="281">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9313,7 +9383,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="colorScale" priority="274">
+    <cfRule type="colorScale" priority="280">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9325,7 +9395,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="colorScale" priority="273">
+    <cfRule type="colorScale" priority="279">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9337,7 +9407,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10">
-    <cfRule type="colorScale" priority="272">
+    <cfRule type="colorScale" priority="278">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9349,6 +9419,78 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
+    <cfRule type="colorScale" priority="260">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="colorScale" priority="259">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="colorScale" priority="258">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="colorScale" priority="257">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="colorScale" priority="256">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="colorScale" priority="255">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11">
     <cfRule type="colorScale" priority="254">
       <colorScale>
         <cfvo type="min"/>
@@ -9360,7 +9502,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
+  <conditionalFormatting sqref="O11">
     <cfRule type="colorScale" priority="253">
       <colorScale>
         <cfvo type="min"/>
@@ -9372,7 +9514,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11">
+  <conditionalFormatting sqref="R11">
     <cfRule type="colorScale" priority="252">
       <colorScale>
         <cfvo type="min"/>
@@ -9384,19 +9526,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="colorScale" priority="251">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
+  <conditionalFormatting sqref="D14:D15">
     <cfRule type="colorScale" priority="250">
       <colorScale>
         <cfvo type="min"/>
@@ -9408,7 +9538,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
+  <conditionalFormatting sqref="E14:E15">
     <cfRule type="colorScale" priority="249">
       <colorScale>
         <cfvo type="min"/>
@@ -9420,7 +9550,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N11">
+  <conditionalFormatting sqref="F14:F15">
     <cfRule type="colorScale" priority="248">
       <colorScale>
         <cfvo type="min"/>
@@ -9432,7 +9562,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O11">
+  <conditionalFormatting sqref="G14:G15">
     <cfRule type="colorScale" priority="247">
       <colorScale>
         <cfvo type="min"/>
@@ -9444,7 +9574,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R11">
+  <conditionalFormatting sqref="H14:H15">
     <cfRule type="colorScale" priority="246">
       <colorScale>
         <cfvo type="min"/>
@@ -9456,7 +9586,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D15">
+  <conditionalFormatting sqref="I14:I15">
+    <cfRule type="colorScale" priority="245">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14:J15">
     <cfRule type="colorScale" priority="244">
       <colorScale>
         <cfvo type="min"/>
@@ -9468,7 +9610,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E15">
+  <conditionalFormatting sqref="K14:K15">
     <cfRule type="colorScale" priority="243">
       <colorScale>
         <cfvo type="min"/>
@@ -9480,7 +9622,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:F15">
+  <conditionalFormatting sqref="L14:L15">
     <cfRule type="colorScale" priority="242">
       <colorScale>
         <cfvo type="min"/>
@@ -9492,7 +9634,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G15">
+  <conditionalFormatting sqref="M14:M15">
     <cfRule type="colorScale" priority="241">
       <colorScale>
         <cfvo type="min"/>
@@ -9504,7 +9646,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14:H15">
+  <conditionalFormatting sqref="N14:N15">
     <cfRule type="colorScale" priority="240">
       <colorScale>
         <cfvo type="min"/>
@@ -9516,7 +9658,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14:I15">
+  <conditionalFormatting sqref="O14:O15">
     <cfRule type="colorScale" priority="239">
       <colorScale>
         <cfvo type="min"/>
@@ -9528,7 +9670,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J14:J15">
+  <conditionalFormatting sqref="P14:P15">
     <cfRule type="colorScale" priority="238">
       <colorScale>
         <cfvo type="min"/>
@@ -9540,7 +9682,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:K15">
+  <conditionalFormatting sqref="Q14:Q15">
     <cfRule type="colorScale" priority="237">
       <colorScale>
         <cfvo type="min"/>
@@ -9552,7 +9694,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14:L15">
+  <conditionalFormatting sqref="R14:R15">
     <cfRule type="colorScale" priority="236">
       <colorScale>
         <cfvo type="min"/>
@@ -9564,80 +9706,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14:M15">
-    <cfRule type="colorScale" priority="235">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N14:N15">
-    <cfRule type="colorScale" priority="234">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O14:O15">
-    <cfRule type="colorScale" priority="233">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P14:P15">
-    <cfRule type="colorScale" priority="232">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q14:Q15">
-    <cfRule type="colorScale" priority="231">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R14:R15">
-    <cfRule type="colorScale" priority="230">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="colorScale" priority="213">
+    <cfRule type="colorScale" priority="219">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9649,7 +9719,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="colorScale" priority="212">
+    <cfRule type="colorScale" priority="218">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9661,7 +9731,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="colorScale" priority="211">
+    <cfRule type="colorScale" priority="217">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9673,7 +9743,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16">
-    <cfRule type="colorScale" priority="210">
+    <cfRule type="colorScale" priority="216">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9685,7 +9755,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16">
-    <cfRule type="colorScale" priority="209">
+    <cfRule type="colorScale" priority="215">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9697,7 +9767,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="colorScale" priority="193">
+    <cfRule type="colorScale" priority="199">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9709,6 +9779,66 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
+    <cfRule type="colorScale" priority="198">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="colorScale" priority="197">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N17">
+    <cfRule type="colorScale" priority="196">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O17">
+    <cfRule type="colorScale" priority="195">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R17">
+    <cfRule type="colorScale" priority="194">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:D21">
     <cfRule type="colorScale" priority="192">
       <colorScale>
         <cfvo type="min"/>
@@ -9720,7 +9850,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
+  <conditionalFormatting sqref="E20:E21">
     <cfRule type="colorScale" priority="191">
       <colorScale>
         <cfvo type="min"/>
@@ -9732,7 +9862,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N17">
+  <conditionalFormatting sqref="F20:F21">
     <cfRule type="colorScale" priority="190">
       <colorScale>
         <cfvo type="min"/>
@@ -9744,7 +9874,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O17">
+  <conditionalFormatting sqref="G20:G21">
     <cfRule type="colorScale" priority="189">
       <colorScale>
         <cfvo type="min"/>
@@ -9756,7 +9886,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R17">
+  <conditionalFormatting sqref="H20:H21">
     <cfRule type="colorScale" priority="188">
       <colorScale>
         <cfvo type="min"/>
@@ -9768,7 +9898,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20:D21">
+  <conditionalFormatting sqref="I20:I21">
+    <cfRule type="colorScale" priority="187">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20:J21">
     <cfRule type="colorScale" priority="186">
       <colorScale>
         <cfvo type="min"/>
@@ -9780,7 +9922,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20:E21">
+  <conditionalFormatting sqref="K20:K21">
     <cfRule type="colorScale" priority="185">
       <colorScale>
         <cfvo type="min"/>
@@ -9792,7 +9934,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F21">
+  <conditionalFormatting sqref="L20:L21">
     <cfRule type="colorScale" priority="184">
       <colorScale>
         <cfvo type="min"/>
@@ -9804,7 +9946,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20:G21">
+  <conditionalFormatting sqref="M20:M21">
     <cfRule type="colorScale" priority="183">
       <colorScale>
         <cfvo type="min"/>
@@ -9816,7 +9958,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20:H21">
+  <conditionalFormatting sqref="N20:N21">
     <cfRule type="colorScale" priority="182">
       <colorScale>
         <cfvo type="min"/>
@@ -9828,7 +9970,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I21">
+  <conditionalFormatting sqref="O20:O23">
     <cfRule type="colorScale" priority="181">
       <colorScale>
         <cfvo type="min"/>
@@ -9840,7 +9982,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J20:J21">
+  <conditionalFormatting sqref="P20:P21">
     <cfRule type="colorScale" priority="180">
       <colorScale>
         <cfvo type="min"/>
@@ -9852,7 +9994,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20:K21">
+  <conditionalFormatting sqref="Q20:Q21">
     <cfRule type="colorScale" priority="179">
       <colorScale>
         <cfvo type="min"/>
@@ -9864,7 +10006,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L20:L21">
+  <conditionalFormatting sqref="R20:R21">
     <cfRule type="colorScale" priority="178">
       <colorScale>
         <cfvo type="min"/>
@@ -9876,80 +10018,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M20:M21">
-    <cfRule type="colorScale" priority="177">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N20:N21">
-    <cfRule type="colorScale" priority="176">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O20:O23">
-    <cfRule type="colorScale" priority="175">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P20:P21">
-    <cfRule type="colorScale" priority="174">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q20:Q21">
-    <cfRule type="colorScale" priority="173">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R20:R21">
-    <cfRule type="colorScale" priority="172">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E22:E23">
-    <cfRule type="colorScale" priority="156">
+    <cfRule type="colorScale" priority="162">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9961,7 +10031,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:H23">
-    <cfRule type="colorScale" priority="155">
+    <cfRule type="colorScale" priority="161">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9973,7 +10043,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22:N23">
-    <cfRule type="colorScale" priority="154">
+    <cfRule type="colorScale" priority="160">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9985,7 +10055,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R22:R23">
-    <cfRule type="colorScale" priority="152">
+    <cfRule type="colorScale" priority="158">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9997,6 +10067,66 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
+    <cfRule type="colorScale" priority="142">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:D27">
+    <cfRule type="colorScale" priority="140">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:E27">
+    <cfRule type="colorScale" priority="139">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26:F27">
+    <cfRule type="colorScale" priority="138">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26:G27">
+    <cfRule type="colorScale" priority="137">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26:H27">
     <cfRule type="colorScale" priority="136">
       <colorScale>
         <cfvo type="min"/>
@@ -10008,7 +10138,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D27">
+  <conditionalFormatting sqref="I26:I27">
+    <cfRule type="colorScale" priority="135">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26:J27">
     <cfRule type="colorScale" priority="134">
       <colorScale>
         <cfvo type="min"/>
@@ -10020,7 +10162,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E27">
+  <conditionalFormatting sqref="K26:K27">
     <cfRule type="colorScale" priority="133">
       <colorScale>
         <cfvo type="min"/>
@@ -10032,7 +10174,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26:F27">
+  <conditionalFormatting sqref="L26:L27">
     <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="min"/>
@@ -10044,7 +10186,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26:G27">
+  <conditionalFormatting sqref="M26:M27">
     <cfRule type="colorScale" priority="131">
       <colorScale>
         <cfvo type="min"/>
@@ -10056,7 +10198,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26:H27">
+  <conditionalFormatting sqref="N26:N27">
     <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="min"/>
@@ -10068,7 +10210,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26:I27">
+  <conditionalFormatting sqref="O26:O27">
     <cfRule type="colorScale" priority="129">
       <colorScale>
         <cfvo type="min"/>
@@ -10080,7 +10222,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26:J27">
+  <conditionalFormatting sqref="P26:P27">
     <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="min"/>
@@ -10092,7 +10234,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:K27">
+  <conditionalFormatting sqref="Q26:Q27">
     <cfRule type="colorScale" priority="127">
       <colorScale>
         <cfvo type="min"/>
@@ -10104,7 +10246,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L26:L27">
+  <conditionalFormatting sqref="R26:R27">
     <cfRule type="colorScale" priority="126">
       <colorScale>
         <cfvo type="min"/>
@@ -10116,80 +10258,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M26:M27">
-    <cfRule type="colorScale" priority="125">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N26:N27">
-    <cfRule type="colorScale" priority="124">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O26:O27">
-    <cfRule type="colorScale" priority="123">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P26:P27">
-    <cfRule type="colorScale" priority="122">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q26:Q27">
-    <cfRule type="colorScale" priority="121">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R26:R27">
-    <cfRule type="colorScale" priority="120">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E28:E29">
-    <cfRule type="colorScale" priority="104">
+    <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10201,7 +10271,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:H29">
-    <cfRule type="colorScale" priority="103">
+    <cfRule type="colorScale" priority="109">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10213,7 +10283,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R28:R29">
-    <cfRule type="colorScale" priority="102">
+    <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10225,7 +10295,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28:N29">
-    <cfRule type="colorScale" priority="101">
+    <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10237,7 +10307,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O28:O29">
-    <cfRule type="colorScale" priority="100">
+    <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10249,6 +10319,66 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L29">
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R32:R33">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D33">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:E33">
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:F33">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min"/>
@@ -10260,7 +10390,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L29">
+  <conditionalFormatting sqref="G32:G33">
     <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="min"/>
@@ -10272,7 +10402,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R32:R33">
+  <conditionalFormatting sqref="H32:H33">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="min"/>
@@ -10284,7 +10414,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32:D33">
+  <conditionalFormatting sqref="I32:I33">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32:J33">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
@@ -10296,7 +10438,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32:E33">
+  <conditionalFormatting sqref="K32:K33">
     <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
@@ -10308,7 +10450,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F33">
+  <conditionalFormatting sqref="L32:L33">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
@@ -10320,7 +10462,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32:G33">
+  <conditionalFormatting sqref="M32:M33">
     <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
@@ -10332,7 +10474,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32:H33">
+  <conditionalFormatting sqref="N32:N33">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
@@ -10344,7 +10486,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:I33">
+  <conditionalFormatting sqref="O32:O33">
     <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
@@ -10356,7 +10498,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32:J33">
+  <conditionalFormatting sqref="P32:P33">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
@@ -10368,7 +10510,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K32:K33">
+  <conditionalFormatting sqref="Q32:Q33">
     <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
@@ -10380,80 +10522,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L32:L33">
-    <cfRule type="colorScale" priority="72">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M32:M33">
-    <cfRule type="colorScale" priority="71">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N32:N33">
-    <cfRule type="colorScale" priority="70">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O32:O33">
-    <cfRule type="colorScale" priority="69">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P32:P33">
-    <cfRule type="colorScale" priority="68">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q32:Q33">
-    <cfRule type="colorScale" priority="67">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="colorScale" priority="51">
+    <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10465,7 +10535,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N34:N35">
-    <cfRule type="colorScale" priority="50">
+    <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10477,7 +10547,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O34:O35">
-    <cfRule type="colorScale" priority="49">
+    <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10489,7 +10559,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R34:R35">
-    <cfRule type="colorScale" priority="48">
+    <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10501,7 +10571,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="colorScale" priority="32">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10513,7 +10583,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="colorScale" priority="31">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10525,7 +10595,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="colorScale" priority="30">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10537,7 +10607,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="colorScale" priority="29">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10549,7 +10619,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35">
-    <cfRule type="colorScale" priority="28">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10561,6 +10631,78 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:S11">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S32:S35">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S26:S29">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T2:T5">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T8:T11">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T14:T17">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T20:T23">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -10572,7 +10714,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S32:S35">
+  <conditionalFormatting sqref="T26:T29">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -10584,7 +10726,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S26:S29">
+  <conditionalFormatting sqref="T32:T35">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -10596,7 +10738,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T5">
+  <conditionalFormatting sqref="U2:U5">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -10608,7 +10750,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T8:T11">
+  <conditionalFormatting sqref="U8:U11">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -10620,7 +10762,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T14:T17">
+  <conditionalFormatting sqref="U16:U17">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -10632,7 +10774,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T20:T23">
+  <conditionalFormatting sqref="U22:U23">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -10644,7 +10786,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T26:T29">
+  <conditionalFormatting sqref="U26:U27">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -10656,7 +10798,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T32:T35">
+  <conditionalFormatting sqref="U32:U35">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -10668,7 +10810,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U2:U5">
+  <conditionalFormatting sqref="V2:V5">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -10680,7 +10822,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U8:U11">
+  <conditionalFormatting sqref="V8:V11">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -10692,7 +10834,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U16:U17">
+  <conditionalFormatting sqref="V14:V17">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -10704,7 +10846,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U22:U23">
+  <conditionalFormatting sqref="V20:V23">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -10716,7 +10858,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U26:U27">
+  <conditionalFormatting sqref="V26:V29">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -10728,7 +10870,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U32:U35">
+  <conditionalFormatting sqref="V32:V35">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
